--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>44777</v>
+        <v>44782</v>
       </c>
       <c r="D1" s="2">
-        <v>44776</v>
+        <v>44781</v>
       </c>
       <c r="E1" s="2">
-        <v>44748</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="D2">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="E2">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="D3">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="E3">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2.98</v>
+        <v>3.16</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="E4">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.11</v>
+        <v>3.33</v>
       </c>
       <c r="D5">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="E5">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.03</v>
+        <v>3.28</v>
       </c>
       <c r="D6">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="E6">
-        <v>2.97</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="D7">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="E7">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="D8">
-        <v>2.86</v>
+        <v>2.91</v>
       </c>
       <c r="E8">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="D9">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="E9">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="D10">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="E10">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="D11">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="E11">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="D12">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44783</v>
+      </c>
+      <c r="D1" s="2">
         <v>44782</v>
       </c>
-      <c r="D1" s="2">
-        <v>44781</v>
-      </c>
       <c r="E1" s="2">
-        <v>44753</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="D2">
         <v>2.23</v>
       </c>
       <c r="E2">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.65</v>
+      </c>
+      <c r="D3">
         <v>2.67</v>
       </c>
-      <c r="D3">
-        <v>2.65</v>
-      </c>
       <c r="E3">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.13</v>
+      </c>
+      <c r="D4">
         <v>3.16</v>
       </c>
-      <c r="D4">
-        <v>3.15</v>
-      </c>
       <c r="E4">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.26</v>
+      </c>
+      <c r="D5">
         <v>3.33</v>
       </c>
-      <c r="D5">
-        <v>3.3</v>
-      </c>
       <c r="E5">
-        <v>2.97</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.23</v>
+      </c>
+      <c r="D6">
         <v>3.28</v>
       </c>
-      <c r="D6">
-        <v>3.21</v>
-      </c>
       <c r="E6">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.13</v>
+      </c>
+      <c r="D7">
         <v>3.2</v>
       </c>
-      <c r="D7">
-        <v>3.14</v>
-      </c>
       <c r="E7">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>2.93</v>
+      </c>
+      <c r="D8">
         <v>2.97</v>
       </c>
-      <c r="D8">
-        <v>2.91</v>
-      </c>
       <c r="E8">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>2.86</v>
+      </c>
+      <c r="D9">
         <v>2.89</v>
       </c>
-      <c r="D9">
-        <v>2.85</v>
-      </c>
       <c r="E9">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.78</v>
+      </c>
+      <c r="D10">
         <v>2.8</v>
       </c>
-      <c r="D10">
-        <v>2.77</v>
-      </c>
       <c r="E10">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.27</v>
+      </c>
+      <c r="D11">
         <v>3.24</v>
       </c>
-      <c r="D11">
-        <v>3.22</v>
-      </c>
       <c r="E11">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.04</v>
+      </c>
+      <c r="D12">
         <v>3.01</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44784</v>
+      </c>
+      <c r="D1" s="2">
         <v>44783</v>
       </c>
-      <c r="D1" s="2">
-        <v>44782</v>
-      </c>
       <c r="E1" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -444,10 +444,10 @@
         <v>2.24</v>
       </c>
       <c r="D2">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="E2">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.62</v>
+      </c>
+      <c r="D3">
         <v>2.65</v>
       </c>
-      <c r="D3">
-        <v>2.67</v>
-      </c>
       <c r="E3">
-        <v>2.22</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.08</v>
+      </c>
+      <c r="D4">
         <v>3.13</v>
       </c>
-      <c r="D4">
-        <v>3.16</v>
-      </c>
       <c r="E4">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.25</v>
+      </c>
+      <c r="D5">
         <v>3.26</v>
       </c>
-      <c r="D5">
-        <v>3.33</v>
-      </c>
       <c r="E5">
-        <v>3.07</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,10 +512,10 @@
         <v>3.23</v>
       </c>
       <c r="D6">
-        <v>3.28</v>
+        <v>3.23</v>
       </c>
       <c r="E6">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.16</v>
+      </c>
+      <c r="D7">
         <v>3.13</v>
       </c>
-      <c r="D7">
-        <v>3.2</v>
-      </c>
       <c r="E7">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>2.98</v>
+      </c>
+      <c r="D8">
         <v>2.93</v>
       </c>
-      <c r="D8">
-        <v>2.97</v>
-      </c>
       <c r="E8">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>2.94</v>
+      </c>
+      <c r="D9">
         <v>2.86</v>
       </c>
-      <c r="D9">
-        <v>2.89</v>
-      </c>
       <c r="E9">
-        <v>3.01</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.87</v>
+      </c>
+      <c r="D10">
         <v>2.78</v>
       </c>
-      <c r="D10">
-        <v>2.8</v>
-      </c>
       <c r="E10">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.38</v>
+      </c>
+      <c r="D11">
         <v>3.27</v>
       </c>
-      <c r="D11">
-        <v>3.24</v>
-      </c>
       <c r="E11">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.15</v>
+      </c>
+      <c r="D12">
         <v>3.04</v>
       </c>
-      <c r="D12">
-        <v>3.01</v>
-      </c>
       <c r="E12">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44785</v>
+      </c>
+      <c r="D1" s="2">
         <v>44784</v>
       </c>
-      <c r="D1" s="2">
-        <v>44783</v>
-      </c>
       <c r="E1" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="D2">
         <v>2.24</v>
       </c>
       <c r="E2">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.63</v>
+      </c>
+      <c r="D3">
         <v>2.62</v>
       </c>
-      <c r="D3">
-        <v>2.65</v>
-      </c>
       <c r="E3">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.13</v>
+      </c>
+      <c r="D4">
         <v>3.08</v>
       </c>
-      <c r="D4">
-        <v>3.13</v>
-      </c>
       <c r="E4">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.26</v>
+      </c>
+      <c r="D5">
         <v>3.25</v>
       </c>
-      <c r="D5">
-        <v>3.26</v>
-      </c>
       <c r="E5">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="D6">
         <v>3.23</v>
       </c>
       <c r="E6">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.18</v>
+      </c>
+      <c r="D7">
         <v>3.16</v>
       </c>
-      <c r="D7">
-        <v>3.13</v>
-      </c>
       <c r="E7">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>2.97</v>
+      </c>
+      <c r="D8">
         <v>2.98</v>
       </c>
-      <c r="D8">
-        <v>2.93</v>
-      </c>
       <c r="E8">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>2.92</v>
+      </c>
+      <c r="D9">
         <v>2.94</v>
       </c>
-      <c r="D9">
-        <v>2.86</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.84</v>
+      </c>
+      <c r="D10">
         <v>2.87</v>
       </c>
-      <c r="D10">
-        <v>2.78</v>
-      </c>
       <c r="E10">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.34</v>
+      </c>
+      <c r="D11">
         <v>3.38</v>
       </c>
-      <c r="D11">
-        <v>3.27</v>
-      </c>
       <c r="E11">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.12</v>
+      </c>
+      <c r="D12">
         <v>3.15</v>
       </c>
-      <c r="D12">
-        <v>3.04</v>
-      </c>
       <c r="E12">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44788</v>
+      </c>
+      <c r="D1" s="2">
         <v>44785</v>
       </c>
-      <c r="D1" s="2">
-        <v>44784</v>
-      </c>
       <c r="E1" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.27</v>
+      </c>
+      <c r="D2">
         <v>2.23</v>
       </c>
-      <c r="D2">
-        <v>2.24</v>
-      </c>
       <c r="E2">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.72</v>
+      </c>
+      <c r="D3">
         <v>2.63</v>
       </c>
-      <c r="D3">
-        <v>2.62</v>
-      </c>
       <c r="E3">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,10 +478,10 @@
         <v>3.13</v>
       </c>
       <c r="D4">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="E4">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.23</v>
+      </c>
+      <c r="D5">
         <v>3.26</v>
       </c>
-      <c r="D5">
-        <v>3.25</v>
-      </c>
       <c r="E5">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.2</v>
+      </c>
+      <c r="D6">
         <v>3.25</v>
       </c>
-      <c r="D6">
-        <v>3.23</v>
-      </c>
       <c r="E6">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.14</v>
+      </c>
+      <c r="D7">
         <v>3.18</v>
       </c>
-      <c r="D7">
-        <v>3.16</v>
-      </c>
       <c r="E7">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>2.91</v>
+      </c>
+      <c r="D8">
         <v>2.97</v>
       </c>
-      <c r="D8">
-        <v>2.98</v>
-      </c>
       <c r="E8">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>2.86</v>
+      </c>
+      <c r="D9">
         <v>2.92</v>
       </c>
-      <c r="D9">
-        <v>2.94</v>
-      </c>
       <c r="E9">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.79</v>
+      </c>
+      <c r="D10">
         <v>2.84</v>
       </c>
-      <c r="D10">
-        <v>2.87</v>
-      </c>
       <c r="E10">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.31</v>
+      </c>
+      <c r="D11">
         <v>3.34</v>
       </c>
-      <c r="D11">
-        <v>3.38</v>
-      </c>
       <c r="E11">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.1</v>
+      </c>
+      <c r="D12">
         <v>3.12</v>
       </c>
-      <c r="D12">
-        <v>3.15</v>
-      </c>
       <c r="E12">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44789</v>
+      </c>
+      <c r="D1" s="2">
         <v>44788</v>
       </c>
-      <c r="D1" s="2">
-        <v>44785</v>
-      </c>
       <c r="E1" s="2">
-        <v>44757</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.26</v>
+      </c>
+      <c r="D2">
         <v>2.27</v>
       </c>
-      <c r="D2">
-        <v>2.23</v>
-      </c>
       <c r="E2">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.7</v>
+      </c>
+      <c r="D3">
         <v>2.72</v>
       </c>
-      <c r="D3">
-        <v>2.63</v>
-      </c>
       <c r="E3">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="D4">
         <v>3.13</v>
       </c>
       <c r="E4">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.26</v>
+      </c>
+      <c r="D5">
         <v>3.23</v>
       </c>
-      <c r="D5">
-        <v>3.26</v>
-      </c>
       <c r="E5">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.25</v>
+      </c>
+      <c r="D6">
         <v>3.2</v>
       </c>
-      <c r="D6">
-        <v>3.25</v>
-      </c>
       <c r="E6">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.19</v>
+      </c>
+      <c r="D7">
         <v>3.14</v>
       </c>
-      <c r="D7">
-        <v>3.18</v>
-      </c>
       <c r="E7">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>2.95</v>
+      </c>
+      <c r="D8">
         <v>2.91</v>
       </c>
-      <c r="D8">
-        <v>2.97</v>
-      </c>
       <c r="E8">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>2.9</v>
+      </c>
+      <c r="D9">
         <v>2.86</v>
       </c>
-      <c r="D9">
-        <v>2.92</v>
-      </c>
       <c r="E9">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.82</v>
+      </c>
+      <c r="D10">
         <v>2.79</v>
       </c>
-      <c r="D10">
-        <v>2.84</v>
-      </c>
       <c r="E10">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -597,10 +597,10 @@
         <v>3.31</v>
       </c>
       <c r="D11">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="E11">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.11</v>
+      </c>
+      <c r="D12">
         <v>3.1</v>
       </c>
-      <c r="D12">
-        <v>3.12</v>
-      </c>
       <c r="E12">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44790</v>
+      </c>
+      <c r="D1" s="2">
         <v>44789</v>
       </c>
-      <c r="D1" s="2">
-        <v>44788</v>
-      </c>
       <c r="E1" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.22</v>
+      </c>
+      <c r="D2">
         <v>2.26</v>
       </c>
-      <c r="D2">
-        <v>2.27</v>
-      </c>
       <c r="E2">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.68</v>
+      </c>
+      <c r="D3">
         <v>2.7</v>
       </c>
-      <c r="D3">
-        <v>2.72</v>
-      </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.15</v>
+      </c>
+      <c r="D4">
         <v>3.12</v>
       </c>
-      <c r="D4">
-        <v>3.13</v>
-      </c>
       <c r="E4">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.27</v>
+      </c>
+      <c r="D5">
         <v>3.26</v>
       </c>
-      <c r="D5">
-        <v>3.23</v>
-      </c>
       <c r="E5">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.28</v>
+      </c>
+      <c r="D6">
         <v>3.25</v>
       </c>
-      <c r="D6">
-        <v>3.2</v>
-      </c>
       <c r="E6">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.27</v>
+      </c>
+      <c r="D7">
         <v>3.19</v>
       </c>
-      <c r="D7">
-        <v>3.14</v>
-      </c>
       <c r="E7">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.04</v>
+      </c>
+      <c r="D8">
         <v>2.95</v>
       </c>
-      <c r="D8">
-        <v>2.91</v>
-      </c>
       <c r="E8">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>2.99</v>
+      </c>
+      <c r="D9">
         <v>2.9</v>
       </c>
-      <c r="D9">
-        <v>2.86</v>
-      </c>
       <c r="E9">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.89</v>
+      </c>
+      <c r="D10">
         <v>2.82</v>
       </c>
-      <c r="D10">
-        <v>2.79</v>
-      </c>
       <c r="E10">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="D11">
         <v>3.31</v>
       </c>
       <c r="E11">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.15</v>
+      </c>
+      <c r="D12">
         <v>3.11</v>
       </c>
-      <c r="D12">
-        <v>3.1</v>
-      </c>
       <c r="E12">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44791</v>
+      </c>
+      <c r="D1" s="2">
         <v>44790</v>
       </c>
-      <c r="D1" s="2">
-        <v>44789</v>
-      </c>
       <c r="E1" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.23</v>
+      </c>
+      <c r="D2">
         <v>2.22</v>
       </c>
-      <c r="D2">
-        <v>2.26</v>
-      </c>
       <c r="E2">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.71</v>
+      </c>
+      <c r="D3">
         <v>2.68</v>
       </c>
-      <c r="D3">
-        <v>2.7</v>
-      </c>
       <c r="E3">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.12</v>
+      </c>
+      <c r="D4">
         <v>3.15</v>
       </c>
-      <c r="D4">
-        <v>3.12</v>
-      </c>
       <c r="E4">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.24</v>
+      </c>
+      <c r="D5">
         <v>3.27</v>
-      </c>
-      <c r="D5">
-        <v>3.26</v>
       </c>
       <c r="E5">
         <v>3.18</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.22</v>
+      </c>
+      <c r="D6">
         <v>3.28</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.25</v>
-      </c>
-      <c r="E6">
-        <v>3.23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.23</v>
+      </c>
+      <c r="D7">
         <v>3.27</v>
       </c>
-      <c r="D7">
-        <v>3.19</v>
-      </c>
       <c r="E7">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.02</v>
+      </c>
+      <c r="D8">
         <v>3.04</v>
       </c>
-      <c r="D8">
-        <v>2.95</v>
-      </c>
       <c r="E8">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>2.97</v>
+      </c>
+      <c r="D9">
         <v>2.99</v>
       </c>
-      <c r="D9">
-        <v>2.9</v>
-      </c>
       <c r="E9">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.88</v>
+      </c>
+      <c r="D10">
         <v>2.89</v>
       </c>
-      <c r="D10">
-        <v>2.82</v>
-      </c>
       <c r="E10">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.35</v>
+      </c>
+      <c r="D11">
         <v>3.37</v>
       </c>
-      <c r="D11">
-        <v>3.31</v>
-      </c>
       <c r="E11">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.14</v>
+      </c>
+      <c r="D12">
         <v>3.15</v>
-      </c>
-      <c r="D12">
-        <v>3.11</v>
       </c>
       <c r="E12">
         <v>3.17</v>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44792</v>
+      </c>
+      <c r="D1" s="2">
         <v>44791</v>
       </c>
-      <c r="D1" s="2">
-        <v>44790</v>
-      </c>
       <c r="E1" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -444,10 +444,10 @@
         <v>2.23</v>
       </c>
       <c r="D2">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="E2">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.74</v>
+      </c>
+      <c r="D3">
         <v>2.71</v>
       </c>
-      <c r="D3">
-        <v>2.68</v>
-      </c>
       <c r="E3">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.16</v>
+      </c>
+      <c r="D4">
         <v>3.12</v>
       </c>
-      <c r="D4">
-        <v>3.15</v>
-      </c>
       <c r="E4">
-        <v>3.04</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.26</v>
+      </c>
+      <c r="D5">
         <v>3.24</v>
       </c>
-      <c r="D5">
-        <v>3.27</v>
-      </c>
       <c r="E5">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.25</v>
+      </c>
+      <c r="D6">
         <v>3.22</v>
       </c>
-      <c r="D6">
-        <v>3.28</v>
-      </c>
       <c r="E6">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.28</v>
+      </c>
+      <c r="D7">
         <v>3.23</v>
       </c>
-      <c r="D7">
-        <v>3.27</v>
-      </c>
       <c r="E7">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.11</v>
+      </c>
+      <c r="D8">
         <v>3.02</v>
       </c>
-      <c r="D8">
-        <v>3.04</v>
-      </c>
       <c r="E8">
-        <v>3.18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.06</v>
+      </c>
+      <c r="D9">
         <v>2.97</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.99</v>
-      </c>
-      <c r="E9">
-        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>2.98</v>
+      </c>
+      <c r="D10">
         <v>2.88</v>
       </c>
-      <c r="D10">
-        <v>2.89</v>
-      </c>
       <c r="E10">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.44</v>
+      </c>
+      <c r="D11">
         <v>3.35</v>
       </c>
-      <c r="D11">
-        <v>3.37</v>
-      </c>
       <c r="E11">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.22</v>
+      </c>
+      <c r="D12">
         <v>3.14</v>
       </c>
-      <c r="D12">
-        <v>3.15</v>
-      </c>
       <c r="E12">
-        <v>3.17</v>
+        <v>3.08</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44795</v>
+      </c>
+      <c r="D1" s="2">
         <v>44792</v>
       </c>
-      <c r="D1" s="2">
-        <v>44791</v>
-      </c>
       <c r="E1" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="D2">
         <v>2.23</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.82</v>
+      </c>
+      <c r="D3">
         <v>2.74</v>
       </c>
-      <c r="D3">
-        <v>2.71</v>
-      </c>
       <c r="E3">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.23</v>
+      </c>
+      <c r="D4">
         <v>3.16</v>
       </c>
-      <c r="D4">
-        <v>3.12</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.32</v>
+      </c>
+      <c r="D5">
         <v>3.26</v>
       </c>
-      <c r="D5">
-        <v>3.24</v>
-      </c>
       <c r="E5">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.32</v>
+      </c>
+      <c r="D6">
         <v>3.25</v>
       </c>
-      <c r="D6">
-        <v>3.22</v>
-      </c>
       <c r="E6">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.36</v>
+      </c>
+      <c r="D7">
         <v>3.28</v>
       </c>
-      <c r="D7">
-        <v>3.23</v>
-      </c>
       <c r="E7">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.17</v>
+      </c>
+      <c r="D8">
         <v>3.11</v>
       </c>
-      <c r="D8">
-        <v>3.02</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.12</v>
+      </c>
+      <c r="D9">
         <v>3.06</v>
       </c>
-      <c r="D9">
-        <v>2.97</v>
-      </c>
       <c r="E9">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.03</v>
+      </c>
+      <c r="D10">
         <v>2.98</v>
       </c>
-      <c r="D10">
-        <v>2.88</v>
-      </c>
       <c r="E10">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.48</v>
+      </c>
+      <c r="D11">
         <v>3.44</v>
       </c>
-      <c r="D11">
-        <v>3.35</v>
-      </c>
       <c r="E11">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.24</v>
+      </c>
+      <c r="D12">
         <v>3.22</v>
       </c>
-      <c r="D12">
-        <v>3.14</v>
-      </c>
       <c r="E12">
-        <v>3.08</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44796</v>
+      </c>
+      <c r="D1" s="2">
         <v>44795</v>
       </c>
-      <c r="D1" s="2">
-        <v>44792</v>
-      </c>
       <c r="E1" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.28</v>
+      </c>
+      <c r="D2">
         <v>2.27</v>
       </c>
-      <c r="D2">
-        <v>2.23</v>
-      </c>
       <c r="E2">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.8</v>
+      </c>
+      <c r="D3">
         <v>2.82</v>
       </c>
-      <c r="D3">
-        <v>2.74</v>
-      </c>
       <c r="E3">
-        <v>2.49</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.21</v>
+      </c>
+      <c r="D4">
         <v>3.23</v>
       </c>
-      <c r="D4">
-        <v>3.16</v>
-      </c>
       <c r="E4">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.29</v>
+      </c>
+      <c r="D5">
         <v>3.32</v>
       </c>
-      <c r="D5">
-        <v>3.26</v>
-      </c>
       <c r="E5">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.29</v>
+      </c>
+      <c r="D6">
         <v>3.32</v>
       </c>
-      <c r="D6">
-        <v>3.25</v>
-      </c>
       <c r="E6">
-        <v>2.98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.35</v>
+      </c>
+      <c r="D7">
         <v>3.36</v>
       </c>
-      <c r="D7">
-        <v>3.28</v>
-      </c>
       <c r="E7">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.18</v>
+      </c>
+      <c r="D8">
         <v>3.17</v>
       </c>
-      <c r="D8">
-        <v>3.11</v>
-      </c>
       <c r="E8">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.14</v>
+      </c>
+      <c r="D9">
         <v>3.12</v>
       </c>
-      <c r="D9">
-        <v>3.06</v>
-      </c>
       <c r="E9">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.05</v>
+      </c>
+      <c r="D10">
         <v>3.03</v>
       </c>
-      <c r="D10">
-        <v>2.98</v>
-      </c>
       <c r="E10">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.49</v>
+      </c>
+      <c r="D11">
         <v>3.48</v>
       </c>
-      <c r="D11">
-        <v>3.44</v>
-      </c>
       <c r="E11">
-        <v>3.23</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.26</v>
+      </c>
+      <c r="D12">
         <v>3.24</v>
       </c>
-      <c r="D12">
-        <v>3.22</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44797</v>
+      </c>
+      <c r="D1" s="2">
         <v>44796</v>
       </c>
-      <c r="D1" s="2">
-        <v>44795</v>
-      </c>
       <c r="E1" s="2">
-        <v>44767</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.29</v>
+      </c>
+      <c r="D2">
         <v>2.28</v>
       </c>
-      <c r="D2">
-        <v>2.27</v>
-      </c>
       <c r="E2">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.82</v>
+      </c>
+      <c r="D3">
         <v>2.8</v>
       </c>
-      <c r="D3">
-        <v>2.82</v>
-      </c>
       <c r="E3">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.28</v>
+      </c>
+      <c r="D4">
         <v>3.21</v>
       </c>
-      <c r="D4">
-        <v>3.23</v>
-      </c>
       <c r="E4">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.35</v>
+      </c>
+      <c r="D5">
         <v>3.29</v>
       </c>
-      <c r="D5">
-        <v>3.32</v>
-      </c>
       <c r="E5">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.36</v>
+      </c>
+      <c r="D6">
         <v>3.29</v>
       </c>
-      <c r="D6">
-        <v>3.32</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.4</v>
+      </c>
+      <c r="D7">
         <v>3.35</v>
       </c>
-      <c r="D7">
-        <v>3.36</v>
-      </c>
       <c r="E7">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.2</v>
+      </c>
+      <c r="D8">
         <v>3.18</v>
-      </c>
-      <c r="D8">
-        <v>3.17</v>
       </c>
       <c r="E8">
         <v>2.89</v>
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.2</v>
+      </c>
+      <c r="D9">
         <v>3.14</v>
       </c>
-      <c r="D9">
-        <v>3.12</v>
-      </c>
       <c r="E9">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,10 +577,10 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.11</v>
+      </c>
+      <c r="D10">
         <v>3.05</v>
-      </c>
-      <c r="D10">
-        <v>3.03</v>
       </c>
       <c r="E10">
         <v>2.81</v>
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.55</v>
+      </c>
+      <c r="D11">
         <v>3.49</v>
       </c>
-      <c r="D11">
-        <v>3.48</v>
-      </c>
       <c r="E11">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.32</v>
+      </c>
+      <c r="D12">
         <v>3.26</v>
       </c>
-      <c r="D12">
-        <v>3.24</v>
-      </c>
       <c r="E12">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44798</v>
+      </c>
+      <c r="D1" s="2">
         <v>44797</v>
       </c>
-      <c r="D1" s="2">
-        <v>44796</v>
-      </c>
       <c r="E1" s="2">
-        <v>44768</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.42</v>
+      </c>
+      <c r="D2">
         <v>2.29</v>
       </c>
-      <c r="D2">
-        <v>2.28</v>
-      </c>
       <c r="E2">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.88</v>
+      </c>
+      <c r="D3">
         <v>2.82</v>
       </c>
-      <c r="D3">
-        <v>2.8</v>
-      </c>
       <c r="E3">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.25</v>
+      </c>
+      <c r="D4">
         <v>3.28</v>
       </c>
-      <c r="D4">
-        <v>3.21</v>
-      </c>
       <c r="E4">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.33</v>
+      </c>
+      <c r="D5">
         <v>3.35</v>
       </c>
-      <c r="D5">
-        <v>3.29</v>
-      </c>
       <c r="E5">
-        <v>3.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.35</v>
+      </c>
+      <c r="D6">
         <v>3.36</v>
       </c>
-      <c r="D6">
-        <v>3.29</v>
-      </c>
       <c r="E6">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.37</v>
+      </c>
+      <c r="D7">
         <v>3.4</v>
       </c>
-      <c r="D7">
-        <v>3.35</v>
-      </c>
       <c r="E7">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.15</v>
+      </c>
+      <c r="D8">
         <v>3.2</v>
       </c>
-      <c r="D8">
-        <v>3.18</v>
-      </c>
       <c r="E8">
-        <v>2.89</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.11</v>
+      </c>
+      <c r="D9">
         <v>3.2</v>
       </c>
-      <c r="D9">
-        <v>3.14</v>
-      </c>
       <c r="E9">
-        <v>2.88</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.03</v>
+      </c>
+      <c r="D10">
         <v>3.11</v>
       </c>
-      <c r="D10">
-        <v>3.05</v>
-      </c>
       <c r="E10">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.47</v>
+      </c>
+      <c r="D11">
         <v>3.55</v>
       </c>
-      <c r="D11">
-        <v>3.49</v>
-      </c>
       <c r="E11">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.25</v>
+      </c>
+      <c r="D12">
         <v>3.32</v>
-      </c>
-      <c r="D12">
-        <v>3.26</v>
       </c>
       <c r="E12">
         <v>3.03</v>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="D1" s="2">
-        <v>44797</v>
+        <v>44799</v>
       </c>
       <c r="E1" s="2">
-        <v>44769</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="D2">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="E2">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="D3">
-        <v>2.82</v>
+        <v>2.89</v>
       </c>
       <c r="E3">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="D4">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="E4">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="D5">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="D6">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="E6">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="D7">
         <v>3.4</v>
       </c>
       <c r="E7">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="D8">
         <v>3.2</v>
       </c>
       <c r="E8">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="E9">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
       <c r="D10">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="E10">
-        <v>2.78</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="E11">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -614,10 +614,10 @@
         <v>3.25</v>
       </c>
       <c r="D12">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="E12">
-        <v>3.03</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44803</v>
+      </c>
+      <c r="D1" s="2">
         <v>44802</v>
       </c>
-      <c r="D1" s="2">
-        <v>44799</v>
-      </c>
       <c r="E1" s="2">
-        <v>44771</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.43</v>
+      </c>
+      <c r="D2">
         <v>2.45</v>
-      </c>
-      <c r="D2">
-        <v>2.39</v>
       </c>
       <c r="E2">
         <v>2.22</v>
@@ -461,10 +461,10 @@
         <v>2.97</v>
       </c>
       <c r="D3">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="E3">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.31</v>
+      </c>
+      <c r="D4">
         <v>3.32</v>
       </c>
-      <c r="D4">
-        <v>3.26</v>
-      </c>
       <c r="E4">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.48</v>
+      </c>
+      <c r="D5">
         <v>3.43</v>
-      </c>
-      <c r="D5">
-        <v>3.36</v>
       </c>
       <c r="E5">
         <v>2.98</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.46</v>
+      </c>
+      <c r="D6">
         <v>3.42</v>
       </c>
-      <c r="D6">
-        <v>3.37</v>
-      </c>
       <c r="E6">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.47</v>
+      </c>
+      <c r="D7">
         <v>3.45</v>
       </c>
-      <c r="D7">
-        <v>3.4</v>
-      </c>
       <c r="E7">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -546,10 +546,10 @@
         <v>3.27</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="E8">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.22</v>
+      </c>
+      <c r="D9">
         <v>3.21</v>
       </c>
-      <c r="D9">
-        <v>3.14</v>
-      </c>
       <c r="E9">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.11</v>
+      </c>
+      <c r="D10">
         <v>3.12</v>
       </c>
-      <c r="D10">
-        <v>3.04</v>
-      </c>
       <c r="E10">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.49</v>
+      </c>
+      <c r="D11">
         <v>3.5</v>
       </c>
-      <c r="D11">
-        <v>3.44</v>
-      </c>
       <c r="E11">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.23</v>
+      </c>
+      <c r="D12">
         <v>3.25</v>
       </c>
-      <c r="D12">
-        <v>3.21</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2.92</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44804</v>
+      </c>
+      <c r="D1" s="2">
         <v>44803</v>
       </c>
-      <c r="D1" s="2">
-        <v>44802</v>
-      </c>
       <c r="E1" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.4</v>
+      </c>
+      <c r="D2">
         <v>2.43</v>
-      </c>
-      <c r="D2">
-        <v>2.45</v>
       </c>
       <c r="E2">
         <v>2.22</v>
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="D3">
         <v>2.97</v>
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.32</v>
+      </c>
+      <c r="D4">
         <v>3.31</v>
       </c>
-      <c r="D4">
-        <v>3.32</v>
-      </c>
       <c r="E4">
-        <v>2.96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5">
         <v>3.48</v>
       </c>
-      <c r="D5">
-        <v>3.43</v>
-      </c>
       <c r="E5">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.45</v>
+      </c>
+      <c r="D6">
         <v>3.46</v>
       </c>
-      <c r="D6">
-        <v>3.42</v>
-      </c>
       <c r="E6">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.46</v>
+      </c>
+      <c r="D7">
         <v>3.47</v>
       </c>
-      <c r="D7">
-        <v>3.45</v>
-      </c>
       <c r="E7">
-        <v>2.82</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="D8">
         <v>3.27</v>
       </c>
       <c r="E8">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.25</v>
+      </c>
+      <c r="D9">
         <v>3.22</v>
       </c>
-      <c r="D9">
-        <v>3.21</v>
-      </c>
       <c r="E9">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.15</v>
+      </c>
+      <c r="D10">
         <v>3.11</v>
       </c>
-      <c r="D10">
-        <v>3.12</v>
-      </c>
       <c r="E10">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.53</v>
+      </c>
+      <c r="D11">
         <v>3.49</v>
       </c>
-      <c r="D11">
-        <v>3.5</v>
-      </c>
       <c r="E11">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.27</v>
+      </c>
+      <c r="D12">
         <v>3.23</v>
       </c>
-      <c r="D12">
-        <v>3.25</v>
-      </c>
       <c r="E12">
-        <v>2.92</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D1" s="2">
         <v>44804</v>
       </c>
-      <c r="D1" s="2">
-        <v>44803</v>
-      </c>
       <c r="E1" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.53</v>
+      </c>
+      <c r="D2">
         <v>2.4</v>
       </c>
-      <c r="D2">
-        <v>2.43</v>
-      </c>
       <c r="E2">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.97</v>
+      </c>
+      <c r="D3">
         <v>2.96</v>
       </c>
-      <c r="D3">
-        <v>2.97</v>
-      </c>
       <c r="E3">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.34</v>
+      </c>
+      <c r="D4">
         <v>3.32</v>
-      </c>
-      <c r="D4">
-        <v>3.31</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.51</v>
+      </c>
+      <c r="D5">
         <v>3.5</v>
       </c>
-      <c r="D5">
-        <v>3.48</v>
-      </c>
       <c r="E5">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.51</v>
+      </c>
+      <c r="D6">
         <v>3.45</v>
       </c>
-      <c r="D6">
-        <v>3.46</v>
-      </c>
       <c r="E6">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.54</v>
+      </c>
+      <c r="D7">
         <v>3.46</v>
       </c>
-      <c r="D7">
-        <v>3.47</v>
-      </c>
       <c r="E7">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.39</v>
+      </c>
+      <c r="D8">
         <v>3.3</v>
       </c>
-      <c r="D8">
-        <v>3.27</v>
-      </c>
       <c r="E8">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.36</v>
+      </c>
+      <c r="D9">
         <v>3.25</v>
       </c>
-      <c r="D9">
-        <v>3.22</v>
-      </c>
       <c r="E9">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.26</v>
+      </c>
+      <c r="D10">
         <v>3.15</v>
       </c>
-      <c r="D10">
-        <v>3.11</v>
-      </c>
       <c r="E10">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.64</v>
+      </c>
+      <c r="D11">
         <v>3.53</v>
       </c>
-      <c r="D11">
-        <v>3.49</v>
-      </c>
       <c r="E11">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.37</v>
+      </c>
+      <c r="D12">
         <v>3.27</v>
       </c>
-      <c r="D12">
-        <v>3.23</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2.96</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44806</v>
+      </c>
+      <c r="D1" s="2">
         <v>44805</v>
       </c>
-      <c r="D1" s="2">
-        <v>44804</v>
-      </c>
       <c r="E1" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.49</v>
+      </c>
+      <c r="D2">
         <v>2.53</v>
       </c>
-      <c r="D2">
-        <v>2.4</v>
-      </c>
       <c r="E2">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2.94</v>
+      </c>
+      <c r="D3">
         <v>2.97</v>
       </c>
-      <c r="D3">
-        <v>2.96</v>
-      </c>
       <c r="E3">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.33</v>
+      </c>
+      <c r="D4">
         <v>3.34</v>
       </c>
-      <c r="D4">
-        <v>3.32</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.47</v>
+      </c>
+      <c r="D5">
         <v>3.51</v>
       </c>
-      <c r="D5">
-        <v>3.5</v>
-      </c>
       <c r="E5">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.4</v>
+      </c>
+      <c r="D6">
         <v>3.51</v>
       </c>
-      <c r="D6">
-        <v>3.45</v>
-      </c>
       <c r="E6">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.44</v>
+      </c>
+      <c r="D7">
         <v>3.54</v>
       </c>
-      <c r="D7">
-        <v>3.46</v>
-      </c>
       <c r="E7">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.3</v>
+      </c>
+      <c r="D8">
         <v>3.39</v>
       </c>
-      <c r="D8">
-        <v>3.3</v>
-      </c>
       <c r="E8">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.29</v>
+      </c>
+      <c r="D9">
         <v>3.36</v>
       </c>
-      <c r="D9">
-        <v>3.25</v>
-      </c>
       <c r="E9">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.2</v>
+      </c>
+      <c r="D10">
         <v>3.26</v>
       </c>
-      <c r="D10">
-        <v>3.15</v>
-      </c>
       <c r="E10">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.61</v>
+      </c>
+      <c r="D11">
         <v>3.64</v>
       </c>
-      <c r="D11">
-        <v>3.53</v>
-      </c>
       <c r="E11">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.35</v>
+      </c>
+      <c r="D12">
         <v>3.37</v>
       </c>
-      <c r="D12">
-        <v>3.27</v>
-      </c>
       <c r="E12">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44810</v>
+      </c>
+      <c r="D1" s="2">
         <v>44806</v>
       </c>
-      <c r="D1" s="2">
-        <v>44805</v>
-      </c>
       <c r="E1" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.44</v>
+      </c>
+      <c r="D2">
         <v>2.49</v>
       </c>
-      <c r="D2">
-        <v>2.53</v>
-      </c>
       <c r="E2">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.04</v>
+      </c>
+      <c r="D3">
         <v>2.94</v>
       </c>
-      <c r="D3">
-        <v>2.97</v>
-      </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.4</v>
+      </c>
+      <c r="D4">
         <v>3.33</v>
       </c>
-      <c r="D4">
-        <v>3.34</v>
-      </c>
       <c r="E4">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.61</v>
+      </c>
+      <c r="D5">
         <v>3.47</v>
       </c>
-      <c r="D5">
-        <v>3.51</v>
-      </c>
       <c r="E5">
-        <v>3.11</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
         <v>3.4</v>
       </c>
-      <c r="D6">
-        <v>3.51</v>
-      </c>
       <c r="E6">
-        <v>3.03</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.55</v>
+      </c>
+      <c r="D7">
         <v>3.44</v>
       </c>
-      <c r="D7">
-        <v>3.54</v>
-      </c>
       <c r="E7">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.43</v>
+      </c>
+      <c r="D8">
         <v>3.3</v>
       </c>
-      <c r="D8">
-        <v>3.39</v>
-      </c>
       <c r="E8">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.41</v>
+      </c>
+      <c r="D9">
         <v>3.29</v>
       </c>
-      <c r="D9">
-        <v>3.36</v>
-      </c>
       <c r="E9">
-        <v>2.73</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.33</v>
+      </c>
+      <c r="D10">
         <v>3.2</v>
       </c>
-      <c r="D10">
-        <v>3.26</v>
-      </c>
       <c r="E10">
-        <v>2.68</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.74</v>
+      </c>
+      <c r="D11">
         <v>3.61</v>
       </c>
-      <c r="D11">
-        <v>3.64</v>
-      </c>
       <c r="E11">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.49</v>
+      </c>
+      <c r="D12">
         <v>3.35</v>
       </c>
-      <c r="D12">
-        <v>3.37</v>
-      </c>
       <c r="E12">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44811</v>
+      </c>
+      <c r="D1" s="2">
         <v>44810</v>
       </c>
-      <c r="D1" s="2">
-        <v>44806</v>
-      </c>
       <c r="E1" s="2">
-        <v>44778</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.3</v>
+      </c>
+      <c r="D2">
         <v>2.44</v>
       </c>
-      <c r="D2">
-        <v>2.49</v>
-      </c>
       <c r="E2">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.07</v>
+      </c>
+      <c r="D3">
         <v>3.04</v>
       </c>
-      <c r="D3">
-        <v>2.94</v>
-      </c>
       <c r="E3">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.42</v>
+      </c>
+      <c r="D4">
         <v>3.4</v>
       </c>
-      <c r="D4">
-        <v>3.33</v>
-      </c>
       <c r="E4">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.6</v>
+      </c>
+      <c r="D5">
         <v>3.61</v>
       </c>
-      <c r="D5">
-        <v>3.47</v>
-      </c>
       <c r="E5">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.45</v>
+      </c>
+      <c r="D6">
         <v>3.5</v>
       </c>
-      <c r="D6">
-        <v>3.4</v>
-      </c>
       <c r="E6">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
         <v>3.55</v>
       </c>
-      <c r="D7">
-        <v>3.44</v>
-      </c>
       <c r="E7">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.37</v>
+      </c>
+      <c r="D8">
         <v>3.43</v>
       </c>
-      <c r="D8">
-        <v>3.3</v>
-      </c>
       <c r="E8">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.35</v>
+      </c>
+      <c r="D9">
         <v>3.41</v>
       </c>
-      <c r="D9">
-        <v>3.29</v>
-      </c>
       <c r="E9">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.27</v>
+      </c>
+      <c r="D10">
         <v>3.33</v>
       </c>
-      <c r="D10">
-        <v>3.2</v>
-      </c>
       <c r="E10">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.67</v>
+      </c>
+      <c r="D11">
         <v>3.74</v>
       </c>
-      <c r="D11">
-        <v>3.61</v>
-      </c>
       <c r="E11">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.42</v>
+      </c>
+      <c r="D12">
         <v>3.49</v>
       </c>
-      <c r="D12">
-        <v>3.35</v>
-      </c>
       <c r="E12">
-        <v>3.06</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44812</v>
+      </c>
+      <c r="D1" s="2">
         <v>44811</v>
       </c>
-      <c r="D1" s="2">
-        <v>44810</v>
-      </c>
       <c r="E1" s="2">
-        <v>44781</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.57</v>
+      </c>
+      <c r="D2">
         <v>2.3</v>
-      </c>
-      <c r="D2">
-        <v>2.44</v>
       </c>
       <c r="E2">
         <v>2.23</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.06</v>
+      </c>
+      <c r="D3">
         <v>3.07</v>
       </c>
-      <c r="D3">
-        <v>3.04</v>
-      </c>
       <c r="E3">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.44</v>
+      </c>
+      <c r="D4">
         <v>3.42</v>
       </c>
-      <c r="D4">
-        <v>3.4</v>
-      </c>
       <c r="E4">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>3.6</v>
       </c>
       <c r="D5">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="E5">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.48</v>
+      </c>
+      <c r="D6">
         <v>3.45</v>
       </c>
-      <c r="D6">
-        <v>3.5</v>
-      </c>
       <c r="E6">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.54</v>
+      </c>
+      <c r="D7">
         <v>3.5</v>
       </c>
-      <c r="D7">
-        <v>3.55</v>
-      </c>
       <c r="E7">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.39</v>
+      </c>
+      <c r="D8">
         <v>3.37</v>
       </c>
-      <c r="D8">
-        <v>3.43</v>
-      </c>
       <c r="E8">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.37</v>
+      </c>
+      <c r="D9">
         <v>3.35</v>
       </c>
-      <c r="D9">
-        <v>3.41</v>
-      </c>
       <c r="E9">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.29</v>
+      </c>
+      <c r="D10">
         <v>3.27</v>
       </c>
-      <c r="D10">
-        <v>3.33</v>
-      </c>
       <c r="E10">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.69</v>
+      </c>
+      <c r="D11">
         <v>3.67</v>
       </c>
-      <c r="D11">
-        <v>3.74</v>
-      </c>
       <c r="E11">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.45</v>
+      </c>
+      <c r="D12">
         <v>3.42</v>
       </c>
-      <c r="D12">
-        <v>3.49</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>3.01</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44813</v>
+      </c>
+      <c r="D1" s="2">
         <v>44812</v>
       </c>
-      <c r="D1" s="2">
-        <v>44811</v>
-      </c>
       <c r="E1" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -444,10 +444,10 @@
         <v>2.57</v>
       </c>
       <c r="D2">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="E2">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.08</v>
+      </c>
+      <c r="D3">
         <v>3.06</v>
       </c>
-      <c r="D3">
-        <v>3.07</v>
-      </c>
       <c r="E3">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.52</v>
+      </c>
+      <c r="D4">
         <v>3.44</v>
       </c>
-      <c r="D4">
-        <v>3.42</v>
-      </c>
       <c r="E4">
-        <v>3.16</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="D5">
         <v>3.6</v>
       </c>
       <c r="E5">
-        <v>3.33</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.56</v>
+      </c>
+      <c r="D6">
         <v>3.48</v>
       </c>
-      <c r="D6">
-        <v>3.45</v>
-      </c>
       <c r="E6">
-        <v>3.28</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.61</v>
+      </c>
+      <c r="D7">
         <v>3.54</v>
       </c>
-      <c r="D7">
-        <v>3.5</v>
-      </c>
       <c r="E7">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.45</v>
+      </c>
+      <c r="D8">
         <v>3.39</v>
       </c>
-      <c r="D8">
-        <v>3.37</v>
-      </c>
       <c r="E8">
-        <v>2.97</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.42</v>
+      </c>
+      <c r="D9">
         <v>3.37</v>
       </c>
-      <c r="D9">
-        <v>3.35</v>
-      </c>
       <c r="E9">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.33</v>
+      </c>
+      <c r="D10">
         <v>3.29</v>
       </c>
-      <c r="D10">
-        <v>3.27</v>
-      </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.71</v>
+      </c>
+      <c r="D11">
         <v>3.69</v>
       </c>
-      <c r="D11">
-        <v>3.67</v>
-      </c>
       <c r="E11">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.47</v>
+      </c>
+      <c r="D12">
         <v>3.45</v>
       </c>
-      <c r="D12">
-        <v>3.42</v>
-      </c>
       <c r="E12">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44816</v>
+      </c>
+      <c r="D1" s="2">
         <v>44813</v>
       </c>
-      <c r="D1" s="2">
-        <v>44812</v>
-      </c>
       <c r="E1" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="D2">
         <v>2.57</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.17</v>
+      </c>
+      <c r="D3">
         <v>3.08</v>
       </c>
-      <c r="D3">
-        <v>3.06</v>
-      </c>
       <c r="E3">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.56</v>
+      </c>
+      <c r="D4">
         <v>3.52</v>
       </c>
-      <c r="D4">
-        <v>3.44</v>
-      </c>
       <c r="E4">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.7</v>
+      </c>
+      <c r="D5">
         <v>3.67</v>
       </c>
-      <c r="D5">
-        <v>3.6</v>
-      </c>
       <c r="E5">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.58</v>
+      </c>
+      <c r="D6">
         <v>3.56</v>
-      </c>
-      <c r="D6">
-        <v>3.48</v>
       </c>
       <c r="E6">
         <v>3.23</v>
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.6</v>
+      </c>
+      <c r="D7">
         <v>3.61</v>
       </c>
-      <c r="D7">
-        <v>3.54</v>
-      </c>
       <c r="E7">
-        <v>3.13</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.47</v>
+      </c>
+      <c r="D8">
         <v>3.45</v>
       </c>
-      <c r="D8">
-        <v>3.39</v>
-      </c>
       <c r="E8">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.45</v>
+      </c>
+      <c r="D9">
         <v>3.42</v>
       </c>
-      <c r="D9">
-        <v>3.37</v>
-      </c>
       <c r="E9">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.37</v>
+      </c>
+      <c r="D10">
         <v>3.33</v>
       </c>
-      <c r="D10">
-        <v>3.29</v>
-      </c>
       <c r="E10">
-        <v>2.78</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.76</v>
+      </c>
+      <c r="D11">
         <v>3.71</v>
       </c>
-      <c r="D11">
-        <v>3.69</v>
-      </c>
       <c r="E11">
-        <v>3.27</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.53</v>
+      </c>
+      <c r="D12">
         <v>3.47</v>
       </c>
-      <c r="D12">
-        <v>3.45</v>
-      </c>
       <c r="E12">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44817</v>
+      </c>
+      <c r="D1" s="2">
         <v>44816</v>
       </c>
-      <c r="D1" s="2">
-        <v>44813</v>
-      </c>
       <c r="E1" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.55</v>
+      </c>
+      <c r="D2">
         <v>2.62</v>
       </c>
-      <c r="D2">
-        <v>2.57</v>
-      </c>
       <c r="E2">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.28</v>
+      </c>
+      <c r="D3">
         <v>3.17</v>
       </c>
-      <c r="D3">
-        <v>3.08</v>
-      </c>
       <c r="E3">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.75</v>
+      </c>
+      <c r="D4">
         <v>3.56</v>
       </c>
-      <c r="D4">
-        <v>3.52</v>
-      </c>
       <c r="E4">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.92</v>
+      </c>
+      <c r="D5">
         <v>3.7</v>
       </c>
-      <c r="D5">
-        <v>3.67</v>
-      </c>
       <c r="E5">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.75</v>
+      </c>
+      <c r="D6">
         <v>3.58</v>
       </c>
-      <c r="D6">
-        <v>3.56</v>
-      </c>
       <c r="E6">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.75</v>
+      </c>
+      <c r="D7">
         <v>3.6</v>
       </c>
-      <c r="D7">
-        <v>3.61</v>
-      </c>
       <c r="E7">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.58</v>
+      </c>
+      <c r="D8">
         <v>3.47</v>
       </c>
-      <c r="D8">
-        <v>3.45</v>
-      </c>
       <c r="E8">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.53</v>
+      </c>
+      <c r="D9">
         <v>3.45</v>
       </c>
-      <c r="D9">
-        <v>3.42</v>
-      </c>
       <c r="E9">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.42</v>
+      </c>
+      <c r="D10">
         <v>3.37</v>
       </c>
-      <c r="D10">
-        <v>3.33</v>
-      </c>
       <c r="E10">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.75</v>
+      </c>
+      <c r="D11">
         <v>3.76</v>
       </c>
-      <c r="D11">
-        <v>3.71</v>
-      </c>
       <c r="E11">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.51</v>
+      </c>
+      <c r="D12">
         <v>3.53</v>
       </c>
-      <c r="D12">
-        <v>3.47</v>
-      </c>
       <c r="E12">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44818</v>
+      </c>
+      <c r="D1" s="2">
         <v>44817</v>
       </c>
-      <c r="D1" s="2">
-        <v>44816</v>
-      </c>
       <c r="E1" s="2">
-        <v>44785</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.54</v>
+      </c>
+      <c r="D2">
         <v>2.55</v>
       </c>
-      <c r="D2">
-        <v>2.62</v>
-      </c>
       <c r="E2">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.24</v>
+      </c>
+      <c r="D3">
         <v>3.28</v>
       </c>
-      <c r="D3">
-        <v>3.17</v>
-      </c>
       <c r="E3">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.76</v>
+      </c>
+      <c r="D4">
         <v>3.75</v>
-      </c>
-      <c r="D4">
-        <v>3.56</v>
       </c>
       <c r="E4">
         <v>3.13</v>
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.95</v>
+      </c>
+      <c r="D5">
         <v>3.92</v>
       </c>
-      <c r="D5">
-        <v>3.7</v>
-      </c>
       <c r="E5">
-        <v>3.26</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.78</v>
+      </c>
+      <c r="D6">
         <v>3.75</v>
       </c>
-      <c r="D6">
-        <v>3.58</v>
-      </c>
       <c r="E6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.79</v>
+      </c>
+      <c r="D7">
         <v>3.75</v>
       </c>
-      <c r="D7">
-        <v>3.6</v>
-      </c>
       <c r="E7">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.6</v>
+      </c>
+      <c r="D8">
         <v>3.58</v>
       </c>
-      <c r="D8">
-        <v>3.47</v>
-      </c>
       <c r="E8">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.52</v>
+      </c>
+      <c r="D9">
         <v>3.53</v>
       </c>
-      <c r="D9">
-        <v>3.45</v>
-      </c>
       <c r="E9">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.41</v>
+      </c>
+      <c r="D10">
         <v>3.42</v>
       </c>
-      <c r="D10">
-        <v>3.37</v>
-      </c>
       <c r="E10">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.73</v>
+      </c>
+      <c r="D11">
         <v>3.75</v>
       </c>
-      <c r="D11">
-        <v>3.76</v>
-      </c>
       <c r="E11">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.47</v>
+      </c>
+      <c r="D12">
         <v>3.51</v>
       </c>
-      <c r="D12">
-        <v>3.53</v>
-      </c>
       <c r="E12">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44819</v>
+      </c>
+      <c r="D1" s="2">
         <v>44818</v>
       </c>
-      <c r="D1" s="2">
-        <v>44817</v>
-      </c>
       <c r="E1" s="2">
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.76</v>
+      </c>
+      <c r="D2">
         <v>2.54</v>
       </c>
-      <c r="D2">
-        <v>2.55</v>
-      </c>
       <c r="E2">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.22</v>
+      </c>
+      <c r="D3">
         <v>3.24</v>
       </c>
-      <c r="D3">
-        <v>3.28</v>
-      </c>
       <c r="E3">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.78</v>
+      </c>
+      <c r="D4">
         <v>3.76</v>
       </c>
-      <c r="D4">
-        <v>3.75</v>
-      </c>
       <c r="E4">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>3.95</v>
       </c>
-      <c r="D5">
-        <v>3.92</v>
-      </c>
       <c r="E5">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.87</v>
+      </c>
+      <c r="D6">
         <v>3.78</v>
       </c>
-      <c r="D6">
-        <v>3.75</v>
-      </c>
       <c r="E6">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.85</v>
+      </c>
+      <c r="D7">
         <v>3.79</v>
       </c>
-      <c r="D7">
-        <v>3.75</v>
-      </c>
       <c r="E7">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.66</v>
+      </c>
+      <c r="D8">
         <v>3.6</v>
       </c>
-      <c r="D8">
-        <v>3.58</v>
-      </c>
       <c r="E8">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.59</v>
+      </c>
+      <c r="D9">
         <v>3.52</v>
       </c>
-      <c r="D9">
-        <v>3.53</v>
-      </c>
       <c r="E9">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.45</v>
+      </c>
+      <c r="D10">
         <v>3.41</v>
       </c>
-      <c r="D10">
-        <v>3.42</v>
-      </c>
       <c r="E10">
-        <v>2.79</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.75</v>
+      </c>
+      <c r="D11">
         <v>3.73</v>
-      </c>
-      <c r="D11">
-        <v>3.75</v>
       </c>
       <c r="E11">
         <v>3.31</v>
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.48</v>
+      </c>
+      <c r="D12">
         <v>3.47</v>
       </c>
-      <c r="D12">
-        <v>3.51</v>
-      </c>
       <c r="E12">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44820</v>
+      </c>
+      <c r="D1" s="2">
         <v>44819</v>
       </c>
-      <c r="D1" s="2">
-        <v>44818</v>
-      </c>
       <c r="E1" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.68</v>
+      </c>
+      <c r="D2">
         <v>2.76</v>
       </c>
-      <c r="D2">
-        <v>2.54</v>
-      </c>
       <c r="E2">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.2</v>
+      </c>
+      <c r="D3">
         <v>3.22</v>
       </c>
-      <c r="D3">
-        <v>3.24</v>
-      </c>
       <c r="E3">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.77</v>
+      </c>
+      <c r="D4">
         <v>3.78</v>
       </c>
-      <c r="D4">
-        <v>3.76</v>
-      </c>
       <c r="E4">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.96</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3.95</v>
-      </c>
       <c r="E5">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.85</v>
+      </c>
+      <c r="D6">
         <v>3.87</v>
       </c>
-      <c r="D6">
-        <v>3.78</v>
-      </c>
       <c r="E6">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.81</v>
+      </c>
+      <c r="D7">
         <v>3.85</v>
       </c>
-      <c r="D7">
-        <v>3.79</v>
-      </c>
       <c r="E7">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.62</v>
+      </c>
+      <c r="D8">
         <v>3.66</v>
       </c>
-      <c r="D8">
-        <v>3.6</v>
-      </c>
       <c r="E8">
-        <v>2.95</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.56</v>
+      </c>
+      <c r="D9">
         <v>3.59</v>
       </c>
-      <c r="D9">
-        <v>3.52</v>
-      </c>
       <c r="E9">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -580,10 +580,10 @@
         <v>3.45</v>
       </c>
       <c r="D10">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="E10">
-        <v>2.82</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.79</v>
+      </c>
+      <c r="D11">
         <v>3.75</v>
       </c>
-      <c r="D11">
-        <v>3.73</v>
-      </c>
       <c r="E11">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.52</v>
+      </c>
+      <c r="D12">
         <v>3.48</v>
       </c>
-      <c r="D12">
-        <v>3.47</v>
-      </c>
       <c r="E12">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44823</v>
+      </c>
+      <c r="D1" s="2">
         <v>44820</v>
       </c>
-      <c r="D1" s="2">
-        <v>44819</v>
-      </c>
       <c r="E1" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.62</v>
+      </c>
+      <c r="D2">
         <v>2.68</v>
       </c>
-      <c r="D2">
-        <v>2.76</v>
-      </c>
       <c r="E2">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.37</v>
+      </c>
+      <c r="D3">
         <v>3.2</v>
       </c>
-      <c r="D3">
-        <v>3.22</v>
-      </c>
       <c r="E3">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.87</v>
+      </c>
+      <c r="D4">
         <v>3.77</v>
       </c>
-      <c r="D4">
-        <v>3.78</v>
-      </c>
       <c r="E4">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.05</v>
+      </c>
+      <c r="D5">
         <v>3.96</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.95</v>
+      </c>
+      <c r="D6">
         <v>3.85</v>
       </c>
-      <c r="D6">
-        <v>3.87</v>
-      </c>
       <c r="E6">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.9</v>
+      </c>
+      <c r="D7">
         <v>3.81</v>
       </c>
-      <c r="D7">
-        <v>3.85</v>
-      </c>
       <c r="E7">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.69</v>
+      </c>
+      <c r="D8">
         <v>3.62</v>
       </c>
-      <c r="D8">
-        <v>3.66</v>
-      </c>
       <c r="E8">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.62</v>
+      </c>
+      <c r="D9">
         <v>3.56</v>
       </c>
-      <c r="D9">
-        <v>3.59</v>
-      </c>
       <c r="E9">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="D10">
         <v>3.45</v>
       </c>
       <c r="E10">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.77</v>
+      </c>
+      <c r="D11">
         <v>3.79</v>
       </c>
-      <c r="D11">
-        <v>3.75</v>
-      </c>
       <c r="E11">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -614,10 +614,10 @@
         <v>3.52</v>
       </c>
       <c r="D12">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="E12">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44824</v>
+      </c>
+      <c r="D1" s="2">
         <v>44823</v>
       </c>
-      <c r="D1" s="2">
-        <v>44820</v>
-      </c>
       <c r="E1" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.57</v>
+      </c>
+      <c r="D2">
         <v>2.62</v>
-      </c>
-      <c r="D2">
-        <v>2.68</v>
       </c>
       <c r="E2">
         <v>2.23</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.35</v>
+      </c>
+      <c r="D3">
         <v>3.37</v>
       </c>
-      <c r="D3">
-        <v>3.2</v>
-      </c>
       <c r="E3">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.86</v>
+      </c>
+      <c r="D4">
         <v>3.87</v>
       </c>
-      <c r="D4">
-        <v>3.77</v>
-      </c>
       <c r="E4">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.03</v>
+      </c>
+      <c r="D5">
         <v>4.05</v>
       </c>
-      <c r="D5">
-        <v>3.96</v>
-      </c>
       <c r="E5">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>3.96</v>
+      </c>
+      <c r="D6">
         <v>3.95</v>
       </c>
-      <c r="D6">
-        <v>3.85</v>
-      </c>
       <c r="E6">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.94</v>
+      </c>
+      <c r="D7">
         <v>3.9</v>
       </c>
-      <c r="D7">
-        <v>3.81</v>
-      </c>
       <c r="E7">
-        <v>3.23</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.75</v>
+      </c>
+      <c r="D8">
         <v>3.69</v>
       </c>
-      <c r="D8">
-        <v>3.62</v>
-      </c>
       <c r="E8">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.69</v>
+      </c>
+      <c r="D9">
         <v>3.62</v>
       </c>
-      <c r="D9">
-        <v>3.56</v>
-      </c>
       <c r="E9">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.57</v>
+      </c>
+      <c r="D10">
         <v>3.49</v>
       </c>
-      <c r="D10">
-        <v>3.45</v>
-      </c>
       <c r="E10">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.83</v>
+      </c>
+      <c r="D11">
         <v>3.77</v>
       </c>
-      <c r="D11">
-        <v>3.79</v>
-      </c>
       <c r="E11">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="D12">
         <v>3.52</v>
       </c>
       <c r="E12">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44825</v>
+      </c>
+      <c r="D1" s="2">
         <v>44824</v>
       </c>
-      <c r="D1" s="2">
-        <v>44823</v>
-      </c>
       <c r="E1" s="2">
-        <v>44792</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.59</v>
+      </c>
+      <c r="D2">
         <v>2.57</v>
       </c>
-      <c r="D2">
-        <v>2.62</v>
-      </c>
       <c r="E2">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.31</v>
+      </c>
+      <c r="D3">
         <v>3.35</v>
       </c>
-      <c r="D3">
-        <v>3.37</v>
-      </c>
       <c r="E3">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,10 +478,10 @@
         <v>3.86</v>
       </c>
       <c r="D4">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="E4">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.08</v>
+      </c>
+      <c r="D5">
         <v>4.03</v>
       </c>
-      <c r="D5">
-        <v>4.05</v>
-      </c>
       <c r="E5">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.02</v>
+      </c>
+      <c r="D6">
         <v>3.96</v>
       </c>
-      <c r="D6">
-        <v>3.95</v>
-      </c>
       <c r="E6">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.98</v>
+      </c>
+      <c r="D7">
         <v>3.94</v>
       </c>
-      <c r="D7">
-        <v>3.9</v>
-      </c>
       <c r="E7">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.74</v>
+      </c>
+      <c r="D8">
         <v>3.75</v>
       </c>
-      <c r="D8">
-        <v>3.69</v>
-      </c>
       <c r="E8">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.65</v>
+      </c>
+      <c r="D9">
         <v>3.69</v>
       </c>
-      <c r="D9">
-        <v>3.62</v>
-      </c>
       <c r="E9">
-        <v>3.06</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.51</v>
+      </c>
+      <c r="D10">
         <v>3.57</v>
       </c>
-      <c r="D10">
-        <v>3.49</v>
-      </c>
       <c r="E10">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.73</v>
+      </c>
+      <c r="D11">
         <v>3.83</v>
       </c>
-      <c r="D11">
-        <v>3.77</v>
-      </c>
       <c r="E11">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.5</v>
+      </c>
+      <c r="D12">
         <v>3.59</v>
       </c>
-      <c r="D12">
-        <v>3.52</v>
-      </c>
       <c r="E12">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44826</v>
+      </c>
+      <c r="D1" s="2">
         <v>44825</v>
       </c>
-      <c r="D1" s="2">
-        <v>44824</v>
-      </c>
       <c r="E1" s="2">
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.73</v>
+      </c>
+      <c r="D2">
         <v>2.59</v>
       </c>
-      <c r="D2">
-        <v>2.57</v>
-      </c>
       <c r="E2">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.29</v>
+      </c>
+      <c r="D3">
         <v>3.31</v>
       </c>
-      <c r="D3">
-        <v>3.35</v>
-      </c>
       <c r="E3">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="D4">
         <v>3.86</v>
       </c>
       <c r="E4">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>4.08</v>
       </c>
       <c r="D5">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="E5">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.11</v>
+      </c>
+      <c r="D6">
         <v>4.02</v>
       </c>
-      <c r="D6">
-        <v>3.96</v>
-      </c>
       <c r="E6">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.12</v>
+      </c>
+      <c r="D7">
         <v>3.98</v>
       </c>
-      <c r="D7">
-        <v>3.94</v>
-      </c>
       <c r="E7">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.91</v>
+      </c>
+      <c r="D8">
         <v>3.74</v>
       </c>
-      <c r="D8">
-        <v>3.75</v>
-      </c>
       <c r="E8">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.84</v>
+      </c>
+      <c r="D9">
         <v>3.65</v>
       </c>
-      <c r="D9">
-        <v>3.69</v>
-      </c>
       <c r="E9">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.7</v>
+      </c>
+      <c r="D10">
         <v>3.51</v>
       </c>
-      <c r="D10">
-        <v>3.57</v>
-      </c>
       <c r="E10">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.9</v>
+      </c>
+      <c r="D11">
         <v>3.73</v>
       </c>
-      <c r="D11">
-        <v>3.83</v>
-      </c>
       <c r="E11">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.65</v>
+      </c>
+      <c r="D12">
         <v>3.5</v>
       </c>
-      <c r="D12">
-        <v>3.59</v>
-      </c>
       <c r="E12">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44827</v>
+      </c>
+      <c r="D1" s="2">
         <v>44826</v>
       </c>
-      <c r="D1" s="2">
-        <v>44825</v>
-      </c>
       <c r="E1" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.67</v>
+      </c>
+      <c r="D2">
         <v>2.73</v>
       </c>
-      <c r="D2">
-        <v>2.59</v>
-      </c>
       <c r="E2">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.24</v>
+      </c>
+      <c r="D3">
         <v>3.29</v>
       </c>
-      <c r="D3">
-        <v>3.31</v>
-      </c>
       <c r="E3">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.85</v>
+      </c>
+      <c r="D4">
         <v>3.87</v>
       </c>
-      <c r="D4">
-        <v>3.86</v>
-      </c>
       <c r="E4">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.08</v>
+        <v>4.15</v>
       </c>
       <c r="D5">
         <v>4.08</v>
       </c>
       <c r="E5">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.2</v>
+      </c>
+      <c r="D6">
         <v>4.11</v>
       </c>
-      <c r="D6">
-        <v>4.02</v>
-      </c>
       <c r="E6">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.21</v>
+      </c>
+      <c r="D7">
         <v>4.12</v>
       </c>
-      <c r="D7">
-        <v>3.98</v>
-      </c>
       <c r="E7">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.96</v>
+      </c>
+      <c r="D8">
         <v>3.91</v>
       </c>
-      <c r="D8">
-        <v>3.74</v>
-      </c>
       <c r="E8">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.85</v>
+      </c>
+      <c r="D9">
         <v>3.84</v>
       </c>
-      <c r="D9">
-        <v>3.65</v>
-      </c>
       <c r="E9">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.69</v>
+      </c>
+      <c r="D10">
         <v>3.7</v>
       </c>
-      <c r="D10">
-        <v>3.51</v>
-      </c>
       <c r="E10">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.87</v>
+      </c>
+      <c r="D11">
         <v>3.9</v>
       </c>
-      <c r="D11">
-        <v>3.73</v>
-      </c>
       <c r="E11">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.61</v>
+      </c>
+      <c r="D12">
         <v>3.65</v>
       </c>
-      <c r="D12">
-        <v>3.5</v>
-      </c>
       <c r="E12">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44830</v>
+      </c>
+      <c r="D1" s="2">
         <v>44827</v>
       </c>
-      <c r="D1" s="2">
-        <v>44826</v>
-      </c>
       <c r="E1" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.73</v>
+      </c>
+      <c r="D2">
         <v>2.67</v>
       </c>
-      <c r="D2">
-        <v>2.73</v>
-      </c>
       <c r="E2">
-        <v>2.29</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.39</v>
+      </c>
+      <c r="D3">
         <v>3.24</v>
       </c>
-      <c r="D3">
-        <v>3.29</v>
-      </c>
       <c r="E3">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.95</v>
+      </c>
+      <c r="D4">
         <v>3.85</v>
       </c>
-      <c r="D4">
-        <v>3.87</v>
-      </c>
       <c r="E4">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.17</v>
+      </c>
+      <c r="D5">
         <v>4.15</v>
       </c>
-      <c r="D5">
-        <v>4.08</v>
-      </c>
       <c r="E5">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.27</v>
+      </c>
+      <c r="D6">
         <v>4.2</v>
       </c>
-      <c r="D6">
-        <v>4.11</v>
-      </c>
       <c r="E6">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.37</v>
+      </c>
+      <c r="D7">
         <v>4.21</v>
       </c>
-      <c r="D7">
-        <v>4.12</v>
-      </c>
       <c r="E7">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.15</v>
+      </c>
+      <c r="D8">
         <v>3.96</v>
       </c>
-      <c r="D8">
-        <v>3.91</v>
-      </c>
       <c r="E8">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.06</v>
+      </c>
+      <c r="D9">
         <v>3.85</v>
       </c>
-      <c r="D9">
-        <v>3.84</v>
-      </c>
       <c r="E9">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.88</v>
+      </c>
+      <c r="D10">
         <v>3.69</v>
       </c>
-      <c r="D10">
-        <v>3.7</v>
-      </c>
       <c r="E10">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.01</v>
+      </c>
+      <c r="D11">
         <v>3.87</v>
       </c>
-      <c r="D11">
-        <v>3.9</v>
-      </c>
       <c r="E11">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.72</v>
+      </c>
+      <c r="D12">
         <v>3.61</v>
       </c>
-      <c r="D12">
-        <v>3.65</v>
-      </c>
       <c r="E12">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44831</v>
+      </c>
+      <c r="D1" s="2">
         <v>44830</v>
       </c>
-      <c r="D1" s="2">
-        <v>44827</v>
-      </c>
       <c r="E1" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.71</v>
+      </c>
+      <c r="D2">
         <v>2.73</v>
       </c>
-      <c r="D2">
-        <v>2.67</v>
-      </c>
       <c r="E2">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.35</v>
+      </c>
+      <c r="D3">
         <v>3.39</v>
       </c>
-      <c r="D3">
-        <v>3.24</v>
-      </c>
       <c r="E3">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.91</v>
+      </c>
+      <c r="D4">
         <v>3.95</v>
       </c>
-      <c r="D4">
-        <v>3.85</v>
-      </c>
       <c r="E4">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.16</v>
+      </c>
+      <c r="D5">
         <v>4.17</v>
       </c>
-      <c r="D5">
-        <v>4.15</v>
-      </c>
       <c r="E5">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.3</v>
+      </c>
+      <c r="D6">
         <v>4.27</v>
       </c>
-      <c r="D6">
-        <v>4.2</v>
-      </c>
       <c r="E6">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.39</v>
+      </c>
+      <c r="D7">
         <v>4.37</v>
       </c>
-      <c r="D7">
-        <v>4.21</v>
-      </c>
       <c r="E7">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.21</v>
+      </c>
+      <c r="D8">
         <v>4.15</v>
       </c>
-      <c r="D8">
-        <v>3.96</v>
-      </c>
       <c r="E8">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.14</v>
+      </c>
+      <c r="D9">
         <v>4.06</v>
       </c>
-      <c r="D9">
-        <v>3.85</v>
-      </c>
       <c r="E9">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.97</v>
+      </c>
+      <c r="D10">
         <v>3.88</v>
       </c>
-      <c r="D10">
-        <v>3.69</v>
-      </c>
       <c r="E10">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.15</v>
+      </c>
+      <c r="D11">
         <v>4.01</v>
       </c>
-      <c r="D11">
-        <v>3.87</v>
-      </c>
       <c r="E11">
-        <v>3.47</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.87</v>
+      </c>
+      <c r="D12">
         <v>3.72</v>
       </c>
-      <c r="D12">
-        <v>3.61</v>
-      </c>
       <c r="E12">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44832</v>
+      </c>
+      <c r="D1" s="2">
         <v>44831</v>
       </c>
-      <c r="D1" s="2">
-        <v>44830</v>
-      </c>
       <c r="E1" s="2">
-        <v>44799</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.63</v>
+      </c>
+      <c r="D2">
         <v>2.71</v>
       </c>
-      <c r="D2">
-        <v>2.73</v>
-      </c>
       <c r="E2">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.4</v>
+      </c>
+      <c r="D3">
         <v>3.35</v>
       </c>
-      <c r="D3">
-        <v>3.39</v>
-      </c>
       <c r="E3">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.87</v>
+      </c>
+      <c r="D4">
         <v>3.91</v>
       </c>
-      <c r="D4">
-        <v>3.95</v>
-      </c>
       <c r="E4">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.99</v>
+      </c>
+      <c r="D5">
         <v>4.16</v>
       </c>
-      <c r="D5">
-        <v>4.17</v>
-      </c>
       <c r="E5">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.07</v>
+      </c>
+      <c r="D6">
         <v>4.3</v>
       </c>
-      <c r="D6">
-        <v>4.27</v>
-      </c>
       <c r="E6">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.12</v>
+      </c>
+      <c r="D7">
         <v>4.39</v>
       </c>
-      <c r="D7">
-        <v>4.37</v>
-      </c>
       <c r="E7">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.92</v>
+      </c>
+      <c r="D8">
         <v>4.21</v>
       </c>
-      <c r="D8">
-        <v>4.15</v>
-      </c>
       <c r="E8">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.83</v>
+      </c>
+      <c r="D9">
         <v>4.14</v>
       </c>
-      <c r="D9">
-        <v>4.06</v>
-      </c>
       <c r="E9">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.72</v>
+      </c>
+      <c r="D10">
         <v>3.97</v>
       </c>
-      <c r="D10">
-        <v>3.88</v>
-      </c>
       <c r="E10">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.98</v>
+      </c>
+      <c r="D11">
         <v>4.15</v>
       </c>
-      <c r="D11">
-        <v>4.01</v>
-      </c>
       <c r="E11">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.7</v>
+      </c>
+      <c r="D12">
         <v>3.87</v>
       </c>
-      <c r="D12">
-        <v>3.72</v>
-      </c>
       <c r="E12">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44833</v>
+      </c>
+      <c r="D1" s="2">
         <v>44832</v>
       </c>
-      <c r="D1" s="2">
-        <v>44831</v>
-      </c>
       <c r="E1" s="2">
-        <v>44802</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.78</v>
+      </c>
+      <c r="D2">
         <v>2.63</v>
       </c>
-      <c r="D2">
-        <v>2.71</v>
-      </c>
       <c r="E2">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.36</v>
+      </c>
+      <c r="D3">
         <v>3.4</v>
-      </c>
-      <c r="D3">
-        <v>3.35</v>
       </c>
       <c r="E3">
         <v>2.97</v>
@@ -478,10 +478,10 @@
         <v>3.87</v>
       </c>
       <c r="D4">
-        <v>3.91</v>
+        <v>3.87</v>
       </c>
       <c r="E4">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>3.98</v>
+      </c>
+      <c r="D5">
         <v>3.99</v>
       </c>
-      <c r="D5">
-        <v>4.16</v>
-      </c>
       <c r="E5">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.16</v>
+      </c>
+      <c r="D6">
         <v>4.07</v>
       </c>
-      <c r="D6">
-        <v>4.3</v>
-      </c>
       <c r="E6">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.19</v>
+      </c>
+      <c r="D7">
         <v>4.12</v>
       </c>
-      <c r="D7">
-        <v>4.39</v>
-      </c>
       <c r="E7">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.98</v>
+      </c>
+      <c r="D8">
         <v>3.92</v>
-      </c>
-      <c r="D8">
-        <v>4.21</v>
       </c>
       <c r="E8">
         <v>3.27</v>
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.89</v>
+      </c>
+      <c r="D9">
         <v>3.83</v>
       </c>
-      <c r="D9">
-        <v>4.14</v>
-      </c>
       <c r="E9">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.76</v>
+      </c>
+      <c r="D10">
         <v>3.72</v>
       </c>
-      <c r="D10">
-        <v>3.97</v>
-      </c>
       <c r="E10">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>3.98</v>
       </c>
-      <c r="D11">
-        <v>4.15</v>
-      </c>
       <c r="E11">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.71</v>
+      </c>
+      <c r="D12">
         <v>3.7</v>
       </c>
-      <c r="D12">
-        <v>3.87</v>
-      </c>
       <c r="E12">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44834</v>
+      </c>
+      <c r="D1" s="2">
         <v>44833</v>
       </c>
-      <c r="D1" s="2">
-        <v>44832</v>
-      </c>
       <c r="E1" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.79</v>
+      </c>
+      <c r="D2">
         <v>2.78</v>
       </c>
-      <c r="D2">
-        <v>2.63</v>
-      </c>
       <c r="E2">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.33</v>
+      </c>
+      <c r="D3">
         <v>3.36</v>
       </c>
-      <c r="D3">
-        <v>3.4</v>
-      </c>
       <c r="E3">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="D4">
         <v>3.87</v>
       </c>
       <c r="E4">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.05</v>
+      </c>
+      <c r="D5">
         <v>3.98</v>
       </c>
-      <c r="D5">
-        <v>3.99</v>
-      </c>
       <c r="E5">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.22</v>
+      </c>
+      <c r="D6">
         <v>4.16</v>
       </c>
-      <c r="D6">
-        <v>4.07</v>
-      </c>
       <c r="E6">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.25</v>
+      </c>
+      <c r="D7">
         <v>4.19</v>
       </c>
-      <c r="D7">
-        <v>4.12</v>
-      </c>
       <c r="E7">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.06</v>
+      </c>
+      <c r="D8">
         <v>3.98</v>
       </c>
-      <c r="D8">
-        <v>3.92</v>
-      </c>
       <c r="E8">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.97</v>
+      </c>
+      <c r="D9">
         <v>3.89</v>
       </c>
-      <c r="D9">
-        <v>3.83</v>
-      </c>
       <c r="E9">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.83</v>
+      </c>
+      <c r="D10">
         <v>3.76</v>
       </c>
-      <c r="D10">
-        <v>3.72</v>
-      </c>
       <c r="E10">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.08</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>3.98</v>
-      </c>
       <c r="E11">
-        <v>3.49</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.79</v>
+      </c>
+      <c r="D12">
         <v>3.71</v>
       </c>
-      <c r="D12">
-        <v>3.7</v>
-      </c>
       <c r="E12">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44837</v>
+      </c>
+      <c r="D1" s="2">
         <v>44834</v>
       </c>
-      <c r="D1" s="2">
-        <v>44833</v>
-      </c>
       <c r="E1" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.87</v>
+      </c>
+      <c r="D2">
         <v>2.79</v>
       </c>
-      <c r="D2">
-        <v>2.78</v>
-      </c>
       <c r="E2">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.46</v>
+      </c>
+      <c r="D3">
         <v>3.33</v>
       </c>
-      <c r="D3">
-        <v>3.36</v>
-      </c>
       <c r="E3">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.97</v>
+      </c>
+      <c r="D4">
         <v>3.92</v>
       </c>
-      <c r="D4">
-        <v>3.87</v>
-      </c>
       <c r="E4">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.01</v>
+      </c>
+      <c r="D5">
         <v>4.05</v>
       </c>
-      <c r="D5">
-        <v>3.98</v>
-      </c>
       <c r="E5">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.12</v>
+      </c>
+      <c r="D6">
         <v>4.22</v>
       </c>
-      <c r="D6">
-        <v>4.16</v>
-      </c>
       <c r="E6">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.12</v>
+      </c>
+      <c r="D7">
         <v>4.25</v>
       </c>
-      <c r="D7">
-        <v>4.19</v>
-      </c>
       <c r="E7">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.9</v>
+      </c>
+      <c r="D8">
         <v>4.06</v>
       </c>
-      <c r="D8">
-        <v>3.98</v>
-      </c>
       <c r="E8">
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.79</v>
+      </c>
+      <c r="D9">
         <v>3.97</v>
       </c>
-      <c r="D9">
-        <v>3.89</v>
-      </c>
       <c r="E9">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.67</v>
+      </c>
+      <c r="D10">
         <v>3.83</v>
       </c>
-      <c r="D10">
-        <v>3.76</v>
-      </c>
       <c r="E10">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>4.08</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
       <c r="E11">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.73</v>
+      </c>
+      <c r="D12">
         <v>3.79</v>
       </c>
-      <c r="D12">
-        <v>3.71</v>
-      </c>
       <c r="E12">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44838</v>
+      </c>
+      <c r="D1" s="2">
         <v>44837</v>
       </c>
-      <c r="D1" s="2">
-        <v>44834</v>
-      </c>
       <c r="E1" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.91</v>
+      </c>
+      <c r="D2">
         <v>2.87</v>
       </c>
-      <c r="D2">
-        <v>2.79</v>
-      </c>
       <c r="E2">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.45</v>
+      </c>
+      <c r="D3">
         <v>3.46</v>
       </c>
-      <c r="D3">
-        <v>3.33</v>
-      </c>
       <c r="E3">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>3.98</v>
+      </c>
+      <c r="D4">
         <v>3.97</v>
       </c>
-      <c r="D4">
-        <v>3.92</v>
-      </c>
       <c r="E4">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.15</v>
+      </c>
+      <c r="D5">
         <v>4.01</v>
       </c>
-      <c r="D5">
-        <v>4.05</v>
-      </c>
       <c r="E5">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.1</v>
+      </c>
+      <c r="D6">
         <v>4.12</v>
       </c>
-      <c r="D6">
-        <v>4.22</v>
-      </c>
       <c r="E6">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.08</v>
+      </c>
+      <c r="D7">
         <v>4.12</v>
       </c>
-      <c r="D7">
-        <v>4.25</v>
-      </c>
       <c r="E7">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.84</v>
+      </c>
+      <c r="D8">
         <v>3.9</v>
       </c>
-      <c r="D8">
-        <v>4.06</v>
-      </c>
       <c r="E8">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.73</v>
+      </c>
+      <c r="D9">
         <v>3.79</v>
       </c>
-      <c r="D9">
-        <v>3.97</v>
-      </c>
       <c r="E9">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.62</v>
+      </c>
+      <c r="D10">
         <v>3.67</v>
       </c>
-      <c r="D10">
-        <v>3.83</v>
-      </c>
       <c r="E10">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.95</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>4.08</v>
-      </c>
       <c r="E11">
-        <v>3.64</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.7</v>
+      </c>
+      <c r="D12">
         <v>3.73</v>
       </c>
-      <c r="D12">
-        <v>3.79</v>
-      </c>
       <c r="E12">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44839</v>
+      </c>
+      <c r="D1" s="2">
         <v>44838</v>
       </c>
-      <c r="D1" s="2">
-        <v>44837</v>
-      </c>
       <c r="E1" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.89</v>
+      </c>
+      <c r="D2">
         <v>2.91</v>
       </c>
-      <c r="D2">
-        <v>2.87</v>
-      </c>
       <c r="E2">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.46</v>
+      </c>
+      <c r="D3">
         <v>3.45</v>
       </c>
-      <c r="D3">
-        <v>3.46</v>
-      </c>
       <c r="E3">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>3.98</v>
       </c>
-      <c r="D4">
-        <v>3.97</v>
-      </c>
       <c r="E4">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.14</v>
+      </c>
+      <c r="D5">
         <v>4.15</v>
       </c>
-      <c r="D5">
-        <v>4.01</v>
-      </c>
       <c r="E5">
-        <v>3.47</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.15</v>
+      </c>
+      <c r="D6">
         <v>4.1</v>
       </c>
-      <c r="D6">
-        <v>4.12</v>
-      </c>
       <c r="E6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.17</v>
+      </c>
+      <c r="D7">
         <v>4.08</v>
       </c>
-      <c r="D7">
-        <v>4.12</v>
-      </c>
       <c r="E7">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.96</v>
+      </c>
+      <c r="D8">
         <v>3.84</v>
       </c>
-      <c r="D8">
-        <v>3.9</v>
-      </c>
       <c r="E8">
-        <v>3.3</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.87</v>
+      </c>
+      <c r="D9">
         <v>3.73</v>
       </c>
-      <c r="D9">
-        <v>3.79</v>
-      </c>
       <c r="E9">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.76</v>
+      </c>
+      <c r="D10">
         <v>3.62</v>
       </c>
-      <c r="D10">
-        <v>3.67</v>
-      </c>
       <c r="E10">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.05</v>
+      </c>
+      <c r="D11">
         <v>3.95</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
       <c r="E11">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.78</v>
+      </c>
+      <c r="D12">
         <v>3.7</v>
       </c>
-      <c r="D12">
-        <v>3.73</v>
-      </c>
       <c r="E12">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44840</v>
+      </c>
+      <c r="D1" s="2">
         <v>44839</v>
       </c>
-      <c r="D1" s="2">
-        <v>44838</v>
-      </c>
       <c r="E1" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.05</v>
+      </c>
+      <c r="D2">
         <v>2.89</v>
       </c>
-      <c r="D2">
-        <v>2.91</v>
-      </c>
       <c r="E2">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,10 +461,10 @@
         <v>3.46</v>
       </c>
       <c r="D3">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="E3">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.04</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>3.98</v>
-      </c>
       <c r="E4">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.19</v>
+      </c>
+      <c r="D5">
         <v>4.14</v>
       </c>
-      <c r="D5">
-        <v>4.15</v>
-      </c>
       <c r="E5">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.23</v>
+      </c>
+      <c r="D6">
         <v>4.15</v>
       </c>
-      <c r="D6">
-        <v>4.1</v>
-      </c>
       <c r="E6">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.24</v>
+      </c>
+      <c r="D7">
         <v>4.17</v>
       </c>
-      <c r="D7">
-        <v>4.08</v>
-      </c>
       <c r="E7">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.05</v>
+      </c>
+      <c r="D8">
         <v>3.96</v>
       </c>
-      <c r="D8">
-        <v>3.84</v>
-      </c>
       <c r="E8">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.95</v>
+      </c>
+      <c r="D9">
         <v>3.87</v>
       </c>
-      <c r="D9">
-        <v>3.73</v>
-      </c>
       <c r="E9">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.83</v>
+      </c>
+      <c r="D10">
         <v>3.76</v>
       </c>
-      <c r="D10">
-        <v>3.62</v>
-      </c>
       <c r="E10">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.08</v>
+      </c>
+      <c r="D11">
         <v>4.05</v>
       </c>
-      <c r="D11">
-        <v>3.95</v>
-      </c>
       <c r="E11">
-        <v>3.74</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.81</v>
+      </c>
+      <c r="D12">
         <v>3.78</v>
       </c>
-      <c r="D12">
-        <v>3.7</v>
-      </c>
       <c r="E12">
-        <v>3.49</v>
+        <v>3.42</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44841</v>
+      </c>
+      <c r="D1" s="2">
         <v>44840</v>
       </c>
-      <c r="D1" s="2">
-        <v>44839</v>
-      </c>
       <c r="E1" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.03</v>
+      </c>
+      <c r="D2">
         <v>3.05</v>
       </c>
-      <c r="D2">
-        <v>2.89</v>
-      </c>
       <c r="E2">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="D3">
         <v>3.46</v>
       </c>
       <c r="E3">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.09</v>
+      </c>
+      <c r="D4">
         <v>4.04</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.24</v>
+      </c>
+      <c r="D5">
         <v>4.19</v>
-      </c>
-      <c r="D5">
-        <v>4.14</v>
       </c>
       <c r="E5">
         <v>3.6</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.3</v>
+      </c>
+      <c r="D6">
         <v>4.23</v>
       </c>
-      <c r="D6">
-        <v>4.15</v>
-      </c>
       <c r="E6">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.33</v>
+      </c>
+      <c r="D7">
         <v>4.24</v>
       </c>
-      <c r="D7">
-        <v>4.17</v>
-      </c>
       <c r="E7">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.14</v>
+      </c>
+      <c r="D8">
         <v>4.05</v>
       </c>
-      <c r="D8">
-        <v>3.96</v>
-      </c>
       <c r="E8">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.03</v>
+      </c>
+      <c r="D9">
         <v>3.95</v>
       </c>
-      <c r="D9">
-        <v>3.87</v>
-      </c>
       <c r="E9">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.89</v>
+      </c>
+      <c r="D10">
         <v>3.83</v>
       </c>
-      <c r="D10">
-        <v>3.76</v>
-      </c>
       <c r="E10">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.13</v>
+      </c>
+      <c r="D11">
         <v>4.08</v>
       </c>
-      <c r="D11">
-        <v>4.05</v>
-      </c>
       <c r="E11">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.86</v>
+      </c>
+      <c r="D12">
         <v>3.81</v>
       </c>
-      <c r="D12">
-        <v>3.78</v>
-      </c>
       <c r="E12">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44845</v>
+      </c>
+      <c r="D1" s="2">
         <v>44841</v>
       </c>
-      <c r="D1" s="2">
-        <v>44840</v>
-      </c>
       <c r="E1" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.07</v>
+      </c>
+      <c r="D2">
         <v>3.03</v>
-      </c>
-      <c r="D2">
-        <v>3.05</v>
       </c>
       <c r="E2">
         <v>2.57</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.67</v>
+      </c>
+      <c r="D3">
         <v>3.45</v>
       </c>
-      <c r="D3">
-        <v>3.46</v>
-      </c>
       <c r="E3">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.17</v>
+      </c>
+      <c r="D4">
         <v>4.09</v>
       </c>
-      <c r="D4">
-        <v>4.04</v>
-      </c>
       <c r="E4">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.28</v>
+      </c>
+      <c r="D5">
         <v>4.24</v>
       </c>
-      <c r="D5">
-        <v>4.19</v>
-      </c>
       <c r="E5">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,10 +512,10 @@
         <v>4.3</v>
       </c>
       <c r="D6">
-        <v>4.23</v>
+        <v>4.3</v>
       </c>
       <c r="E6">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.31</v>
+      </c>
+      <c r="D7">
         <v>4.33</v>
       </c>
-      <c r="D7">
-        <v>4.24</v>
-      </c>
       <c r="E7">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -546,10 +546,10 @@
         <v>4.14</v>
       </c>
       <c r="D8">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="E8">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.06</v>
+      </c>
+      <c r="D9">
         <v>4.03</v>
       </c>
-      <c r="D9">
-        <v>3.95</v>
-      </c>
       <c r="E9">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.93</v>
+      </c>
+      <c r="D10">
         <v>3.89</v>
       </c>
-      <c r="D10">
-        <v>3.83</v>
-      </c>
       <c r="E10">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.19</v>
+      </c>
+      <c r="D11">
         <v>4.13</v>
       </c>
-      <c r="D11">
-        <v>4.08</v>
-      </c>
       <c r="E11">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.92</v>
+      </c>
+      <c r="D12">
         <v>3.86</v>
       </c>
-      <c r="D12">
-        <v>3.81</v>
-      </c>
       <c r="E12">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44846</v>
+      </c>
+      <c r="D1" s="2">
         <v>44845</v>
       </c>
-      <c r="D1" s="2">
-        <v>44841</v>
-      </c>
       <c r="E1" s="2">
-        <v>44813</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -444,10 +444,10 @@
         <v>3.07</v>
       </c>
       <c r="D2">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="E2">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.7</v>
+      </c>
+      <c r="D3">
         <v>3.67</v>
       </c>
-      <c r="D3">
-        <v>3.45</v>
-      </c>
       <c r="E3">
-        <v>3.08</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.16</v>
+      </c>
+      <c r="D4">
         <v>4.17</v>
       </c>
-      <c r="D4">
-        <v>4.09</v>
-      </c>
       <c r="E4">
-        <v>3.52</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>4.28</v>
       </c>
       <c r="D5">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="E5">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
       <c r="D6">
         <v>4.3</v>
       </c>
       <c r="E6">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.29</v>
+      </c>
+      <c r="D7">
         <v>4.31</v>
       </c>
-      <c r="D7">
-        <v>4.33</v>
-      </c>
       <c r="E7">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="D8">
         <v>4.14</v>
       </c>
       <c r="E8">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.03</v>
+      </c>
+      <c r="D9">
         <v>4.06</v>
       </c>
-      <c r="D9">
-        <v>4.03</v>
-      </c>
       <c r="E9">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.91</v>
+      </c>
+      <c r="D10">
         <v>3.93</v>
       </c>
-      <c r="D10">
-        <v>3.89</v>
-      </c>
       <c r="E10">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.18</v>
+      </c>
+      <c r="D11">
         <v>4.19</v>
       </c>
-      <c r="D11">
-        <v>4.13</v>
-      </c>
       <c r="E11">
-        <v>3.71</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.9</v>
+      </c>
+      <c r="D12">
         <v>3.92</v>
       </c>
-      <c r="D12">
-        <v>3.86</v>
-      </c>
       <c r="E12">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44847</v>
+      </c>
+      <c r="D1" s="2">
         <v>44846</v>
       </c>
-      <c r="D1" s="2">
-        <v>44845</v>
-      </c>
       <c r="E1" s="2">
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.07</v>
+        <v>3.35</v>
       </c>
       <c r="D2">
         <v>3.07</v>
       </c>
       <c r="E2">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.79</v>
+      </c>
+      <c r="D3">
         <v>3.7</v>
       </c>
-      <c r="D3">
-        <v>3.67</v>
-      </c>
       <c r="E3">
-        <v>3.17</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.3</v>
+      </c>
+      <c r="D4">
         <v>4.16</v>
       </c>
-      <c r="D4">
-        <v>4.17</v>
-      </c>
       <c r="E4">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.28</v>
+        <v>4.46</v>
       </c>
       <c r="D5">
         <v>4.28</v>
       </c>
       <c r="E5">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.47</v>
+      </c>
+      <c r="D6">
         <v>4.28</v>
       </c>
-      <c r="D6">
-        <v>4.3</v>
-      </c>
       <c r="E6">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.44</v>
+      </c>
+      <c r="D7">
         <v>4.29</v>
       </c>
-      <c r="D7">
-        <v>4.31</v>
-      </c>
       <c r="E7">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.21</v>
+      </c>
+      <c r="D8">
         <v>4.12</v>
       </c>
-      <c r="D8">
-        <v>4.14</v>
-      </c>
       <c r="E8">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.11</v>
+      </c>
+      <c r="D9">
         <v>4.03</v>
       </c>
-      <c r="D9">
-        <v>4.06</v>
-      </c>
       <c r="E9">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.97</v>
+      </c>
+      <c r="D10">
         <v>3.91</v>
       </c>
-      <c r="D10">
-        <v>3.93</v>
-      </c>
       <c r="E10">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.25</v>
+      </c>
+      <c r="D11">
         <v>4.18</v>
       </c>
-      <c r="D11">
-        <v>4.19</v>
-      </c>
       <c r="E11">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.97</v>
+      </c>
+      <c r="D12">
         <v>3.9</v>
       </c>
-      <c r="D12">
-        <v>3.92</v>
-      </c>
       <c r="E12">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44848</v>
+      </c>
+      <c r="D1" s="2">
         <v>44847</v>
       </c>
-      <c r="D1" s="2">
-        <v>44846</v>
-      </c>
       <c r="E1" s="2">
-        <v>44817</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.3</v>
+      </c>
+      <c r="D2">
         <v>3.35</v>
       </c>
-      <c r="D2">
-        <v>3.07</v>
-      </c>
       <c r="E2">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.81</v>
+      </c>
+      <c r="D3">
         <v>3.79</v>
       </c>
-      <c r="D3">
-        <v>3.7</v>
-      </c>
       <c r="E3">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.31</v>
+      </c>
+      <c r="D4">
         <v>4.3</v>
       </c>
-      <c r="D4">
-        <v>4.16</v>
-      </c>
       <c r="E4">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
         <v>4.46</v>
       </c>
-      <c r="D5">
-        <v>4.28</v>
-      </c>
       <c r="E5">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.48</v>
+      </c>
+      <c r="D6">
         <v>4.47</v>
       </c>
-      <c r="D6">
-        <v>4.28</v>
-      </c>
       <c r="E6">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.47</v>
+      </c>
+      <c r="D7">
         <v>4.44</v>
       </c>
-      <c r="D7">
-        <v>4.29</v>
-      </c>
       <c r="E7">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.25</v>
+      </c>
+      <c r="D8">
         <v>4.21</v>
       </c>
-      <c r="D8">
-        <v>4.12</v>
-      </c>
       <c r="E8">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.15</v>
+      </c>
+      <c r="D9">
         <v>4.11</v>
       </c>
-      <c r="D9">
-        <v>4.03</v>
-      </c>
       <c r="E9">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>3.97</v>
       </c>
-      <c r="D10">
-        <v>3.91</v>
-      </c>
       <c r="E10">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.26</v>
+      </c>
+      <c r="D11">
         <v>4.25</v>
       </c>
-      <c r="D11">
-        <v>4.18</v>
-      </c>
       <c r="E11">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.99</v>
+      </c>
+      <c r="D12">
         <v>3.97</v>
       </c>
-      <c r="D12">
-        <v>3.9</v>
-      </c>
       <c r="E12">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44851</v>
+      </c>
+      <c r="D1" s="2">
         <v>44848</v>
       </c>
-      <c r="D1" s="2">
-        <v>44847</v>
-      </c>
       <c r="E1" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -444,10 +444,10 @@
         <v>3.3</v>
       </c>
       <c r="D2">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="E2">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>3.97</v>
+      </c>
+      <c r="D3">
         <v>3.81</v>
       </c>
-      <c r="D3">
-        <v>3.79</v>
-      </c>
       <c r="E3">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.38</v>
+      </c>
+      <c r="D4">
         <v>4.31</v>
       </c>
-      <c r="D4">
-        <v>4.3</v>
-      </c>
       <c r="E4">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>4.5</v>
       </c>
       <c r="D5">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="E5">
-        <v>3.95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.45</v>
+      </c>
+      <c r="D6">
         <v>4.48</v>
       </c>
-      <c r="D6">
-        <v>4.47</v>
-      </c>
       <c r="E6">
-        <v>3.78</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.45</v>
+      </c>
+      <c r="D7">
         <v>4.47</v>
       </c>
-      <c r="D7">
-        <v>4.44</v>
-      </c>
       <c r="E7">
-        <v>3.79</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.24</v>
+      </c>
+      <c r="D8">
         <v>4.25</v>
       </c>
-      <c r="D8">
-        <v>4.21</v>
-      </c>
       <c r="E8">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,10 +563,10 @@
         <v>4.15</v>
       </c>
       <c r="D9">
-        <v>4.11</v>
+        <v>4.15</v>
       </c>
       <c r="E9">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.02</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>3.97</v>
-      </c>
       <c r="E10">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.29</v>
+      </c>
+      <c r="D11">
         <v>4.26</v>
       </c>
-      <c r="D11">
-        <v>4.25</v>
-      </c>
       <c r="E11">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.04</v>
+      </c>
+      <c r="D12">
         <v>3.99</v>
       </c>
-      <c r="D12">
-        <v>3.97</v>
-      </c>
       <c r="E12">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44852</v>
+      </c>
+      <c r="D1" s="2">
         <v>44851</v>
       </c>
-      <c r="D1" s="2">
-        <v>44848</v>
-      </c>
       <c r="E1" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="D2">
         <v>3.3</v>
       </c>
       <c r="E2">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.04</v>
+      </c>
+      <c r="D3">
         <v>3.97</v>
       </c>
-      <c r="D3">
-        <v>3.81</v>
-      </c>
       <c r="E3">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.39</v>
+      </c>
+      <c r="D4">
         <v>4.38</v>
       </c>
-      <c r="D4">
-        <v>4.31</v>
-      </c>
       <c r="E4">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -498,7 +498,7 @@
         <v>4.5</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.43</v>
+      </c>
+      <c r="D6">
         <v>4.45</v>
       </c>
-      <c r="D6">
-        <v>4.48</v>
-      </c>
       <c r="E6">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.43</v>
+      </c>
+      <c r="D7">
         <v>4.45</v>
       </c>
-      <c r="D7">
-        <v>4.47</v>
-      </c>
       <c r="E7">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.21</v>
+      </c>
+      <c r="D8">
         <v>4.24</v>
       </c>
-      <c r="D8">
-        <v>4.25</v>
-      </c>
       <c r="E8">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="D9">
         <v>4.15</v>
       </c>
       <c r="E9">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,10 +577,10 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.01</v>
+      </c>
+      <c r="D10">
         <v>4.02</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
       </c>
       <c r="E10">
         <v>3.45</v>
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.27</v>
+      </c>
+      <c r="D11">
         <v>4.29</v>
       </c>
-      <c r="D11">
-        <v>4.26</v>
-      </c>
       <c r="E11">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -614,10 +614,10 @@
         <v>4.04</v>
       </c>
       <c r="D12">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
       <c r="E12">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44853</v>
+      </c>
+      <c r="D1" s="2">
         <v>44852</v>
       </c>
-      <c r="D1" s="2">
-        <v>44851</v>
-      </c>
       <c r="E1" s="2">
-        <v>44820</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.31</v>
+      </c>
+      <c r="D2">
         <v>3.25</v>
       </c>
-      <c r="D2">
-        <v>3.3</v>
-      </c>
       <c r="E2">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.07</v>
+      </c>
+      <c r="D3">
         <v>4.04</v>
       </c>
-      <c r="D3">
-        <v>3.97</v>
-      </c>
       <c r="E3">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.45</v>
+      </c>
+      <c r="D4">
         <v>4.39</v>
       </c>
-      <c r="D4">
-        <v>4.38</v>
-      </c>
       <c r="E4">
-        <v>3.77</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D5">
         <v>4.5</v>
       </c>
       <c r="E5">
-        <v>3.96</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.55</v>
+      </c>
+      <c r="D6">
         <v>4.43</v>
       </c>
-      <c r="D6">
-        <v>4.45</v>
-      </c>
       <c r="E6">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.56</v>
+      </c>
+      <c r="D7">
         <v>4.43</v>
       </c>
-      <c r="D7">
-        <v>4.45</v>
-      </c>
       <c r="E7">
-        <v>3.81</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.35</v>
+      </c>
+      <c r="D8">
         <v>4.21</v>
       </c>
-      <c r="D8">
-        <v>4.24</v>
-      </c>
       <c r="E8">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.26</v>
+      </c>
+      <c r="D9">
         <v>4.12</v>
       </c>
-      <c r="D9">
-        <v>4.15</v>
-      </c>
       <c r="E9">
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.14</v>
+      </c>
+      <c r="D10">
         <v>4.01</v>
       </c>
-      <c r="D10">
-        <v>4.02</v>
-      </c>
       <c r="E10">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.38</v>
+      </c>
+      <c r="D11">
         <v>4.27</v>
       </c>
-      <c r="D11">
-        <v>4.29</v>
-      </c>
       <c r="E11">
-        <v>3.79</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4.04</v>
+        <v>4.15</v>
       </c>
       <c r="D12">
         <v>4.04</v>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44854</v>
+      </c>
+      <c r="D1" s="2">
         <v>44853</v>
       </c>
-      <c r="D1" s="2">
-        <v>44852</v>
-      </c>
       <c r="E1" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.58</v>
+      </c>
+      <c r="D2">
         <v>3.31</v>
       </c>
-      <c r="D2">
-        <v>3.25</v>
-      </c>
       <c r="E2">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.09</v>
+      </c>
+      <c r="D3">
         <v>4.07</v>
       </c>
-      <c r="D3">
-        <v>4.04</v>
-      </c>
       <c r="E3">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.48</v>
+      </c>
+      <c r="D4">
         <v>4.45</v>
       </c>
-      <c r="D4">
-        <v>4.39</v>
-      </c>
       <c r="E4">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.66</v>
+      </c>
+      <c r="D5">
         <v>4.6</v>
       </c>
-      <c r="D5">
-        <v>4.5</v>
-      </c>
       <c r="E5">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.62</v>
+      </c>
+      <c r="D6">
         <v>4.55</v>
       </c>
-      <c r="D6">
-        <v>4.43</v>
-      </c>
       <c r="E6">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.66</v>
+      </c>
+      <c r="D7">
         <v>4.56</v>
       </c>
-      <c r="D7">
-        <v>4.43</v>
-      </c>
       <c r="E7">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.45</v>
+      </c>
+      <c r="D8">
         <v>4.35</v>
       </c>
-      <c r="D8">
-        <v>4.21</v>
-      </c>
       <c r="E8">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.36</v>
+      </c>
+      <c r="D9">
         <v>4.26</v>
       </c>
-      <c r="D9">
-        <v>4.12</v>
-      </c>
       <c r="E9">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.24</v>
+      </c>
+      <c r="D10">
         <v>4.14</v>
       </c>
-      <c r="D10">
-        <v>4.01</v>
-      </c>
       <c r="E10">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.47</v>
+      </c>
+      <c r="D11">
         <v>4.38</v>
       </c>
-      <c r="D11">
-        <v>4.27</v>
-      </c>
       <c r="E11">
-        <v>3.77</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.24</v>
+      </c>
+      <c r="D12">
         <v>4.15</v>
       </c>
-      <c r="D12">
-        <v>4.04</v>
-      </c>
       <c r="E12">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44855</v>
+      </c>
+      <c r="D1" s="2">
         <v>44854</v>
       </c>
-      <c r="D1" s="2">
-        <v>44853</v>
-      </c>
       <c r="E1" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.55</v>
+      </c>
+      <c r="D2">
         <v>3.58</v>
       </c>
-      <c r="D2">
-        <v>3.31</v>
-      </c>
       <c r="E2">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,10 +461,10 @@
         <v>4.09</v>
       </c>
       <c r="D3">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E3">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.43</v>
+      </c>
+      <c r="D4">
         <v>4.48</v>
-      </c>
-      <c r="D4">
-        <v>4.45</v>
       </c>
       <c r="E4">
         <v>3.86</v>
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.58</v>
+      </c>
+      <c r="D5">
         <v>4.66</v>
       </c>
-      <c r="D5">
-        <v>4.6</v>
-      </c>
       <c r="E5">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.49</v>
+      </c>
+      <c r="D6">
         <v>4.62</v>
       </c>
-      <c r="D6">
-        <v>4.55</v>
-      </c>
       <c r="E6">
-        <v>3.96</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.52</v>
+      </c>
+      <c r="D7">
         <v>4.66</v>
       </c>
-      <c r="D7">
-        <v>4.56</v>
-      </c>
       <c r="E7">
-        <v>3.94</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.34</v>
+      </c>
+      <c r="D8">
         <v>4.45</v>
       </c>
-      <c r="D8">
-        <v>4.35</v>
-      </c>
       <c r="E8">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.28</v>
+      </c>
+      <c r="D9">
         <v>4.36</v>
       </c>
-      <c r="D9">
-        <v>4.26</v>
-      </c>
       <c r="E9">
-        <v>3.69</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.21</v>
+      </c>
+      <c r="D10">
         <v>4.24</v>
       </c>
-      <c r="D10">
-        <v>4.14</v>
-      </c>
       <c r="E10">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.54</v>
+      </c>
+      <c r="D11">
         <v>4.47</v>
       </c>
-      <c r="D11">
-        <v>4.38</v>
-      </c>
       <c r="E11">
-        <v>3.83</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.33</v>
+      </c>
+      <c r="D12">
         <v>4.24</v>
       </c>
-      <c r="D12">
-        <v>4.15</v>
-      </c>
       <c r="E12">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44858</v>
+      </c>
+      <c r="D1" s="2">
         <v>44855</v>
       </c>
-      <c r="D1" s="2">
-        <v>44854</v>
-      </c>
       <c r="E1" s="2">
-        <v>44825</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.57</v>
+      </c>
+      <c r="D2">
         <v>3.55</v>
       </c>
-      <c r="D2">
-        <v>3.58</v>
-      </c>
       <c r="E2">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.09</v>
+        <v>4.16</v>
       </c>
       <c r="D3">
         <v>4.09</v>
       </c>
       <c r="E3">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.52</v>
+      </c>
+      <c r="D4">
         <v>4.43</v>
       </c>
-      <c r="D4">
-        <v>4.48</v>
-      </c>
       <c r="E4">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.61</v>
+      </c>
+      <c r="D5">
         <v>4.58</v>
-      </c>
-      <c r="D5">
-        <v>4.66</v>
       </c>
       <c r="E5">
         <v>4.08</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="D6">
         <v>4.49</v>
       </c>
-      <c r="D6">
-        <v>4.62</v>
-      </c>
       <c r="E6">
-        <v>4.02</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,10 +529,10 @@
         <v>4.52</v>
       </c>
       <c r="D7">
-        <v>4.66</v>
+        <v>4.52</v>
       </c>
       <c r="E7">
-        <v>3.98</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.36</v>
+      </c>
+      <c r="D8">
         <v>4.34</v>
       </c>
-      <c r="D8">
-        <v>4.45</v>
-      </c>
       <c r="E8">
-        <v>3.74</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.31</v>
+      </c>
+      <c r="D9">
         <v>4.28</v>
       </c>
-      <c r="D9">
-        <v>4.36</v>
-      </c>
       <c r="E9">
-        <v>3.65</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.25</v>
+      </c>
+      <c r="D10">
         <v>4.21</v>
       </c>
-      <c r="D10">
-        <v>4.24</v>
-      </c>
       <c r="E10">
-        <v>3.51</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.59</v>
+      </c>
+      <c r="D11">
         <v>4.54</v>
       </c>
-      <c r="D11">
-        <v>4.47</v>
-      </c>
       <c r="E11">
-        <v>3.73</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.4</v>
+      </c>
+      <c r="D12">
         <v>4.33</v>
       </c>
-      <c r="D12">
-        <v>4.24</v>
-      </c>
       <c r="E12">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44859</v>
+      </c>
+      <c r="D1" s="2">
         <v>44858</v>
       </c>
-      <c r="D1" s="2">
-        <v>44855</v>
-      </c>
       <c r="E1" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.56</v>
+      </c>
+      <c r="D2">
         <v>3.57</v>
       </c>
-      <c r="D2">
-        <v>3.55</v>
-      </c>
       <c r="E2">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.14</v>
+      </c>
+      <c r="D3">
         <v>4.16</v>
       </c>
-      <c r="D3">
-        <v>4.09</v>
-      </c>
       <c r="E3">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.5</v>
+      </c>
+      <c r="D4">
         <v>4.52</v>
       </c>
-      <c r="D4">
-        <v>4.43</v>
-      </c>
       <c r="E4">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.6</v>
+      </c>
+      <c r="D5">
         <v>4.61</v>
       </c>
-      <c r="D5">
-        <v>4.58</v>
-      </c>
       <c r="E5">
-        <v>4.08</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.42</v>
+      </c>
+      <c r="D6">
         <v>4.5</v>
       </c>
-      <c r="D6">
-        <v>4.49</v>
-      </c>
       <c r="E6">
-        <v>4.11</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.52</v>
+        <v>4.45</v>
       </c>
       <c r="D7">
         <v>4.52</v>
       </c>
       <c r="E7">
-        <v>4.12</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.25</v>
+      </c>
+      <c r="D8">
         <v>4.36</v>
       </c>
-      <c r="D8">
-        <v>4.34</v>
-      </c>
       <c r="E8">
-        <v>3.91</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.17</v>
+      </c>
+      <c r="D9">
         <v>4.31</v>
       </c>
-      <c r="D9">
-        <v>4.28</v>
-      </c>
       <c r="E9">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.1</v>
+      </c>
+      <c r="D10">
         <v>4.25</v>
       </c>
-      <c r="D10">
-        <v>4.21</v>
-      </c>
       <c r="E10">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.45</v>
+      </c>
+      <c r="D11">
         <v>4.59</v>
       </c>
-      <c r="D11">
-        <v>4.54</v>
-      </c>
       <c r="E11">
-        <v>3.9</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.26</v>
+      </c>
+      <c r="D12">
         <v>4.4</v>
       </c>
-      <c r="D12">
-        <v>4.33</v>
-      </c>
       <c r="E12">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44860</v>
+      </c>
+      <c r="D1" s="2">
         <v>44859</v>
       </c>
-      <c r="D1" s="2">
-        <v>44858</v>
-      </c>
       <c r="E1" s="2">
-        <v>44827</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.54</v>
+      </c>
+      <c r="D2">
         <v>3.56</v>
       </c>
-      <c r="D2">
-        <v>3.57</v>
-      </c>
       <c r="E2">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.11</v>
+      </c>
+      <c r="D3">
         <v>4.14</v>
       </c>
-      <c r="D3">
-        <v>4.16</v>
-      </c>
       <c r="E3">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.47</v>
+      </c>
+      <c r="D4">
         <v>4.5</v>
       </c>
-      <c r="D4">
-        <v>4.52</v>
-      </c>
       <c r="E4">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.54</v>
+      </c>
+      <c r="D5">
         <v>4.6</v>
       </c>
-      <c r="D5">
-        <v>4.61</v>
-      </c>
       <c r="E5">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.39</v>
+      </c>
+      <c r="D6">
         <v>4.42</v>
       </c>
-      <c r="D6">
-        <v>4.5</v>
-      </c>
       <c r="E6">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.41</v>
+      </c>
+      <c r="D7">
         <v>4.45</v>
       </c>
-      <c r="D7">
-        <v>4.52</v>
-      </c>
       <c r="E7">
-        <v>4.21</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.2</v>
+      </c>
+      <c r="D8">
         <v>4.25</v>
       </c>
-      <c r="D8">
-        <v>4.36</v>
-      </c>
       <c r="E8">
-        <v>3.96</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.12</v>
+      </c>
+      <c r="D9">
         <v>4.17</v>
       </c>
-      <c r="D9">
-        <v>4.31</v>
-      </c>
       <c r="E9">
-        <v>3.85</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.04</v>
+      </c>
+      <c r="D10">
         <v>4.1</v>
       </c>
-      <c r="D10">
-        <v>4.25</v>
-      </c>
       <c r="E10">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.38</v>
+      </c>
+      <c r="D11">
         <v>4.45</v>
       </c>
-      <c r="D11">
-        <v>4.59</v>
-      </c>
       <c r="E11">
-        <v>3.87</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.19</v>
+      </c>
+      <c r="D12">
         <v>4.26</v>
       </c>
-      <c r="D12">
-        <v>4.4</v>
-      </c>
       <c r="E12">
-        <v>3.61</v>
+        <v>3.72</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44861</v>
+      </c>
+      <c r="D1" s="2">
         <v>44860</v>
       </c>
-      <c r="D1" s="2">
-        <v>44859</v>
-      </c>
       <c r="E1" s="2">
-        <v>44830</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.76</v>
+      </c>
+      <c r="D2">
         <v>3.54</v>
       </c>
-      <c r="D2">
-        <v>3.56</v>
-      </c>
       <c r="E2">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.13</v>
+      </c>
+      <c r="D3">
         <v>4.11</v>
       </c>
-      <c r="D3">
-        <v>4.14</v>
-      </c>
       <c r="E3">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.44</v>
+      </c>
+      <c r="D4">
         <v>4.47</v>
       </c>
-      <c r="D4">
-        <v>4.5</v>
-      </c>
       <c r="E4">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
         <v>4.54</v>
       </c>
-      <c r="D5">
-        <v>4.6</v>
-      </c>
       <c r="E5">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.3</v>
+      </c>
+      <c r="D6">
         <v>4.39</v>
       </c>
-      <c r="D6">
-        <v>4.42</v>
-      </c>
       <c r="E6">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.29</v>
+      </c>
+      <c r="D7">
         <v>4.41</v>
       </c>
-      <c r="D7">
-        <v>4.45</v>
-      </c>
       <c r="E7">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.09</v>
+      </c>
+      <c r="D8">
         <v>4.2</v>
       </c>
-      <c r="D8">
-        <v>4.25</v>
-      </c>
       <c r="E8">
-        <v>4.15</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.01</v>
+      </c>
+      <c r="D9">
         <v>4.12</v>
       </c>
-      <c r="D9">
-        <v>4.17</v>
-      </c>
       <c r="E9">
-        <v>4.06</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.96</v>
+      </c>
+      <c r="D10">
         <v>4.04</v>
       </c>
-      <c r="D10">
-        <v>4.1</v>
-      </c>
       <c r="E10">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.32</v>
+      </c>
+      <c r="D11">
         <v>4.38</v>
       </c>
-      <c r="D11">
-        <v>4.45</v>
-      </c>
       <c r="E11">
-        <v>4.01</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.12</v>
+      </c>
+      <c r="D12">
         <v>4.19</v>
       </c>
-      <c r="D12">
-        <v>4.26</v>
-      </c>
       <c r="E12">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44862</v>
+      </c>
+      <c r="D1" s="2">
         <v>44861</v>
       </c>
-      <c r="D1" s="2">
-        <v>44860</v>
-      </c>
       <c r="E1" s="2">
-        <v>44831</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.75</v>
+      </c>
+      <c r="D2">
         <v>3.76</v>
       </c>
-      <c r="D2">
-        <v>3.54</v>
-      </c>
       <c r="E2">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.18</v>
+      </c>
+      <c r="D3">
         <v>4.13</v>
       </c>
-      <c r="D3">
-        <v>4.11</v>
-      </c>
       <c r="E3">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.51</v>
+      </c>
+      <c r="D4">
         <v>4.44</v>
       </c>
-      <c r="D4">
-        <v>4.47</v>
-      </c>
       <c r="E4">
-        <v>3.91</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.55</v>
+      </c>
+      <c r="D5">
         <v>4.5</v>
       </c>
-      <c r="D5">
-        <v>4.54</v>
-      </c>
       <c r="E5">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.41</v>
+      </c>
+      <c r="D6">
         <v>4.3</v>
       </c>
-      <c r="D6">
-        <v>4.39</v>
-      </c>
       <c r="E6">
-        <v>4.3</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.38</v>
+      </c>
+      <c r="D7">
         <v>4.29</v>
       </c>
-      <c r="D7">
-        <v>4.41</v>
-      </c>
       <c r="E7">
-        <v>4.39</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.19</v>
+      </c>
+      <c r="D8">
         <v>4.09</v>
       </c>
-      <c r="D8">
-        <v>4.2</v>
-      </c>
       <c r="E8">
-        <v>4.21</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.1</v>
+      </c>
+      <c r="D9">
         <v>4.01</v>
       </c>
-      <c r="D9">
-        <v>4.12</v>
-      </c>
       <c r="E9">
-        <v>4.14</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.02</v>
+      </c>
+      <c r="D10">
         <v>3.96</v>
       </c>
-      <c r="D10">
-        <v>4.04</v>
-      </c>
       <c r="E10">
-        <v>3.97</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.38</v>
+      </c>
+      <c r="D11">
         <v>4.32</v>
       </c>
-      <c r="D11">
-        <v>4.38</v>
-      </c>
       <c r="E11">
-        <v>4.15</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.15</v>
+      </c>
+      <c r="D12">
         <v>4.12</v>
       </c>
-      <c r="D12">
-        <v>4.19</v>
-      </c>
       <c r="E12">
-        <v>3.87</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44865</v>
+      </c>
+      <c r="D1" s="2">
         <v>44862</v>
       </c>
-      <c r="D1" s="2">
-        <v>44861</v>
-      </c>
       <c r="E1" s="2">
-        <v>44832</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.73</v>
+      </c>
+      <c r="D2">
         <v>3.75</v>
       </c>
-      <c r="D2">
-        <v>3.76</v>
-      </c>
       <c r="E2">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.22</v>
+      </c>
+      <c r="D3">
         <v>4.18</v>
       </c>
-      <c r="D3">
-        <v>4.13</v>
-      </c>
       <c r="E3">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.57</v>
+      </c>
+      <c r="D4">
         <v>4.51</v>
-      </c>
-      <c r="D4">
-        <v>4.44</v>
       </c>
       <c r="E4">
         <v>3.87</v>
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.66</v>
+      </c>
+      <c r="D5">
         <v>4.55</v>
       </c>
-      <c r="D5">
-        <v>4.5</v>
-      </c>
       <c r="E5">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.51</v>
+      </c>
+      <c r="D6">
         <v>4.41</v>
       </c>
-      <c r="D6">
-        <v>4.3</v>
-      </c>
       <c r="E6">
-        <v>4.07</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.45</v>
+      </c>
+      <c r="D7">
         <v>4.38</v>
       </c>
-      <c r="D7">
-        <v>4.29</v>
-      </c>
       <c r="E7">
-        <v>4.12</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.27</v>
+      </c>
+      <c r="D8">
         <v>4.19</v>
       </c>
-      <c r="D8">
-        <v>4.09</v>
-      </c>
       <c r="E8">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.18</v>
+      </c>
+      <c r="D9">
         <v>4.1</v>
       </c>
-      <c r="D9">
-        <v>4.01</v>
-      </c>
       <c r="E9">
-        <v>3.83</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.1</v>
+      </c>
+      <c r="D10">
         <v>4.02</v>
       </c>
-      <c r="D10">
-        <v>3.96</v>
-      </c>
       <c r="E10">
-        <v>3.72</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.44</v>
+      </c>
+      <c r="D11">
         <v>4.38</v>
       </c>
-      <c r="D11">
-        <v>4.32</v>
-      </c>
       <c r="E11">
-        <v>3.98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.22</v>
+      </c>
+      <c r="D12">
         <v>4.15</v>
       </c>
-      <c r="D12">
-        <v>4.12</v>
-      </c>
       <c r="E12">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44866</v>
+      </c>
+      <c r="D1" s="2">
         <v>44865</v>
       </c>
-      <c r="D1" s="2">
-        <v>44862</v>
-      </c>
       <c r="E1" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.72</v>
+      </c>
+      <c r="D2">
         <v>3.73</v>
       </c>
-      <c r="D2">
-        <v>3.75</v>
-      </c>
       <c r="E2">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.23</v>
+      </c>
+      <c r="D3">
         <v>4.22</v>
       </c>
-      <c r="D3">
-        <v>4.18</v>
-      </c>
       <c r="E3">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.58</v>
+      </c>
+      <c r="D4">
         <v>4.57</v>
       </c>
-      <c r="D4">
-        <v>4.51</v>
-      </c>
       <c r="E4">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.75</v>
+      </c>
+      <c r="D5">
         <v>4.66</v>
       </c>
-      <c r="D5">
-        <v>4.55</v>
-      </c>
       <c r="E5">
-        <v>3.98</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.54</v>
+      </c>
+      <c r="D6">
         <v>4.51</v>
       </c>
-      <c r="D6">
-        <v>4.41</v>
-      </c>
       <c r="E6">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.48</v>
+      </c>
+      <c r="D7">
         <v>4.45</v>
       </c>
-      <c r="D7">
-        <v>4.38</v>
-      </c>
       <c r="E7">
-        <v>4.19</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -546,10 +546,10 @@
         <v>4.27</v>
       </c>
       <c r="D8">
-        <v>4.19</v>
+        <v>4.27</v>
       </c>
       <c r="E8">
-        <v>3.98</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,10 +563,10 @@
         <v>4.18</v>
       </c>
       <c r="D9">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="E9">
-        <v>3.89</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.07</v>
+      </c>
+      <c r="D10">
         <v>4.1</v>
       </c>
-      <c r="D10">
-        <v>4.02</v>
-      </c>
       <c r="E10">
-        <v>3.76</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.37</v>
+      </c>
+      <c r="D11">
         <v>4.44</v>
       </c>
-      <c r="D11">
-        <v>4.38</v>
-      </c>
       <c r="E11">
-        <v>4</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.14</v>
+      </c>
+      <c r="D12">
         <v>4.22</v>
       </c>
-      <c r="D12">
-        <v>4.15</v>
-      </c>
       <c r="E12">
-        <v>3.71</v>
+        <v>3.79</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44867</v>
+      </c>
+      <c r="D1" s="2">
         <v>44866</v>
       </c>
-      <c r="D1" s="2">
-        <v>44865</v>
-      </c>
       <c r="E1" s="2">
-        <v>44834</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.7</v>
+      </c>
+      <c r="D2">
         <v>3.72</v>
       </c>
-      <c r="D2">
-        <v>3.73</v>
-      </c>
       <c r="E2">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.22</v>
+      </c>
+      <c r="D3">
         <v>4.23</v>
       </c>
-      <c r="D3">
-        <v>4.22</v>
-      </c>
       <c r="E3">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.57</v>
+      </c>
+      <c r="D4">
         <v>4.58</v>
       </c>
-      <c r="D4">
-        <v>4.57</v>
-      </c>
       <c r="E4">
-        <v>3.92</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.76</v>
+      </c>
+      <c r="D5">
         <v>4.75</v>
       </c>
-      <c r="D5">
-        <v>4.66</v>
-      </c>
       <c r="E5">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.61</v>
+      </c>
+      <c r="D6">
         <v>4.54</v>
       </c>
-      <c r="D6">
-        <v>4.51</v>
-      </c>
       <c r="E6">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.54</v>
+      </c>
+      <c r="D7">
         <v>4.48</v>
       </c>
-      <c r="D7">
-        <v>4.45</v>
-      </c>
       <c r="E7">
-        <v>4.25</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="D8">
         <v>4.27</v>
       </c>
       <c r="E8">
-        <v>4.06</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="D9">
         <v>4.18</v>
       </c>
       <c r="E9">
-        <v>3.97</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.1</v>
+      </c>
+      <c r="D10">
         <v>4.07</v>
       </c>
-      <c r="D10">
-        <v>4.1</v>
-      </c>
       <c r="E10">
-        <v>3.83</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.41</v>
+      </c>
+      <c r="D11">
         <v>4.37</v>
       </c>
-      <c r="D11">
-        <v>4.44</v>
-      </c>
       <c r="E11">
-        <v>4.08</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.15</v>
+      </c>
+      <c r="D12">
         <v>4.14</v>
       </c>
-      <c r="D12">
-        <v>4.22</v>
-      </c>
       <c r="E12">
-        <v>3.79</v>
+        <v>3.73</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44868</v>
+      </c>
+      <c r="D1" s="2">
         <v>44867</v>
       </c>
-      <c r="D1" s="2">
-        <v>44866</v>
-      </c>
       <c r="E1" s="2">
-        <v>44837</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.75</v>
+      </c>
+      <c r="D2">
         <v>3.7</v>
       </c>
-      <c r="D2">
-        <v>3.72</v>
-      </c>
       <c r="E2">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.25</v>
+      </c>
+      <c r="D3">
         <v>4.22</v>
       </c>
-      <c r="D3">
-        <v>4.23</v>
-      </c>
       <c r="E3">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,10 +478,10 @@
         <v>4.57</v>
       </c>
       <c r="D4">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E4">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.78</v>
+      </c>
+      <c r="D5">
         <v>4.76</v>
       </c>
-      <c r="D5">
-        <v>4.75</v>
-      </c>
       <c r="E5">
-        <v>4.01</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.71</v>
+      </c>
+      <c r="D6">
         <v>4.61</v>
       </c>
-      <c r="D6">
-        <v>4.54</v>
-      </c>
       <c r="E6">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.63</v>
+      </c>
+      <c r="D7">
         <v>4.54</v>
       </c>
-      <c r="D7">
-        <v>4.48</v>
-      </c>
       <c r="E7">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.36</v>
+      </c>
+      <c r="D8">
         <v>4.3</v>
       </c>
-      <c r="D8">
-        <v>4.27</v>
-      </c>
       <c r="E8">
-        <v>3.9</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.26</v>
+      </c>
+      <c r="D9">
         <v>4.2</v>
       </c>
-      <c r="D9">
-        <v>4.18</v>
-      </c>
       <c r="E9">
-        <v>3.79</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.14</v>
+      </c>
+      <c r="D10">
         <v>4.1</v>
       </c>
-      <c r="D10">
-        <v>4.07</v>
-      </c>
       <c r="E10">
-        <v>3.67</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.42</v>
+      </c>
+      <c r="D11">
         <v>4.41</v>
       </c>
-      <c r="D11">
-        <v>4.37</v>
-      </c>
       <c r="E11">
-        <v>4</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.18</v>
+      </c>
+      <c r="D12">
         <v>4.15</v>
       </c>
-      <c r="D12">
-        <v>4.14</v>
-      </c>
       <c r="E12">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44869</v>
+      </c>
+      <c r="D1" s="2">
         <v>44868</v>
       </c>
-      <c r="D1" s="2">
-        <v>44867</v>
-      </c>
       <c r="E1" s="2">
-        <v>44838</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.73</v>
+      </c>
+      <c r="D2">
         <v>3.75</v>
       </c>
-      <c r="D2">
-        <v>3.7</v>
-      </c>
       <c r="E2">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.21</v>
+      </c>
+      <c r="D3">
         <v>4.25</v>
       </c>
-      <c r="D3">
-        <v>4.22</v>
-      </c>
       <c r="E3">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="D4">
         <v>4.57</v>
       </c>
       <c r="E4">
-        <v>3.98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.76</v>
+      </c>
+      <c r="D5">
         <v>4.78</v>
       </c>
-      <c r="D5">
-        <v>4.76</v>
-      </c>
       <c r="E5">
-        <v>4.15</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.66</v>
+      </c>
+      <c r="D6">
         <v>4.71</v>
       </c>
-      <c r="D6">
-        <v>4.61</v>
-      </c>
       <c r="E6">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.58</v>
+      </c>
+      <c r="D7">
         <v>4.63</v>
       </c>
-      <c r="D7">
-        <v>4.54</v>
-      </c>
       <c r="E7">
-        <v>4.08</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.33</v>
+      </c>
+      <c r="D8">
         <v>4.36</v>
       </c>
-      <c r="D8">
-        <v>4.3</v>
-      </c>
       <c r="E8">
-        <v>3.84</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,10 +563,10 @@
         <v>4.26</v>
       </c>
       <c r="D9">
-        <v>4.2</v>
+        <v>4.26</v>
       </c>
       <c r="E9">
-        <v>3.73</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.17</v>
+      </c>
+      <c r="D10">
         <v>4.14</v>
       </c>
-      <c r="D10">
-        <v>4.1</v>
-      </c>
       <c r="E10">
-        <v>3.62</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.49</v>
+      </c>
+      <c r="D11">
         <v>4.42</v>
       </c>
-      <c r="D11">
-        <v>4.41</v>
-      </c>
       <c r="E11">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.27</v>
+      </c>
+      <c r="D12">
         <v>4.18</v>
       </c>
-      <c r="D12">
-        <v>4.15</v>
-      </c>
       <c r="E12">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44872</v>
+      </c>
+      <c r="D1" s="2">
         <v>44869</v>
       </c>
-      <c r="D1" s="2">
-        <v>44868</v>
-      </c>
       <c r="E1" s="2">
-        <v>44839</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.78</v>
+      </c>
+      <c r="D2">
         <v>3.73</v>
       </c>
-      <c r="D2">
-        <v>3.75</v>
-      </c>
       <c r="E2">
-        <v>2.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.29</v>
+      </c>
+      <c r="D3">
         <v>4.21</v>
-      </c>
-      <c r="D3">
-        <v>4.25</v>
       </c>
       <c r="E3">
         <v>3.46</v>
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.62</v>
+      </c>
+      <c r="D4">
         <v>4.55</v>
       </c>
-      <c r="D4">
-        <v>4.57</v>
-      </c>
       <c r="E4">
-        <v>4</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.8</v>
+      </c>
+      <c r="D5">
         <v>4.76</v>
       </c>
-      <c r="D5">
-        <v>4.78</v>
-      </c>
       <c r="E5">
-        <v>4.14</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.72</v>
+      </c>
+      <c r="D6">
         <v>4.66</v>
       </c>
-      <c r="D6">
-        <v>4.71</v>
-      </c>
       <c r="E6">
-        <v>4.15</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.63</v>
+      </c>
+      <c r="D7">
         <v>4.58</v>
       </c>
-      <c r="D7">
-        <v>4.63</v>
-      </c>
       <c r="E7">
-        <v>4.17</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.39</v>
+      </c>
+      <c r="D8">
         <v>4.33</v>
       </c>
-      <c r="D8">
-        <v>4.36</v>
-      </c>
       <c r="E8">
-        <v>3.96</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="D9">
         <v>4.26</v>
       </c>
       <c r="E9">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.22</v>
+      </c>
+      <c r="D10">
         <v>4.17</v>
       </c>
-      <c r="D10">
-        <v>4.14</v>
-      </c>
       <c r="E10">
-        <v>3.76</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.55</v>
+      </c>
+      <c r="D11">
         <v>4.49</v>
       </c>
-      <c r="D11">
-        <v>4.42</v>
-      </c>
       <c r="E11">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.34</v>
+      </c>
+      <c r="D12">
         <v>4.27</v>
       </c>
-      <c r="D12">
-        <v>4.18</v>
-      </c>
       <c r="E12">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44873</v>
+      </c>
+      <c r="D1" s="2">
         <v>44872</v>
       </c>
-      <c r="D1" s="2">
-        <v>44869</v>
-      </c>
       <c r="E1" s="2">
-        <v>44840</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.66</v>
+      </c>
+      <c r="D2">
         <v>3.78</v>
       </c>
-      <c r="D2">
-        <v>3.73</v>
-      </c>
       <c r="E2">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.28</v>
+      </c>
+      <c r="D3">
         <v>4.29</v>
       </c>
-      <c r="D3">
-        <v>4.21</v>
-      </c>
       <c r="E3">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.6</v>
+      </c>
+      <c r="D4">
         <v>4.62</v>
       </c>
-      <c r="D4">
-        <v>4.55</v>
-      </c>
       <c r="E4">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.77</v>
+      </c>
+      <c r="D5">
         <v>4.8</v>
       </c>
-      <c r="D5">
-        <v>4.76</v>
-      </c>
       <c r="E5">
-        <v>4.19</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.67</v>
+      </c>
+      <c r="D6">
         <v>4.72</v>
       </c>
-      <c r="D6">
-        <v>4.66</v>
-      </c>
       <c r="E6">
-        <v>4.23</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.55</v>
+      </c>
+      <c r="D7">
         <v>4.63</v>
       </c>
-      <c r="D7">
-        <v>4.58</v>
-      </c>
       <c r="E7">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.31</v>
+      </c>
+      <c r="D8">
         <v>4.39</v>
       </c>
-      <c r="D8">
-        <v>4.33</v>
-      </c>
       <c r="E8">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.22</v>
+      </c>
+      <c r="D9">
         <v>4.31</v>
       </c>
-      <c r="D9">
-        <v>4.26</v>
-      </c>
       <c r="E9">
-        <v>3.95</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.14</v>
+      </c>
+      <c r="D10">
         <v>4.22</v>
       </c>
-      <c r="D10">
-        <v>4.17</v>
-      </c>
       <c r="E10">
-        <v>3.83</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.47</v>
+      </c>
+      <c r="D11">
         <v>4.55</v>
       </c>
-      <c r="D11">
-        <v>4.49</v>
-      </c>
       <c r="E11">
-        <v>4.08</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.28</v>
+      </c>
+      <c r="D12">
         <v>4.34</v>
       </c>
-      <c r="D12">
-        <v>4.27</v>
-      </c>
       <c r="E12">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44874</v>
+      </c>
+      <c r="D1" s="2">
         <v>44873</v>
       </c>
-      <c r="D1" s="2">
-        <v>44872</v>
-      </c>
       <c r="E1" s="2">
-        <v>44841</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.65</v>
+      </c>
+      <c r="D2">
         <v>3.66</v>
       </c>
-      <c r="D2">
-        <v>3.78</v>
-      </c>
       <c r="E2">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.29</v>
+      </c>
+      <c r="D3">
         <v>4.28</v>
       </c>
-      <c r="D3">
-        <v>4.29</v>
-      </c>
       <c r="E3">
-        <v>3.45</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.59</v>
+      </c>
+      <c r="D4">
         <v>4.6</v>
       </c>
-      <c r="D4">
-        <v>4.62</v>
-      </c>
       <c r="E4">
-        <v>4.09</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.75</v>
+      </c>
+      <c r="D5">
         <v>4.77</v>
       </c>
-      <c r="D5">
-        <v>4.8</v>
-      </c>
       <c r="E5">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.61</v>
+      </c>
+      <c r="D6">
         <v>4.67</v>
-      </c>
-      <c r="D6">
-        <v>4.72</v>
       </c>
       <c r="E6">
         <v>4.3</v>
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.49</v>
+      </c>
+      <c r="D7">
         <v>4.55</v>
       </c>
-      <c r="D7">
-        <v>4.63</v>
-      </c>
       <c r="E7">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4.27</v>
+      </c>
+      <c r="D8">
         <v>4.31</v>
-      </c>
-      <c r="D8">
-        <v>4.39</v>
       </c>
       <c r="E8">
         <v>4.14</v>
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>4.2</v>
+      </c>
+      <c r="D9">
         <v>4.22</v>
       </c>
-      <c r="D9">
-        <v>4.31</v>
-      </c>
       <c r="E9">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>4.12</v>
+      </c>
+      <c r="D10">
         <v>4.14</v>
       </c>
-      <c r="D10">
-        <v>4.22</v>
-      </c>
       <c r="E10">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.5</v>
+      </c>
+      <c r="D11">
         <v>4.47</v>
       </c>
-      <c r="D11">
-        <v>4.55</v>
-      </c>
       <c r="E11">
-        <v>4.13</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.31</v>
+      </c>
+      <c r="D12">
         <v>4.28</v>
       </c>
-      <c r="D12">
-        <v>4.34</v>
-      </c>
       <c r="E12">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44875</v>
+      </c>
+      <c r="D1" s="2">
         <v>44874</v>
       </c>
-      <c r="D1" s="2">
-        <v>44873</v>
-      </c>
       <c r="E1" s="2">
-        <v>44845</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.71</v>
+      </c>
+      <c r="D2">
         <v>3.65</v>
-      </c>
-      <c r="D2">
-        <v>3.66</v>
       </c>
       <c r="E2">
         <v>3.07</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.28</v>
+      </c>
+      <c r="D3">
         <v>4.29</v>
       </c>
-      <c r="D3">
-        <v>4.28</v>
-      </c>
       <c r="E3">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.52</v>
+      </c>
+      <c r="D4">
         <v>4.59</v>
       </c>
-      <c r="D4">
-        <v>4.6</v>
-      </c>
       <c r="E4">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.59</v>
+      </c>
+      <c r="D5">
         <v>4.75</v>
-      </c>
-      <c r="D5">
-        <v>4.77</v>
       </c>
       <c r="E5">
         <v>4.28</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.34</v>
+      </c>
+      <c r="D6">
         <v>4.61</v>
       </c>
-      <c r="D6">
-        <v>4.67</v>
-      </c>
       <c r="E6">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.17</v>
+      </c>
+      <c r="D7">
         <v>4.49</v>
       </c>
-      <c r="D7">
-        <v>4.55</v>
-      </c>
       <c r="E7">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.95</v>
+      </c>
+      <c r="D8">
         <v>4.27</v>
       </c>
-      <c r="D8">
-        <v>4.31</v>
-      </c>
       <c r="E8">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.89</v>
+      </c>
+      <c r="D9">
         <v>4.2</v>
       </c>
-      <c r="D9">
-        <v>4.22</v>
-      </c>
       <c r="E9">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.82</v>
+      </c>
+      <c r="D10">
         <v>4.12</v>
       </c>
-      <c r="D10">
-        <v>4.14</v>
-      </c>
       <c r="E10">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.24</v>
+      </c>
+      <c r="D11">
         <v>4.5</v>
       </c>
-      <c r="D11">
-        <v>4.47</v>
-      </c>
       <c r="E11">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.03</v>
+      </c>
+      <c r="D12">
         <v>4.31</v>
       </c>
-      <c r="D12">
-        <v>4.28</v>
-      </c>
       <c r="E12">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44879</v>
+      </c>
+      <c r="D1" s="2">
         <v>44875</v>
       </c>
-      <c r="D1" s="2">
-        <v>44874</v>
-      </c>
       <c r="E1" s="2">
-        <v>44846</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.72</v>
+      </c>
+      <c r="D2">
         <v>3.71</v>
       </c>
-      <c r="D2">
-        <v>3.65</v>
-      </c>
       <c r="E2">
-        <v>3.07</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.34</v>
+      </c>
+      <c r="D3">
         <v>4.28</v>
       </c>
-      <c r="D3">
-        <v>4.29</v>
-      </c>
       <c r="E3">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.55</v>
+      </c>
+      <c r="D4">
         <v>4.52</v>
       </c>
-      <c r="D4">
-        <v>4.59</v>
-      </c>
       <c r="E4">
-        <v>4.16</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.63</v>
+      </c>
+      <c r="D5">
         <v>4.59</v>
       </c>
-      <c r="D5">
-        <v>4.75</v>
-      </c>
       <c r="E5">
-        <v>4.28</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.4</v>
+      </c>
+      <c r="D6">
         <v>4.34</v>
       </c>
-      <c r="D6">
-        <v>4.61</v>
-      </c>
       <c r="E6">
-        <v>4.28</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.24</v>
+      </c>
+      <c r="D7">
         <v>4.17</v>
       </c>
-      <c r="D7">
-        <v>4.49</v>
-      </c>
       <c r="E7">
-        <v>4.29</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>3.95</v>
       </c>
-      <c r="D8">
-        <v>4.27</v>
-      </c>
       <c r="E8">
-        <v>4.12</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.95</v>
+      </c>
+      <c r="D9">
         <v>3.89</v>
       </c>
-      <c r="D9">
-        <v>4.2</v>
-      </c>
       <c r="E9">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.88</v>
+      </c>
+      <c r="D10">
         <v>3.82</v>
       </c>
-      <c r="D10">
-        <v>4.12</v>
-      </c>
       <c r="E10">
-        <v>3.91</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.28</v>
+      </c>
+      <c r="D11">
         <v>4.24</v>
       </c>
-      <c r="D11">
-        <v>4.5</v>
-      </c>
       <c r="E11">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>4.07</v>
+      </c>
+      <c r="D12">
         <v>4.03</v>
       </c>
-      <c r="D12">
-        <v>4.31</v>
-      </c>
       <c r="E12">
-        <v>3.9</v>
+        <v>3.97</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44880</v>
+      </c>
+      <c r="D1" s="2">
         <v>44879</v>
       </c>
-      <c r="D1" s="2">
-        <v>44875</v>
-      </c>
       <c r="E1" s="2">
-        <v>44847</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.77</v>
+      </c>
+      <c r="D2">
         <v>3.72</v>
       </c>
-      <c r="D2">
-        <v>3.71</v>
-      </c>
       <c r="E2">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.31</v>
+      </c>
+      <c r="D3">
         <v>4.34</v>
       </c>
-      <c r="D3">
-        <v>4.28</v>
-      </c>
       <c r="E3">
-        <v>3.79</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.54</v>
+      </c>
+      <c r="D4">
         <v>4.55</v>
       </c>
-      <c r="D4">
-        <v>4.52</v>
-      </c>
       <c r="E4">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.6</v>
+      </c>
+      <c r="D5">
         <v>4.63</v>
       </c>
-      <c r="D5">
-        <v>4.59</v>
-      </c>
       <c r="E5">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.37</v>
+      </c>
+      <c r="D6">
         <v>4.4</v>
       </c>
-      <c r="D6">
-        <v>4.34</v>
-      </c>
       <c r="E6">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.17</v>
+      </c>
+      <c r="D7">
         <v>4.24</v>
       </c>
-      <c r="D7">
-        <v>4.17</v>
-      </c>
       <c r="E7">
-        <v>4.44</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.93</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>3.95</v>
-      </c>
       <c r="E8">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.88</v>
+      </c>
+      <c r="D9">
         <v>3.95</v>
       </c>
-      <c r="D9">
-        <v>3.89</v>
-      </c>
       <c r="E9">
-        <v>4.11</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.8</v>
+      </c>
+      <c r="D10">
         <v>3.88</v>
       </c>
-      <c r="D10">
-        <v>3.82</v>
-      </c>
       <c r="E10">
-        <v>3.97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.2</v>
+      </c>
+      <c r="D11">
         <v>4.28</v>
       </c>
-      <c r="D11">
-        <v>4.24</v>
-      </c>
       <c r="E11">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.98</v>
+      </c>
+      <c r="D12">
         <v>4.07</v>
       </c>
-      <c r="D12">
-        <v>4.03</v>
-      </c>
       <c r="E12">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44881</v>
+      </c>
+      <c r="D1" s="2">
         <v>44880</v>
       </c>
-      <c r="D1" s="2">
-        <v>44879</v>
-      </c>
       <c r="E1" s="2">
-        <v>44848</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.81</v>
+      </c>
+      <c r="D2">
         <v>3.77</v>
-      </c>
-      <c r="D2">
-        <v>3.72</v>
       </c>
       <c r="E2">
         <v>3.3</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.32</v>
+      </c>
+      <c r="D3">
         <v>4.31</v>
       </c>
-      <c r="D3">
-        <v>4.34</v>
-      </c>
       <c r="E3">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,10 +478,10 @@
         <v>4.54</v>
       </c>
       <c r="D4">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="E4">
-        <v>4.31</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.62</v>
+      </c>
+      <c r="D5">
         <v>4.6</v>
-      </c>
-      <c r="D5">
-        <v>4.63</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.35</v>
+      </c>
+      <c r="D6">
         <v>4.37</v>
       </c>
-      <c r="D6">
-        <v>4.4</v>
-      </c>
       <c r="E6">
-        <v>4.48</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.13</v>
+      </c>
+      <c r="D7">
         <v>4.17</v>
       </c>
-      <c r="D7">
-        <v>4.24</v>
-      </c>
       <c r="E7">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.83</v>
+      </c>
+      <c r="D8">
         <v>3.93</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
       <c r="E8">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,10 +560,10 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.77</v>
+      </c>
+      <c r="D9">
         <v>3.88</v>
-      </c>
-      <c r="D9">
-        <v>3.95</v>
       </c>
       <c r="E9">
         <v>4.15</v>
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.67</v>
+      </c>
+      <c r="D10">
         <v>3.8</v>
       </c>
-      <c r="D10">
-        <v>3.88</v>
-      </c>
       <c r="E10">
-        <v>4</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.03</v>
+      </c>
+      <c r="D11">
         <v>4.2</v>
       </c>
-      <c r="D11">
-        <v>4.28</v>
-      </c>
       <c r="E11">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.85</v>
+      </c>
+      <c r="D12">
         <v>3.98</v>
       </c>
-      <c r="D12">
-        <v>4.07</v>
-      </c>
       <c r="E12">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44882</v>
+      </c>
+      <c r="D1" s="2">
         <v>44881</v>
       </c>
-      <c r="D1" s="2">
-        <v>44880</v>
-      </c>
       <c r="E1" s="2">
-        <v>44851</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.93</v>
+      </c>
+      <c r="D2">
         <v>3.81</v>
       </c>
-      <c r="D2">
-        <v>3.77</v>
-      </c>
       <c r="E2">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,10 +461,10 @@
         <v>4.32</v>
       </c>
       <c r="D3">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="E3">
-        <v>3.97</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.54</v>
+        <v>4.57</v>
       </c>
       <c r="D4">
         <v>4.54</v>
       </c>
       <c r="E4">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.68</v>
+      </c>
+      <c r="D5">
         <v>4.62</v>
-      </c>
-      <c r="D5">
-        <v>4.6</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.43</v>
+      </c>
+      <c r="D6">
         <v>4.35</v>
       </c>
-      <c r="D6">
-        <v>4.37</v>
-      </c>
       <c r="E6">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.22</v>
+      </c>
+      <c r="D7">
         <v>4.13</v>
       </c>
-      <c r="D7">
-        <v>4.17</v>
-      </c>
       <c r="E7">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.93</v>
+      </c>
+      <c r="D8">
         <v>3.83</v>
       </c>
-      <c r="D8">
-        <v>3.93</v>
-      </c>
       <c r="E8">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.87</v>
+      </c>
+      <c r="D9">
         <v>3.77</v>
       </c>
-      <c r="D9">
-        <v>3.88</v>
-      </c>
       <c r="E9">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.77</v>
+      </c>
+      <c r="D10">
         <v>3.67</v>
       </c>
-      <c r="D10">
-        <v>3.8</v>
-      </c>
       <c r="E10">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.1</v>
+      </c>
+      <c r="D11">
         <v>4.03</v>
       </c>
-      <c r="D11">
-        <v>4.2</v>
-      </c>
       <c r="E11">
-        <v>4.29</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.89</v>
+      </c>
+      <c r="D12">
         <v>3.85</v>
-      </c>
-      <c r="D12">
-        <v>3.98</v>
       </c>
       <c r="E12">
         <v>4.04</v>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44883</v>
+      </c>
+      <c r="D1" s="2">
         <v>44882</v>
       </c>
-      <c r="D1" s="2">
-        <v>44881</v>
-      </c>
       <c r="E1" s="2">
-        <v>44852</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -444,10 +444,10 @@
         <v>3.93</v>
       </c>
       <c r="D2">
-        <v>3.81</v>
+        <v>3.93</v>
       </c>
       <c r="E2">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="D3">
         <v>4.32</v>
       </c>
       <c r="E3">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.61</v>
+      </c>
+      <c r="D4">
         <v>4.57</v>
       </c>
-      <c r="D4">
-        <v>4.54</v>
-      </c>
       <c r="E4">
-        <v>4.39</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.74</v>
+      </c>
+      <c r="D5">
         <v>4.68</v>
       </c>
-      <c r="D5">
-        <v>4.62</v>
-      </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.51</v>
+      </c>
+      <c r="D6">
         <v>4.43</v>
       </c>
-      <c r="D6">
-        <v>4.35</v>
-      </c>
       <c r="E6">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.28</v>
+      </c>
+      <c r="D7">
         <v>4.22</v>
       </c>
-      <c r="D7">
-        <v>4.13</v>
-      </c>
       <c r="E7">
-        <v>4.43</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.99</v>
+      </c>
+      <c r="D8">
         <v>3.93</v>
       </c>
-      <c r="D8">
-        <v>3.83</v>
-      </c>
       <c r="E8">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.92</v>
+      </c>
+      <c r="D9">
         <v>3.87</v>
       </c>
-      <c r="D9">
-        <v>3.77</v>
-      </c>
       <c r="E9">
-        <v>4.12</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.82</v>
+      </c>
+      <c r="D10">
         <v>3.77</v>
       </c>
-      <c r="D10">
-        <v>3.67</v>
-      </c>
       <c r="E10">
-        <v>4.01</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.13</v>
+      </c>
+      <c r="D11">
         <v>4.1</v>
       </c>
-      <c r="D11">
-        <v>4.03</v>
-      </c>
       <c r="E11">
-        <v>4.27</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.92</v>
+      </c>
+      <c r="D12">
         <v>3.89</v>
       </c>
-      <c r="D12">
-        <v>3.85</v>
-      </c>
       <c r="E12">
-        <v>4.04</v>
+        <v>4.15</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44886</v>
+      </c>
+      <c r="D1" s="2">
         <v>44883</v>
       </c>
-      <c r="D1" s="2">
-        <v>44882</v>
-      </c>
       <c r="E1" s="2">
-        <v>44853</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="D2">
         <v>3.93</v>
       </c>
       <c r="E2">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.41</v>
+      </c>
+      <c r="D3">
         <v>4.34</v>
       </c>
-      <c r="D3">
-        <v>4.32</v>
-      </c>
       <c r="E3">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.65</v>
+      </c>
+      <c r="D4">
         <v>4.61</v>
       </c>
-      <c r="D4">
-        <v>4.57</v>
-      </c>
       <c r="E4">
-        <v>4.45</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.75</v>
+      </c>
+      <c r="D5">
         <v>4.74</v>
       </c>
-      <c r="D5">
-        <v>4.68</v>
-      </c>
       <c r="E5">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.48</v>
+      </c>
+      <c r="D6">
         <v>4.51</v>
       </c>
-      <c r="D6">
-        <v>4.43</v>
-      </c>
       <c r="E6">
-        <v>4.55</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.32</v>
+      </c>
+      <c r="D7">
         <v>4.28</v>
       </c>
-      <c r="D7">
-        <v>4.22</v>
-      </c>
       <c r="E7">
-        <v>4.56</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.97</v>
+      </c>
+      <c r="D8">
         <v>3.99</v>
       </c>
-      <c r="D8">
-        <v>3.93</v>
-      </c>
       <c r="E8">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.94</v>
+      </c>
+      <c r="D9">
         <v>3.92</v>
       </c>
-      <c r="D9">
-        <v>3.87</v>
-      </c>
       <c r="E9">
-        <v>4.26</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.83</v>
+      </c>
+      <c r="D10">
         <v>3.82</v>
       </c>
-      <c r="D10">
-        <v>3.77</v>
-      </c>
       <c r="E10">
-        <v>4.14</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.14</v>
+      </c>
+      <c r="D11">
         <v>4.13</v>
       </c>
-      <c r="D11">
-        <v>4.1</v>
-      </c>
       <c r="E11">
-        <v>4.38</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.91</v>
+      </c>
+      <c r="D12">
         <v>3.92</v>
       </c>
-      <c r="D12">
-        <v>3.89</v>
-      </c>
       <c r="E12">
-        <v>4.15</v>
+        <v>4.24</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44887</v>
+      </c>
+      <c r="D1" s="2">
         <v>44886</v>
       </c>
-      <c r="D1" s="2">
-        <v>44883</v>
-      </c>
       <c r="E1" s="2">
-        <v>44854</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -444,10 +444,10 @@
         <v>3.97</v>
       </c>
       <c r="D2">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="E2">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.4</v>
+      </c>
+      <c r="D3">
         <v>4.41</v>
-      </c>
-      <c r="D3">
-        <v>4.34</v>
       </c>
       <c r="E3">
         <v>4.09</v>
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.68</v>
+      </c>
+      <c r="D4">
         <v>4.65</v>
       </c>
-      <c r="D4">
-        <v>4.61</v>
-      </c>
       <c r="E4">
-        <v>4.48</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.79</v>
+      </c>
+      <c r="D5">
         <v>4.75</v>
       </c>
-      <c r="D5">
-        <v>4.74</v>
-      </c>
       <c r="E5">
-        <v>4.66</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.47</v>
+      </c>
+      <c r="D6">
         <v>4.48</v>
       </c>
-      <c r="D6">
-        <v>4.51</v>
-      </c>
       <c r="E6">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.27</v>
+      </c>
+      <c r="D7">
         <v>4.32</v>
       </c>
-      <c r="D7">
-        <v>4.28</v>
-      </c>
       <c r="E7">
-        <v>4.66</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.93</v>
+      </c>
+      <c r="D8">
         <v>3.97</v>
       </c>
-      <c r="D8">
-        <v>3.99</v>
-      </c>
       <c r="E8">
-        <v>4.45</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.86</v>
+      </c>
+      <c r="D9">
         <v>3.94</v>
       </c>
-      <c r="D9">
-        <v>3.92</v>
-      </c>
       <c r="E9">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.76</v>
+      </c>
+      <c r="D10">
         <v>3.83</v>
       </c>
-      <c r="D10">
-        <v>3.82</v>
-      </c>
       <c r="E10">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.05</v>
+      </c>
+      <c r="D11">
         <v>4.14</v>
       </c>
-      <c r="D11">
-        <v>4.13</v>
-      </c>
       <c r="E11">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.83</v>
+      </c>
+      <c r="D12">
         <v>3.91</v>
       </c>
-      <c r="D12">
-        <v>3.92</v>
-      </c>
       <c r="E12">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44888</v>
+      </c>
+      <c r="D1" s="2">
         <v>44887</v>
       </c>
-      <c r="D1" s="2">
-        <v>44886</v>
-      </c>
       <c r="E1" s="2">
-        <v>44855</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.97</v>
+        <v>4.12</v>
       </c>
       <c r="D2">
         <v>3.97</v>
       </c>
       <c r="E2">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,10 +461,10 @@
         <v>4.4</v>
       </c>
       <c r="D3">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="E3">
-        <v>4.09</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.67</v>
+      </c>
+      <c r="D4">
         <v>4.68</v>
       </c>
-      <c r="D4">
-        <v>4.65</v>
-      </c>
       <c r="E4">
-        <v>4.43</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.75</v>
+      </c>
+      <c r="D5">
         <v>4.79</v>
       </c>
-      <c r="D5">
-        <v>4.75</v>
-      </c>
       <c r="E5">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.46</v>
+      </c>
+      <c r="D6">
         <v>4.47</v>
       </c>
-      <c r="D6">
-        <v>4.48</v>
-      </c>
       <c r="E6">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.23</v>
+      </c>
+      <c r="D7">
         <v>4.27</v>
-      </c>
-      <c r="D7">
-        <v>4.32</v>
       </c>
       <c r="E7">
         <v>4.52</v>
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.88</v>
+      </c>
+      <c r="D8">
         <v>3.93</v>
       </c>
-      <c r="D8">
-        <v>3.97</v>
-      </c>
       <c r="E8">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.81</v>
+      </c>
+      <c r="D9">
         <v>3.86</v>
       </c>
-      <c r="D9">
-        <v>3.94</v>
-      </c>
       <c r="E9">
-        <v>4.28</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.71</v>
+      </c>
+      <c r="D10">
         <v>3.76</v>
       </c>
-      <c r="D10">
-        <v>3.83</v>
-      </c>
       <c r="E10">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.97</v>
+      </c>
+      <c r="D11">
         <v>4.05</v>
       </c>
-      <c r="D11">
-        <v>4.14</v>
-      </c>
       <c r="E11">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.74</v>
+      </c>
+      <c r="D12">
         <v>3.83</v>
       </c>
-      <c r="D12">
-        <v>3.91</v>
-      </c>
       <c r="E12">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44890</v>
+      </c>
+      <c r="D1" s="2">
         <v>44888</v>
       </c>
-      <c r="D1" s="2">
-        <v>44887</v>
-      </c>
       <c r="E1" s="2">
-        <v>44858</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.16</v>
+      </c>
+      <c r="D2">
         <v>4.12</v>
       </c>
-      <c r="D2">
-        <v>3.97</v>
-      </c>
       <c r="E2">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="D3">
         <v>4.4</v>
       </c>
       <c r="E3">
-        <v>4.16</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,10 +478,10 @@
         <v>4.67</v>
       </c>
       <c r="D4">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="E4">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.76</v>
+      </c>
+      <c r="D5">
         <v>4.75</v>
       </c>
-      <c r="D5">
-        <v>4.79</v>
-      </c>
       <c r="E5">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.42</v>
+      </c>
+      <c r="D6">
         <v>4.46</v>
       </c>
-      <c r="D6">
-        <v>4.47</v>
-      </c>
       <c r="E6">
-        <v>4.5</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.2</v>
+      </c>
+      <c r="D7">
         <v>4.23</v>
       </c>
-      <c r="D7">
-        <v>4.27</v>
-      </c>
       <c r="E7">
-        <v>4.52</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.85</v>
+      </c>
+      <c r="D8">
         <v>3.88</v>
       </c>
-      <c r="D8">
-        <v>3.93</v>
-      </c>
       <c r="E8">
-        <v>4.36</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.78</v>
+      </c>
+      <c r="D9">
         <v>3.81</v>
       </c>
-      <c r="D9">
-        <v>3.86</v>
-      </c>
       <c r="E9">
-        <v>4.31</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.68</v>
+      </c>
+      <c r="D10">
         <v>3.71</v>
       </c>
-      <c r="D10">
-        <v>3.76</v>
-      </c>
       <c r="E10">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -597,10 +597,10 @@
         <v>3.97</v>
       </c>
       <c r="D11">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="E11">
-        <v>4.59</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -614,10 +614,10 @@
         <v>3.74</v>
       </c>
       <c r="D12">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="E12">
-        <v>4.4</v>
+        <v>4.26</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44893</v>
+      </c>
+      <c r="D1" s="2">
         <v>44890</v>
       </c>
-      <c r="D1" s="2">
-        <v>44888</v>
-      </c>
       <c r="E1" s="2">
-        <v>44859</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.11</v>
+      </c>
+      <c r="D2">
         <v>4.16</v>
       </c>
-      <c r="D2">
-        <v>4.12</v>
-      </c>
       <c r="E2">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,10 +461,10 @@
         <v>4.41</v>
       </c>
       <c r="D3">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="E3">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
       <c r="D4">
         <v>4.67</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>4.76</v>
       </c>
       <c r="D5">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E5">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.46</v>
+      </c>
+      <c r="D6">
         <v>4.42</v>
       </c>
-      <c r="D6">
-        <v>4.46</v>
-      </c>
       <c r="E6">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.22</v>
+      </c>
+      <c r="D7">
         <v>4.2</v>
       </c>
-      <c r="D7">
-        <v>4.23</v>
-      </c>
       <c r="E7">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.88</v>
+      </c>
+      <c r="D8">
         <v>3.85</v>
       </c>
-      <c r="D8">
-        <v>3.88</v>
-      </c>
       <c r="E8">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.8</v>
+      </c>
+      <c r="D9">
         <v>3.78</v>
       </c>
-      <c r="D9">
-        <v>3.81</v>
-      </c>
       <c r="E9">
-        <v>4.17</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.69</v>
+      </c>
+      <c r="D10">
         <v>3.68</v>
       </c>
-      <c r="D10">
-        <v>3.71</v>
-      </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -600,7 +600,7 @@
         <v>3.97</v>
       </c>
       <c r="E11">
-        <v>4.45</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -617,7 +617,7 @@
         <v>3.74</v>
       </c>
       <c r="E12">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44894</v>
+      </c>
+      <c r="D1" s="2">
         <v>44893</v>
       </c>
-      <c r="D1" s="2">
-        <v>44890</v>
-      </c>
       <c r="E1" s="2">
-        <v>44860</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.08</v>
+      </c>
+      <c r="D2">
         <v>4.11</v>
       </c>
-      <c r="D2">
-        <v>4.16</v>
-      </c>
       <c r="E2">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.41</v>
+        <v>4.38</v>
       </c>
       <c r="D3">
         <v>4.41</v>
       </c>
       <c r="E3">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,10 +478,10 @@
         <v>4.72</v>
       </c>
       <c r="D4">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
       <c r="E4">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="D5">
         <v>4.76</v>
       </c>
       <c r="E5">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.48</v>
+      </c>
+      <c r="D6">
         <v>4.46</v>
       </c>
-      <c r="D6">
-        <v>4.42</v>
-      </c>
       <c r="E6">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.24</v>
+      </c>
+      <c r="D7">
         <v>4.22</v>
       </c>
-      <c r="D7">
-        <v>4.2</v>
-      </c>
       <c r="E7">
-        <v>4.41</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.92</v>
+      </c>
+      <c r="D8">
         <v>3.88</v>
       </c>
-      <c r="D8">
-        <v>3.85</v>
-      </c>
       <c r="E8">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.85</v>
+      </c>
+      <c r="D9">
         <v>3.8</v>
       </c>
-      <c r="D9">
-        <v>3.78</v>
-      </c>
       <c r="E9">
-        <v>4.12</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.75</v>
+      </c>
+      <c r="D10">
         <v>3.69</v>
       </c>
-      <c r="D10">
-        <v>3.68</v>
-      </c>
       <c r="E10">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="D11">
         <v>3.97</v>
       </c>
       <c r="E11">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.74</v>
+        <v>3.81</v>
       </c>
       <c r="D12">
         <v>3.74</v>
       </c>
       <c r="E12">
-        <v>4.19</v>
+        <v>4.12</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44895</v>
+      </c>
+      <c r="D1" s="2">
         <v>44894</v>
       </c>
-      <c r="D1" s="2">
-        <v>44893</v>
-      </c>
       <c r="E1" s="2">
-        <v>44861</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.07</v>
+      </c>
+      <c r="D2">
         <v>4.08</v>
       </c>
-      <c r="D2">
-        <v>4.11</v>
-      </c>
       <c r="E2">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.37</v>
+      </c>
+      <c r="D3">
         <v>4.38</v>
       </c>
-      <c r="D3">
-        <v>4.41</v>
-      </c>
       <c r="E3">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="D4">
         <v>4.72</v>
       </c>
       <c r="E4">
-        <v>4.44</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.74</v>
+      </c>
+      <c r="D5">
         <v>4.78</v>
       </c>
-      <c r="D5">
-        <v>4.76</v>
-      </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.38</v>
+      </c>
+      <c r="D6">
         <v>4.48</v>
       </c>
-      <c r="D6">
-        <v>4.46</v>
-      </c>
       <c r="E6">
-        <v>4.3</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.13</v>
+      </c>
+      <c r="D7">
         <v>4.24</v>
       </c>
-      <c r="D7">
-        <v>4.22</v>
-      </c>
       <c r="E7">
-        <v>4.29</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.82</v>
+      </c>
+      <c r="D8">
         <v>3.92</v>
       </c>
-      <c r="D8">
-        <v>3.88</v>
-      </c>
       <c r="E8">
-        <v>4.09</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.76</v>
+      </c>
+      <c r="D9">
         <v>3.85</v>
       </c>
-      <c r="D9">
-        <v>3.8</v>
-      </c>
       <c r="E9">
-        <v>4.01</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.68</v>
+      </c>
+      <c r="D10">
         <v>3.75</v>
       </c>
-      <c r="D10">
-        <v>3.69</v>
-      </c>
       <c r="E10">
-        <v>3.96</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>4.02</v>
       </c>
-      <c r="D11">
-        <v>3.97</v>
-      </c>
       <c r="E11">
-        <v>4.32</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.8</v>
+      </c>
+      <c r="D12">
         <v>3.81</v>
       </c>
-      <c r="D12">
-        <v>3.74</v>
-      </c>
       <c r="E12">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44896</v>
+      </c>
+      <c r="D1" s="2">
         <v>44895</v>
       </c>
-      <c r="D1" s="2">
-        <v>44894</v>
-      </c>
       <c r="E1" s="2">
-        <v>44862</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.04</v>
+      </c>
+      <c r="D2">
         <v>4.07</v>
       </c>
-      <c r="D2">
-        <v>4.08</v>
-      </c>
       <c r="E2">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.33</v>
+      </c>
+      <c r="D3">
         <v>4.37</v>
       </c>
-      <c r="D3">
-        <v>4.38</v>
-      </c>
       <c r="E3">
-        <v>4.18</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.65</v>
+      </c>
+      <c r="D4">
         <v>4.7</v>
       </c>
-      <c r="D4">
-        <v>4.72</v>
-      </c>
       <c r="E4">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.66</v>
+      </c>
+      <c r="D5">
         <v>4.74</v>
       </c>
-      <c r="D5">
-        <v>4.78</v>
-      </c>
       <c r="E5">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.25</v>
+      </c>
+      <c r="D6">
         <v>4.38</v>
       </c>
-      <c r="D6">
-        <v>4.48</v>
-      </c>
       <c r="E6">
-        <v>4.41</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.98</v>
+      </c>
+      <c r="D7">
         <v>4.13</v>
       </c>
-      <c r="D7">
-        <v>4.24</v>
-      </c>
       <c r="E7">
-        <v>4.38</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.68</v>
+      </c>
+      <c r="D8">
         <v>3.82</v>
       </c>
-      <c r="D8">
-        <v>3.92</v>
-      </c>
       <c r="E8">
-        <v>4.19</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.62</v>
+      </c>
+      <c r="D9">
         <v>3.76</v>
       </c>
-      <c r="D9">
-        <v>3.85</v>
-      </c>
       <c r="E9">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.53</v>
+      </c>
+      <c r="D10">
         <v>3.68</v>
       </c>
-      <c r="D10">
-        <v>3.75</v>
-      </c>
       <c r="E10">
-        <v>4.02</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.85</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>4.02</v>
-      </c>
       <c r="E11">
-        <v>4.38</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.64</v>
+      </c>
+      <c r="D12">
         <v>3.8</v>
       </c>
-      <c r="D12">
-        <v>3.81</v>
-      </c>
       <c r="E12">
-        <v>4.15</v>
+        <v>4.22</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44897</v>
+      </c>
+      <c r="D1" s="2">
         <v>44896</v>
       </c>
-      <c r="D1" s="2">
-        <v>44895</v>
-      </c>
       <c r="E1" s="2">
-        <v>44865</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.91</v>
+      </c>
+      <c r="D2">
         <v>4.04</v>
       </c>
-      <c r="D2">
-        <v>4.07</v>
-      </c>
       <c r="E2">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.34</v>
+      </c>
+      <c r="D3">
         <v>4.33</v>
       </c>
-      <c r="D3">
-        <v>4.37</v>
-      </c>
       <c r="E3">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,10 +478,10 @@
         <v>4.65</v>
       </c>
       <c r="D4">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="E4">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.69</v>
+      </c>
+      <c r="D5">
         <v>4.66</v>
       </c>
-      <c r="D5">
-        <v>4.74</v>
-      </c>
       <c r="E5">
-        <v>4.66</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.28</v>
+      </c>
+      <c r="D6">
         <v>4.25</v>
       </c>
-      <c r="D6">
-        <v>4.38</v>
-      </c>
       <c r="E6">
-        <v>4.51</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.99</v>
+      </c>
+      <c r="D7">
         <v>3.98</v>
       </c>
-      <c r="D7">
-        <v>4.13</v>
-      </c>
       <c r="E7">
-        <v>4.45</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.67</v>
+      </c>
+      <c r="D8">
         <v>3.68</v>
-      </c>
-      <c r="D8">
-        <v>3.82</v>
       </c>
       <c r="E8">
         <v>4.27</v>
@@ -560,10 +560,10 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.61</v>
+      </c>
+      <c r="D9">
         <v>3.62</v>
-      </c>
-      <c r="D9">
-        <v>3.76</v>
       </c>
       <c r="E9">
         <v>4.18</v>
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.51</v>
+      </c>
+      <c r="D10">
         <v>3.53</v>
       </c>
-      <c r="D10">
-        <v>3.68</v>
-      </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.79</v>
+      </c>
+      <c r="D11">
         <v>3.85</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
       <c r="E11">
-        <v>4.44</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.56</v>
+      </c>
+      <c r="D12">
         <v>3.64</v>
       </c>
-      <c r="D12">
-        <v>3.8</v>
-      </c>
       <c r="E12">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44900</v>
+      </c>
+      <c r="D1" s="2">
         <v>44897</v>
       </c>
-      <c r="D1" s="2">
-        <v>44896</v>
-      </c>
       <c r="E1" s="2">
-        <v>44866</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.93</v>
+      </c>
+      <c r="D2">
         <v>3.91</v>
       </c>
-      <c r="D2">
-        <v>4.04</v>
-      </c>
       <c r="E2">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.36</v>
+      </c>
+      <c r="D3">
         <v>4.34</v>
       </c>
-      <c r="D3">
-        <v>4.33</v>
-      </c>
       <c r="E3">
-        <v>4.23</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.65</v>
+        <v>4.73</v>
       </c>
       <c r="D4">
         <v>4.65</v>
       </c>
       <c r="E4">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.77</v>
+      </c>
+      <c r="D5">
         <v>4.69</v>
       </c>
-      <c r="D5">
-        <v>4.66</v>
-      </c>
       <c r="E5">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.41</v>
+      </c>
+      <c r="D6">
         <v>4.28</v>
       </c>
-      <c r="D6">
-        <v>4.25</v>
-      </c>
       <c r="E6">
-        <v>4.54</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.13</v>
+      </c>
+      <c r="D7">
         <v>3.99</v>
       </c>
-      <c r="D7">
-        <v>3.98</v>
-      </c>
       <c r="E7">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.8</v>
+      </c>
+      <c r="D8">
         <v>3.67</v>
       </c>
-      <c r="D8">
-        <v>3.68</v>
-      </c>
       <c r="E8">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.72</v>
+      </c>
+      <c r="D9">
         <v>3.61</v>
       </c>
-      <c r="D9">
-        <v>3.62</v>
-      </c>
       <c r="E9">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.6</v>
+      </c>
+      <c r="D10">
         <v>3.51</v>
       </c>
-      <c r="D10">
-        <v>3.53</v>
-      </c>
       <c r="E10">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.84</v>
+      </c>
+      <c r="D11">
         <v>3.79</v>
       </c>
-      <c r="D11">
-        <v>3.85</v>
-      </c>
       <c r="E11">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.62</v>
+      </c>
+      <c r="D12">
         <v>3.56</v>
       </c>
-      <c r="D12">
-        <v>3.64</v>
-      </c>
       <c r="E12">
-        <v>4.14</v>
+        <v>4.15</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44901</v>
+      </c>
+      <c r="D1" s="2">
         <v>44900</v>
       </c>
-      <c r="D1" s="2">
-        <v>44897</v>
-      </c>
       <c r="E1" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.87</v>
+      </c>
+      <c r="D2">
         <v>3.93</v>
       </c>
-      <c r="D2">
-        <v>3.91</v>
-      </c>
       <c r="E2">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.37</v>
+      </c>
+      <c r="D3">
         <v>4.36</v>
       </c>
-      <c r="D3">
-        <v>4.34</v>
-      </c>
       <c r="E3">
-        <v>4.22</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.74</v>
+      </c>
+      <c r="D4">
         <v>4.73</v>
-      </c>
-      <c r="D4">
-        <v>4.65</v>
       </c>
       <c r="E4">
         <v>4.57</v>
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.73</v>
+      </c>
+      <c r="D5">
         <v>4.77</v>
       </c>
-      <c r="D5">
-        <v>4.69</v>
-      </c>
       <c r="E5">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.34</v>
+      </c>
+      <c r="D6">
         <v>4.41</v>
       </c>
-      <c r="D6">
-        <v>4.28</v>
-      </c>
       <c r="E6">
-        <v>4.61</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.07</v>
+      </c>
+      <c r="D7">
         <v>4.13</v>
       </c>
-      <c r="D7">
-        <v>3.99</v>
-      </c>
       <c r="E7">
-        <v>4.54</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.73</v>
+      </c>
+      <c r="D8">
         <v>3.8</v>
       </c>
-      <c r="D8">
-        <v>3.67</v>
-      </c>
       <c r="E8">
-        <v>4.3</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.64</v>
+      </c>
+      <c r="D9">
         <v>3.72</v>
       </c>
-      <c r="D9">
-        <v>3.61</v>
-      </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.51</v>
+      </c>
+      <c r="D10">
         <v>3.6</v>
       </c>
-      <c r="D10">
-        <v>3.51</v>
-      </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.77</v>
+      </c>
+      <c r="D11">
         <v>3.84</v>
       </c>
-      <c r="D11">
-        <v>3.79</v>
-      </c>
       <c r="E11">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.52</v>
+      </c>
+      <c r="D12">
         <v>3.62</v>
       </c>
-      <c r="D12">
-        <v>3.56</v>
-      </c>
       <c r="E12">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="D1" s="2">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="E1" s="2">
-        <v>44868</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="D2">
-        <v>3.93</v>
+        <v>3.79</v>
       </c>
       <c r="E2">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.37</v>
+        <v>4.28</v>
       </c>
       <c r="D3">
-        <v>4.36</v>
+        <v>4.29</v>
       </c>
       <c r="E3">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.74</v>
+        <v>4.71</v>
       </c>
       <c r="D4">
-        <v>4.73</v>
+        <v>4.72</v>
       </c>
       <c r="E4">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.73</v>
+        <v>4.71</v>
       </c>
       <c r="D5">
-        <v>4.77</v>
+        <v>4.67</v>
       </c>
       <c r="E5">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.34</v>
+        <v>4.31</v>
       </c>
       <c r="D6">
-        <v>4.41</v>
+        <v>4.26</v>
       </c>
       <c r="E6">
-        <v>4.71</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="D7">
-        <v>4.13</v>
+        <v>3.97</v>
       </c>
       <c r="E7">
         <v>4.63</v>
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="D8">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="E8">
-        <v>4.36</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="D9">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="E9">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="D10">
-        <v>3.6</v>
+        <v>3.42</v>
       </c>
       <c r="E10">
-        <v>4.14</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="D11">
-        <v>3.84</v>
+        <v>3.66</v>
       </c>
       <c r="E11">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="D12">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="E12">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44904</v>
+      </c>
+      <c r="D1" s="2">
         <v>44903</v>
       </c>
-      <c r="D1" s="2">
-        <v>44902</v>
-      </c>
       <c r="E1" s="2">
-        <v>44872</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.81</v>
+      </c>
+      <c r="D2">
         <v>3.75</v>
       </c>
-      <c r="D2">
-        <v>3.79</v>
-      </c>
       <c r="E2">
-        <v>3.78</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.31</v>
+      </c>
+      <c r="D3">
         <v>4.28</v>
       </c>
-      <c r="D3">
-        <v>4.29</v>
-      </c>
       <c r="E3">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.72</v>
+      </c>
+      <c r="D4">
         <v>4.71</v>
       </c>
-      <c r="D4">
-        <v>4.72</v>
-      </c>
       <c r="E4">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.72</v>
+      </c>
+      <c r="D5">
         <v>4.71</v>
       </c>
-      <c r="D5">
-        <v>4.67</v>
-      </c>
       <c r="E5">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.33</v>
+      </c>
+      <c r="D6">
         <v>4.31</v>
       </c>
-      <c r="D6">
-        <v>4.26</v>
-      </c>
       <c r="E6">
-        <v>4.72</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.07</v>
+      </c>
+      <c r="D7">
         <v>4.04</v>
       </c>
-      <c r="D7">
-        <v>3.97</v>
-      </c>
       <c r="E7">
-        <v>4.63</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.75</v>
+      </c>
+      <c r="D8">
         <v>3.71</v>
       </c>
-      <c r="D8">
-        <v>3.62</v>
-      </c>
       <c r="E8">
-        <v>4.39</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.69</v>
+      </c>
+      <c r="D9">
         <v>3.63</v>
       </c>
-      <c r="D9">
-        <v>3.54</v>
-      </c>
       <c r="E9">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.57</v>
+      </c>
+      <c r="D10">
         <v>3.48</v>
       </c>
-      <c r="D10">
-        <v>3.42</v>
-      </c>
       <c r="E10">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.82</v>
+      </c>
+      <c r="D11">
         <v>3.71</v>
       </c>
-      <c r="D11">
-        <v>3.66</v>
-      </c>
       <c r="E11">
-        <v>4.55</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.56</v>
+      </c>
+      <c r="D12">
         <v>3.44</v>
       </c>
-      <c r="D12">
-        <v>3.42</v>
-      </c>
       <c r="E12">
-        <v>4.34</v>
+        <v>4.28</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44907</v>
+      </c>
+      <c r="D1" s="2">
         <v>44904</v>
       </c>
-      <c r="D1" s="2">
-        <v>44903</v>
-      </c>
       <c r="E1" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.86</v>
+      </c>
+      <c r="D2">
         <v>3.81</v>
       </c>
-      <c r="D2">
-        <v>3.75</v>
-      </c>
       <c r="E2">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.38</v>
+      </c>
+      <c r="D3">
         <v>4.31</v>
       </c>
-      <c r="D3">
-        <v>4.28</v>
-      </c>
       <c r="E3">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.78</v>
+      </c>
+      <c r="D4">
         <v>4.72</v>
       </c>
-      <c r="D4">
-        <v>4.71</v>
-      </c>
       <c r="E4">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.75</v>
+      </c>
+      <c r="D5">
         <v>4.72</v>
       </c>
-      <c r="D5">
-        <v>4.71</v>
-      </c>
       <c r="E5">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.39</v>
+      </c>
+      <c r="D6">
         <v>4.33</v>
       </c>
-      <c r="D6">
-        <v>4.31</v>
-      </c>
       <c r="E6">
-        <v>4.67</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.1</v>
+      </c>
+      <c r="D7">
         <v>4.07</v>
       </c>
-      <c r="D7">
-        <v>4.04</v>
-      </c>
       <c r="E7">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.8</v>
+      </c>
+      <c r="D8">
         <v>3.75</v>
       </c>
-      <c r="D8">
-        <v>3.71</v>
-      </c>
       <c r="E8">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.73</v>
+      </c>
+      <c r="D9">
         <v>3.69</v>
       </c>
-      <c r="D9">
-        <v>3.63</v>
-      </c>
       <c r="E9">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.61</v>
+      </c>
+      <c r="D10">
         <v>3.57</v>
       </c>
-      <c r="D10">
-        <v>3.48</v>
-      </c>
       <c r="E10">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.84</v>
+      </c>
+      <c r="D11">
         <v>3.82</v>
       </c>
-      <c r="D11">
-        <v>3.71</v>
-      </c>
       <c r="E11">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.57</v>
+      </c>
+      <c r="D12">
         <v>3.56</v>
       </c>
-      <c r="D12">
-        <v>3.44</v>
-      </c>
       <c r="E12">
-        <v>4.28</v>
+        <v>4.31</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44908</v>
+      </c>
+      <c r="D1" s="2">
         <v>44907</v>
       </c>
-      <c r="D1" s="2">
-        <v>44904</v>
-      </c>
       <c r="E1" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.89</v>
+      </c>
+      <c r="D2">
         <v>3.86</v>
       </c>
-      <c r="D2">
-        <v>3.81</v>
-      </c>
       <c r="E2">
-        <v>3.65</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.35</v>
+      </c>
+      <c r="D3">
         <v>4.38</v>
       </c>
-      <c r="D3">
-        <v>4.31</v>
-      </c>
       <c r="E3">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.7</v>
+      </c>
+      <c r="D4">
         <v>4.78</v>
       </c>
-      <c r="D4">
-        <v>4.72</v>
-      </c>
       <c r="E4">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.64</v>
+      </c>
+      <c r="D5">
         <v>4.75</v>
       </c>
-      <c r="D5">
-        <v>4.72</v>
-      </c>
       <c r="E5">
-        <v>4.75</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.22</v>
+      </c>
+      <c r="D6">
         <v>4.39</v>
       </c>
-      <c r="D6">
-        <v>4.33</v>
-      </c>
       <c r="E6">
-        <v>4.61</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.96</v>
+      </c>
+      <c r="D7">
         <v>4.1</v>
       </c>
-      <c r="D7">
-        <v>4.07</v>
-      </c>
       <c r="E7">
-        <v>4.49</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.66</v>
+      </c>
+      <c r="D8">
         <v>3.8</v>
       </c>
-      <c r="D8">
-        <v>3.75</v>
-      </c>
       <c r="E8">
-        <v>4.27</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.6</v>
+      </c>
+      <c r="D9">
         <v>3.73</v>
       </c>
-      <c r="D9">
-        <v>3.69</v>
-      </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.51</v>
+      </c>
+      <c r="D10">
         <v>3.61</v>
       </c>
-      <c r="D10">
-        <v>3.57</v>
-      </c>
       <c r="E10">
-        <v>4.12</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.74</v>
+      </c>
+      <c r="D11">
         <v>3.84</v>
       </c>
-      <c r="D11">
-        <v>3.82</v>
-      </c>
       <c r="E11">
-        <v>4.5</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.53</v>
+      </c>
+      <c r="D12">
         <v>3.57</v>
       </c>
-      <c r="D12">
-        <v>3.56</v>
-      </c>
       <c r="E12">
-        <v>4.31</v>
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44909</v>
+      </c>
+      <c r="D1" s="2">
         <v>44908</v>
       </c>
-      <c r="D1" s="2">
-        <v>44907</v>
-      </c>
       <c r="E1" s="2">
-        <v>44875</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.91</v>
+      </c>
+      <c r="D2">
         <v>3.89</v>
       </c>
-      <c r="D2">
-        <v>3.86</v>
-      </c>
       <c r="E2">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.33</v>
+      </c>
+      <c r="D3">
         <v>4.35</v>
       </c>
-      <c r="D3">
-        <v>4.38</v>
-      </c>
       <c r="E3">
-        <v>4.28</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.68</v>
+      </c>
+      <c r="D4">
         <v>4.7</v>
       </c>
-      <c r="D4">
-        <v>4.78</v>
-      </c>
       <c r="E4">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>4.64</v>
       </c>
       <c r="D5">
-        <v>4.75</v>
+        <v>4.64</v>
       </c>
       <c r="E5">
-        <v>4.59</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.23</v>
+      </c>
+      <c r="D6">
         <v>4.22</v>
       </c>
-      <c r="D6">
-        <v>4.39</v>
-      </c>
       <c r="E6">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.94</v>
+      </c>
+      <c r="D7">
         <v>3.96</v>
       </c>
-      <c r="D7">
-        <v>4.1</v>
-      </c>
       <c r="E7">
-        <v>4.17</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.64</v>
+      </c>
+      <c r="D8">
         <v>3.66</v>
       </c>
-      <c r="D8">
-        <v>3.8</v>
-      </c>
       <c r="E8">
-        <v>3.95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.59</v>
+      </c>
+      <c r="D9">
         <v>3.6</v>
       </c>
-      <c r="D9">
-        <v>3.73</v>
-      </c>
       <c r="E9">
-        <v>3.89</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.49</v>
+      </c>
+      <c r="D10">
         <v>3.51</v>
       </c>
-      <c r="D10">
-        <v>3.61</v>
-      </c>
       <c r="E10">
-        <v>3.82</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -597,10 +597,10 @@
         <v>3.74</v>
       </c>
       <c r="D11">
-        <v>3.84</v>
+        <v>3.74</v>
       </c>
       <c r="E11">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.52</v>
+      </c>
+      <c r="D12">
         <v>3.53</v>
       </c>
-      <c r="D12">
-        <v>3.57</v>
-      </c>
       <c r="E12">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="D1" s="2">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="E1" s="2">
-        <v>44879</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
       <c r="D2">
-        <v>3.89</v>
+        <v>3.95</v>
       </c>
       <c r="E2">
-        <v>3.72</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="D3">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="E3">
-        <v>4.34</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -481,7 +481,7 @@
         <v>4.7</v>
       </c>
       <c r="E4">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="D5">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E5">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.17</v>
+      </c>
+      <c r="D6">
         <v>4.23</v>
       </c>
-      <c r="D6">
-        <v>4.22</v>
-      </c>
       <c r="E6">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="D7">
         <v>3.96</v>
       </c>
       <c r="E7">
-        <v>4.24</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.64</v>
+        <v>3.61</v>
       </c>
       <c r="D8">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="D9">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="E9">
-        <v>3.95</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="D10">
-        <v>3.51</v>
+        <v>3.44</v>
       </c>
       <c r="E10">
-        <v>3.88</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="D11">
-        <v>3.74</v>
+        <v>3.69</v>
       </c>
       <c r="E11">
-        <v>4.28</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="D12">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="E12">
-        <v>4.07</v>
+        <v>3.85</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44914</v>
+      </c>
+      <c r="D1" s="2">
         <v>44911</v>
       </c>
-      <c r="D1" s="2">
-        <v>44910</v>
-      </c>
       <c r="E1" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.95</v>
+      </c>
+      <c r="D2">
         <v>3.94</v>
       </c>
-      <c r="D2">
-        <v>3.95</v>
-      </c>
       <c r="E2">
-        <v>3.81</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.37</v>
+      </c>
+      <c r="D3">
         <v>4.31</v>
-      </c>
-      <c r="D3">
-        <v>4.34</v>
       </c>
       <c r="E3">
         <v>4.32</v>
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.71</v>
+      </c>
+      <c r="D4">
         <v>4.68</v>
       </c>
-      <c r="D4">
-        <v>4.7</v>
-      </c>
       <c r="E4">
-        <v>4.54</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.64</v>
+      </c>
+      <c r="D5">
         <v>4.61</v>
       </c>
-      <c r="D5">
-        <v>4.65</v>
-      </c>
       <c r="E5">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.25</v>
+      </c>
+      <c r="D6">
         <v>4.17</v>
       </c>
-      <c r="D6">
-        <v>4.23</v>
-      </c>
       <c r="E6">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>3.99</v>
+      </c>
+      <c r="D7">
         <v>3.91</v>
       </c>
-      <c r="D7">
-        <v>3.96</v>
-      </c>
       <c r="E7">
-        <v>4.13</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.7</v>
+      </c>
+      <c r="D8">
         <v>3.61</v>
       </c>
-      <c r="D8">
-        <v>3.62</v>
-      </c>
       <c r="E8">
-        <v>3.83</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.67</v>
+      </c>
+      <c r="D9">
         <v>3.58</v>
       </c>
-      <c r="D9">
-        <v>3.56</v>
-      </c>
       <c r="E9">
-        <v>3.77</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.57</v>
+      </c>
+      <c r="D10">
         <v>3.48</v>
       </c>
-      <c r="D10">
-        <v>3.44</v>
-      </c>
       <c r="E10">
-        <v>3.67</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.82</v>
+      </c>
+      <c r="D11">
         <v>3.73</v>
       </c>
-      <c r="D11">
-        <v>3.69</v>
-      </c>
       <c r="E11">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.62</v>
+      </c>
+      <c r="D12">
         <v>3.53</v>
       </c>
-      <c r="D12">
-        <v>3.48</v>
-      </c>
       <c r="E12">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44915</v>
+      </c>
+      <c r="D1" s="2">
         <v>44914</v>
       </c>
-      <c r="D1" s="2">
-        <v>44911</v>
-      </c>
       <c r="E1" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.89</v>
+      </c>
+      <c r="D2">
         <v>3.95</v>
-      </c>
-      <c r="D2">
-        <v>3.94</v>
       </c>
       <c r="E2">
         <v>3.93</v>
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.35</v>
+      </c>
+      <c r="D3">
         <v>4.37</v>
       </c>
-      <c r="D3">
-        <v>4.31</v>
-      </c>
       <c r="E3">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.7</v>
+      </c>
+      <c r="D4">
         <v>4.71</v>
       </c>
-      <c r="D4">
-        <v>4.68</v>
-      </c>
       <c r="E4">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>4.64</v>
       </c>
       <c r="D5">
-        <v>4.61</v>
+        <v>4.64</v>
       </c>
       <c r="E5">
-        <v>4.68</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,10 +512,10 @@
         <v>4.25</v>
       </c>
       <c r="D6">
-        <v>4.17</v>
+        <v>4.25</v>
       </c>
       <c r="E6">
-        <v>4.43</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.03</v>
+      </c>
+      <c r="D7">
         <v>3.99</v>
       </c>
-      <c r="D7">
-        <v>3.91</v>
-      </c>
       <c r="E7">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.79</v>
+      </c>
+      <c r="D8">
         <v>3.7</v>
       </c>
-      <c r="D8">
-        <v>3.61</v>
-      </c>
       <c r="E8">
-        <v>3.93</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.78</v>
+      </c>
+      <c r="D9">
         <v>3.67</v>
       </c>
-      <c r="D9">
-        <v>3.58</v>
-      </c>
       <c r="E9">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.69</v>
+      </c>
+      <c r="D10">
         <v>3.57</v>
       </c>
-      <c r="D10">
-        <v>3.48</v>
-      </c>
       <c r="E10">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.94</v>
+      </c>
+      <c r="D11">
         <v>3.82</v>
       </c>
-      <c r="D11">
-        <v>3.73</v>
-      </c>
       <c r="E11">
-        <v>4.1</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.74</v>
+      </c>
+      <c r="D12">
         <v>3.62</v>
       </c>
-      <c r="D12">
-        <v>3.53</v>
-      </c>
       <c r="E12">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44916</v>
+      </c>
+      <c r="D1" s="2">
         <v>44915</v>
       </c>
-      <c r="D1" s="2">
-        <v>44914</v>
-      </c>
       <c r="E1" s="2">
-        <v>44883</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.9</v>
+      </c>
+      <c r="D2">
         <v>3.89</v>
       </c>
-      <c r="D2">
-        <v>3.95</v>
-      </c>
       <c r="E2">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.33</v>
+      </c>
+      <c r="D3">
         <v>4.35</v>
       </c>
-      <c r="D3">
-        <v>4.37</v>
-      </c>
       <c r="E3">
-        <v>4.34</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.67</v>
+      </c>
+      <c r="D4">
         <v>4.7</v>
       </c>
-      <c r="D4">
-        <v>4.71</v>
-      </c>
       <c r="E4">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="D5">
         <v>4.64</v>
       </c>
       <c r="E5">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.25</v>
+        <v>4.21</v>
       </c>
       <c r="D6">
         <v>4.25</v>
       </c>
       <c r="E6">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>4.03</v>
       </c>
-      <c r="D7">
-        <v>3.99</v>
-      </c>
       <c r="E7">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.78</v>
+      </c>
+      <c r="D8">
         <v>3.79</v>
       </c>
-      <c r="D8">
-        <v>3.7</v>
-      </c>
       <c r="E8">
-        <v>3.99</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.77</v>
+      </c>
+      <c r="D9">
         <v>3.78</v>
       </c>
-      <c r="D9">
-        <v>3.67</v>
-      </c>
       <c r="E9">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.68</v>
+      </c>
+      <c r="D10">
         <v>3.69</v>
       </c>
-      <c r="D10">
-        <v>3.57</v>
-      </c>
       <c r="E10">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>3.93</v>
+      </c>
+      <c r="D11">
         <v>3.94</v>
       </c>
-      <c r="D11">
-        <v>3.82</v>
-      </c>
       <c r="E11">
-        <v>4.13</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -614,10 +614,10 @@
         <v>3.74</v>
       </c>
       <c r="D12">
-        <v>3.62</v>
+        <v>3.74</v>
       </c>
       <c r="E12">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>44916</v>
+        <v>44922</v>
       </c>
       <c r="D1" s="2">
-        <v>44915</v>
+        <v>44918</v>
       </c>
       <c r="E1" s="2">
-        <v>44886</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>3.87</v>
       </c>
       <c r="D2">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="E2">
-        <v>3.97</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.33</v>
+        <v>4.46</v>
       </c>
       <c r="D3">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="E3">
         <v>4.41</v>
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.76</v>
+      </c>
+      <c r="D4">
         <v>4.67</v>
       </c>
-      <c r="D4">
-        <v>4.7</v>
-      </c>
       <c r="E4">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="D5">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="E5">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.21</v>
+        <v>4.32</v>
       </c>
       <c r="D6">
-        <v>4.25</v>
+        <v>4.31</v>
       </c>
       <c r="E6">
-        <v>4.48</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.17</v>
       </c>
       <c r="D7">
-        <v>4.03</v>
+        <v>4.09</v>
       </c>
       <c r="E7">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.78</v>
+        <v>3.94</v>
       </c>
       <c r="D8">
-        <v>3.79</v>
+        <v>3.86</v>
       </c>
       <c r="E8">
-        <v>3.97</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.77</v>
+        <v>3.93</v>
       </c>
       <c r="D9">
+        <v>3.83</v>
+      </c>
+      <c r="E9">
         <v>3.78</v>
-      </c>
-      <c r="E9">
-        <v>3.94</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.84</v>
+      </c>
+      <c r="D10">
+        <v>3.75</v>
+      </c>
+      <c r="E10">
         <v>3.68</v>
-      </c>
-      <c r="D10">
-        <v>3.69</v>
-      </c>
-      <c r="E10">
-        <v>3.83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.93</v>
+        <v>4.1</v>
       </c>
       <c r="D11">
-        <v>3.94</v>
+        <v>3.99</v>
       </c>
       <c r="E11">
-        <v>4.14</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.93</v>
+      </c>
+      <c r="D12">
+        <v>3.82</v>
+      </c>
+      <c r="E12">
         <v>3.74</v>
-      </c>
-      <c r="D12">
-        <v>3.74</v>
-      </c>
-      <c r="E12">
-        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44923</v>
+      </c>
+      <c r="D1" s="2">
         <v>44922</v>
       </c>
-      <c r="D1" s="2">
-        <v>44918</v>
-      </c>
       <c r="E1" s="2">
-        <v>44890</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>3.86</v>
+      </c>
+      <c r="D2">
         <v>3.87</v>
       </c>
-      <c r="D2">
-        <v>3.8</v>
-      </c>
       <c r="E2">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,7 +461,7 @@
         <v>4.46</v>
       </c>
       <c r="D3">
-        <v>4.34</v>
+        <v>4.46</v>
       </c>
       <c r="E3">
         <v>4.41</v>
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.75</v>
+      </c>
+      <c r="D4">
         <v>4.76</v>
       </c>
-      <c r="D4">
-        <v>4.67</v>
-      </c>
       <c r="E4">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.71</v>
+      </c>
+      <c r="D5">
         <v>4.75</v>
-      </c>
-      <c r="D5">
-        <v>4.66</v>
       </c>
       <c r="E5">
         <v>4.76</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.31</v>
+      </c>
+      <c r="D6">
         <v>4.32</v>
       </c>
-      <c r="D6">
-        <v>4.31</v>
-      </c>
       <c r="E6">
-        <v>4.42</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.18</v>
+      </c>
+      <c r="D7">
         <v>4.17</v>
       </c>
-      <c r="D7">
-        <v>4.09</v>
-      </c>
       <c r="E7">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.97</v>
+      </c>
+      <c r="D8">
         <v>3.94</v>
       </c>
-      <c r="D8">
-        <v>3.86</v>
-      </c>
       <c r="E8">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.97</v>
+      </c>
+      <c r="D9">
         <v>3.93</v>
       </c>
-      <c r="D9">
-        <v>3.83</v>
-      </c>
       <c r="E9">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.88</v>
+      </c>
+      <c r="D10">
         <v>3.84</v>
       </c>
-      <c r="D10">
-        <v>3.75</v>
-      </c>
       <c r="E10">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.13</v>
+      </c>
+      <c r="D11">
         <v>4.1</v>
-      </c>
-      <c r="D11">
-        <v>3.99</v>
       </c>
       <c r="E11">
         <v>3.97</v>
@@ -611,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.98</v>
+      </c>
+      <c r="D12">
         <v>3.93</v>
-      </c>
-      <c r="D12">
-        <v>3.82</v>
       </c>
       <c r="E12">
         <v>3.74</v>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44924</v>
+      </c>
+      <c r="D1" s="2">
         <v>44923</v>
       </c>
-      <c r="D1" s="2">
-        <v>44922</v>
-      </c>
       <c r="E1" s="2">
-        <v>44893</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.04</v>
+      </c>
+      <c r="D2">
         <v>3.86</v>
       </c>
-      <c r="D2">
-        <v>3.87</v>
-      </c>
       <c r="E2">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.46</v>
+        <v>4.45</v>
       </c>
       <c r="D3">
         <v>4.46</v>
       </c>
       <c r="E3">
-        <v>4.41</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.73</v>
+      </c>
+      <c r="D4">
         <v>4.75</v>
-      </c>
-      <c r="D4">
-        <v>4.76</v>
       </c>
       <c r="E4">
         <v>4.72</v>
@@ -495,10 +495,10 @@
         <v>4.71</v>
       </c>
       <c r="D5">
-        <v>4.75</v>
+        <v>4.71</v>
       </c>
       <c r="E5">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.34</v>
+      </c>
+      <c r="D6">
         <v>4.31</v>
       </c>
-      <c r="D6">
-        <v>4.32</v>
-      </c>
       <c r="E6">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.16</v>
+      </c>
+      <c r="D7">
         <v>4.18</v>
       </c>
-      <c r="D7">
-        <v>4.17</v>
-      </c>
       <c r="E7">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.94</v>
+      </c>
+      <c r="D8">
         <v>3.97</v>
       </c>
-      <c r="D8">
-        <v>3.94</v>
-      </c>
       <c r="E8">
-        <v>3.88</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.91</v>
+      </c>
+      <c r="D9">
         <v>3.97</v>
       </c>
-      <c r="D9">
-        <v>3.93</v>
-      </c>
       <c r="E9">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.83</v>
+      </c>
+      <c r="D10">
         <v>3.88</v>
       </c>
-      <c r="D10">
-        <v>3.84</v>
-      </c>
       <c r="E10">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.09</v>
+      </c>
+      <c r="D11">
         <v>4.13</v>
       </c>
-      <c r="D11">
-        <v>4.1</v>
-      </c>
       <c r="E11">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.92</v>
+      </c>
+      <c r="D12">
         <v>3.98</v>
       </c>
-      <c r="D12">
-        <v>3.93</v>
-      </c>
       <c r="E12">
-        <v>3.74</v>
+        <v>3.81</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44925</v>
+      </c>
+      <c r="D1" s="2">
         <v>44924</v>
       </c>
-      <c r="D1" s="2">
-        <v>44923</v>
-      </c>
       <c r="E1" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.12</v>
+      </c>
+      <c r="D2">
         <v>4.04</v>
       </c>
-      <c r="D2">
-        <v>3.86</v>
-      </c>
       <c r="E2">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.42</v>
+      </c>
+      <c r="D3">
         <v>4.45</v>
       </c>
-      <c r="D3">
-        <v>4.46</v>
-      </c>
       <c r="E3">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.76</v>
+      </c>
+      <c r="D4">
         <v>4.73</v>
       </c>
-      <c r="D4">
-        <v>4.75</v>
-      </c>
       <c r="E4">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.71</v>
+        <v>4.73</v>
       </c>
       <c r="D5">
         <v>4.71</v>
       </c>
       <c r="E5">
-        <v>4.78</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.41</v>
+      </c>
+      <c r="D6">
         <v>4.34</v>
       </c>
-      <c r="D6">
-        <v>4.31</v>
-      </c>
       <c r="E6">
-        <v>4.48</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.22</v>
+      </c>
+      <c r="D7">
         <v>4.16</v>
       </c>
-      <c r="D7">
-        <v>4.18</v>
-      </c>
       <c r="E7">
-        <v>4.24</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.99</v>
+      </c>
+      <c r="D8">
         <v>3.94</v>
       </c>
-      <c r="D8">
-        <v>3.97</v>
-      </c>
       <c r="E8">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.96</v>
+      </c>
+      <c r="D9">
         <v>3.91</v>
       </c>
-      <c r="D9">
-        <v>3.97</v>
-      </c>
       <c r="E9">
-        <v>3.85</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.88</v>
+      </c>
+      <c r="D10">
         <v>3.83</v>
       </c>
-      <c r="D10">
-        <v>3.88</v>
-      </c>
       <c r="E10">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.14</v>
+      </c>
+      <c r="D11">
         <v>4.09</v>
       </c>
-      <c r="D11">
-        <v>4.13</v>
-      </c>
       <c r="E11">
-        <v>4.02</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.97</v>
+      </c>
+      <c r="D12">
         <v>3.92</v>
       </c>
-      <c r="D12">
-        <v>3.98</v>
-      </c>
       <c r="E12">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>44929</v>
+      </c>
+      <c r="D1" s="2">
         <v>44925</v>
       </c>
-      <c r="D1" s="2">
-        <v>44924</v>
-      </c>
       <c r="E1" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4.17</v>
+      </c>
+      <c r="D2">
         <v>4.12</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4.04</v>
-      </c>
-      <c r="E2">
-        <v>4.07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4.53</v>
+      </c>
+      <c r="D3">
         <v>4.42</v>
       </c>
-      <c r="D3">
-        <v>4.45</v>
-      </c>
       <c r="E3">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>4.77</v>
+      </c>
+      <c r="D4">
         <v>4.76</v>
       </c>
-      <c r="D4">
-        <v>4.73</v>
-      </c>
       <c r="E4">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>4.72</v>
+      </c>
+      <c r="D5">
         <v>4.73</v>
       </c>
-      <c r="D5">
-        <v>4.71</v>
-      </c>
       <c r="E5">
-        <v>4.74</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4.4</v>
+      </c>
+      <c r="D6">
         <v>4.41</v>
       </c>
-      <c r="D6">
-        <v>4.34</v>
-      </c>
       <c r="E6">
-        <v>4.38</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>4.18</v>
+      </c>
+      <c r="D7">
         <v>4.22</v>
       </c>
-      <c r="D7">
-        <v>4.16</v>
-      </c>
       <c r="E7">
-        <v>4.13</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3.94</v>
+      </c>
+      <c r="D8">
         <v>3.99</v>
       </c>
-      <c r="D8">
-        <v>3.94</v>
-      </c>
       <c r="E8">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>3.89</v>
+      </c>
+      <c r="D9">
         <v>3.96</v>
       </c>
-      <c r="D9">
-        <v>3.91</v>
-      </c>
       <c r="E9">
-        <v>3.76</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>3.79</v>
+      </c>
+      <c r="D10">
         <v>3.88</v>
       </c>
-      <c r="D10">
-        <v>3.83</v>
-      </c>
       <c r="E10">
-        <v>3.68</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>4.06</v>
+      </c>
+      <c r="D11">
         <v>4.14</v>
       </c>
-      <c r="D11">
-        <v>4.09</v>
-      </c>
       <c r="E11">
-        <v>4</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3.88</v>
+      </c>
+      <c r="D12">
         <v>3.97</v>
       </c>
-      <c r="D12">
-        <v>3.92</v>
-      </c>
       <c r="E12">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>44929</v>
+        <v>45027</v>
       </c>
       <c r="D1" s="2">
-        <v>44925</v>
+        <v>45026</v>
       </c>
       <c r="E1" s="2">
-        <v>44896</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="D2">
-        <v>4.12</v>
+        <v>4.53</v>
       </c>
       <c r="E2">
-        <v>4.04</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.53</v>
+        <v>5.04</v>
       </c>
       <c r="D3">
-        <v>4.42</v>
+        <v>5.08</v>
       </c>
       <c r="E3">
-        <v>4.33</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.77</v>
+        <v>4.99</v>
       </c>
       <c r="D4">
-        <v>4.76</v>
+        <v>4.98</v>
       </c>
       <c r="E4">
-        <v>4.65</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.72</v>
+        <v>4.67</v>
       </c>
       <c r="D5">
-        <v>4.73</v>
+        <v>4.65</v>
       </c>
       <c r="E5">
-        <v>4.66</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>4.03</v>
       </c>
       <c r="D6">
-        <v>4.41</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>4.25</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.18</v>
+        <v>3.76</v>
       </c>
       <c r="D7">
-        <v>4.22</v>
+        <v>3.75</v>
       </c>
       <c r="E7">
-        <v>3.98</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.94</v>
+        <v>3.54</v>
       </c>
       <c r="D8">
-        <v>3.99</v>
+        <v>3.52</v>
       </c>
       <c r="E8">
         <v>3.68</v>
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.89</v>
+        <v>3.48</v>
       </c>
       <c r="D9">
-        <v>3.96</v>
+        <v>3.47</v>
       </c>
       <c r="E9">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.79</v>
+        <v>3.43</v>
       </c>
       <c r="D10">
-        <v>3.88</v>
+        <v>3.41</v>
       </c>
       <c r="E10">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.06</v>
+        <v>3.75</v>
       </c>
       <c r="D11">
-        <v>4.14</v>
+        <v>3.74</v>
       </c>
       <c r="E11">
         <v>3.85</v>
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="D12">
-        <v>3.97</v>
+        <v>3.62</v>
       </c>
       <c r="E12">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/ust_curve.xlsx
+++ b/mercados/ust_curve.xlsx
@@ -424,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>45027</v>
+        <v>45119</v>
       </c>
       <c r="D1" s="2">
-        <v>45026</v>
+        <v>45118</v>
       </c>
       <c r="E1" s="2">
-        <v>44998</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.27</v>
+        <v>5.36</v>
       </c>
       <c r="D2">
-        <v>4.53</v>
+        <v>5.35</v>
       </c>
       <c r="E2">
-        <v>4.62</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.04</v>
+        <v>5.47</v>
       </c>
       <c r="D3">
-        <v>5.08</v>
+        <v>5.49</v>
       </c>
       <c r="E3">
-        <v>4.87</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.99</v>
+        <v>5.53</v>
       </c>
       <c r="D4">
-        <v>4.98</v>
+        <v>5.55</v>
       </c>
       <c r="E4">
-        <v>4.81</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.67</v>
+        <v>5.35</v>
       </c>
       <c r="D5">
-        <v>4.65</v>
+        <v>5.44</v>
       </c>
       <c r="E5">
-        <v>4.3</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.03</v>
+        <v>4.72</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>4.88</v>
       </c>
       <c r="E6">
-        <v>4.03</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3.76</v>
+        <v>4.36</v>
       </c>
       <c r="D7">
-        <v>3.75</v>
+        <v>4.52</v>
       </c>
       <c r="E7">
-        <v>3.88</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.54</v>
+        <v>4.07</v>
       </c>
       <c r="D8">
-        <v>3.52</v>
+        <v>4.24</v>
       </c>
       <c r="E8">
-        <v>3.68</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.48</v>
+        <v>3.97</v>
       </c>
       <c r="D9">
-        <v>3.47</v>
+        <v>4.13</v>
       </c>
       <c r="E9">
-        <v>3.65</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.43</v>
+        <v>3.86</v>
       </c>
       <c r="D10">
-        <v>3.41</v>
+        <v>3.99</v>
       </c>
       <c r="E10">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.75</v>
+        <v>4.14</v>
       </c>
       <c r="D11">
-        <v>3.74</v>
+        <v>4.22</v>
       </c>
       <c r="E11">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="D12">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="E12">
-        <v>3.7</v>
+        <v>3.89</v>
       </c>
     </row>
   </sheetData>
